--- a/results/Comparison of Fault Detection Loss K-means and K-means++.xlsx
+++ b/results/Comparison of Fault Detection Loss K-means and K-means++.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\School\Thesis\Thesis Results\Updated\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9ABBA849-BF72-43ED-B00B-0BBCCB975E85}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9A51B775-FED8-4212-8EB7-A6407281CBE7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{95A38B6A-4721-4EB4-A8E1-C673E0DB6605}"/>
   </bookViews>
@@ -26,111 +26,166 @@
     <sheet name="alpha =50" sheetId="11" r:id="rId11"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlchart.v1.0" hidden="1">'alpha = 10'!$A$2:$A$23</definedName>
-    <definedName name="_xlchart.v1.1" hidden="1">'alpha = 10'!$B$1</definedName>
-    <definedName name="_xlchart.v1.10" hidden="1">'alpha = 40'!$A$2:$A$27</definedName>
-    <definedName name="_xlchart.v1.100" hidden="1">'alpha =50'!$A$2:$A$36</definedName>
-    <definedName name="_xlchart.v1.101" hidden="1">'alpha =50'!$B$1</definedName>
-    <definedName name="_xlchart.v1.102" hidden="1">'alpha =50'!$B$2:$B$36</definedName>
-    <definedName name="_xlchart.v1.103" hidden="1">'alpha =50'!$C$1</definedName>
-    <definedName name="_xlchart.v1.104" hidden="1">'alpha =50'!$C$2:$C$36</definedName>
-    <definedName name="_xlchart.v1.11" hidden="1">'alpha = 40'!$B$1</definedName>
-    <definedName name="_xlchart.v1.12" hidden="1">'alpha = 40'!$B$2:$B$27</definedName>
-    <definedName name="_xlchart.v1.13" hidden="1">'alpha = 40'!$C$1</definedName>
-    <definedName name="_xlchart.v1.14" hidden="1">'alpha = 40'!$C$2:$C$27</definedName>
-    <definedName name="_xlchart.v1.15" hidden="1">'alpha =50'!$A$2:$A$36</definedName>
-    <definedName name="_xlchart.v1.16" hidden="1">'alpha =50'!$B$1</definedName>
-    <definedName name="_xlchart.v1.17" hidden="1">'alpha =50'!$B$2:$B$36</definedName>
-    <definedName name="_xlchart.v1.18" hidden="1">'alpha =50'!$C$1</definedName>
-    <definedName name="_xlchart.v1.19" hidden="1">'alpha =50'!$C$2:$C$36</definedName>
-    <definedName name="_xlchart.v1.2" hidden="1">'alpha = 10'!$B$2:$B$23</definedName>
-    <definedName name="_xlchart.v1.20" hidden="1">'alpha = 5'!$A$2:$A$17</definedName>
-    <definedName name="_xlchart.v1.21" hidden="1">'alpha = 5'!$B$1</definedName>
-    <definedName name="_xlchart.v1.22" hidden="1">'alpha = 5'!$B$2:$B$17</definedName>
-    <definedName name="_xlchart.v1.23" hidden="1">'alpha = 5'!$C$1</definedName>
-    <definedName name="_xlchart.v1.24" hidden="1">'alpha = 5'!$C$2:$C$17</definedName>
-    <definedName name="_xlchart.v1.25" hidden="1">'alpha = 35'!$A$2:$A$24</definedName>
-    <definedName name="_xlchart.v1.26" hidden="1">'alpha = 35'!$B$1</definedName>
-    <definedName name="_xlchart.v1.27" hidden="1">'alpha = 35'!$B$2:$B$24</definedName>
-    <definedName name="_xlchart.v1.28" hidden="1">'alpha = 35'!$C$1</definedName>
-    <definedName name="_xlchart.v1.29" hidden="1">'alpha = 35'!$C$2:$C$24</definedName>
-    <definedName name="_xlchart.v1.3" hidden="1">'alpha = 10'!$C$1</definedName>
-    <definedName name="_xlchart.v1.30" hidden="1">'alpha = 20'!$A$2:$A$27</definedName>
-    <definedName name="_xlchart.v1.31" hidden="1">'alpha = 20'!$B$1</definedName>
-    <definedName name="_xlchart.v1.32" hidden="1">'alpha = 20'!$B$2:$B$27</definedName>
-    <definedName name="_xlchart.v1.33" hidden="1">'alpha = 20'!$C$1</definedName>
-    <definedName name="_xlchart.v1.34" hidden="1">'alpha = 20'!$C$2:$C$27</definedName>
-    <definedName name="_xlchart.v1.35" hidden="1">'alpha = 45'!$A$2:$A$26</definedName>
-    <definedName name="_xlchart.v1.36" hidden="1">'alpha = 45'!$B$1</definedName>
-    <definedName name="_xlchart.v1.37" hidden="1">'alpha = 45'!$B$2:$B$26</definedName>
-    <definedName name="_xlchart.v1.38" hidden="1">'alpha = 45'!$C$1</definedName>
-    <definedName name="_xlchart.v1.39" hidden="1">'alpha = 45'!$C$2:$C$26</definedName>
-    <definedName name="_xlchart.v1.4" hidden="1">'alpha = 10'!$C$2:$C$23</definedName>
-    <definedName name="_xlchart.v1.40" hidden="1">'alpha = 25'!$A$2:$A$28</definedName>
-    <definedName name="_xlchart.v1.41" hidden="1">'alpha = 25'!$B$1</definedName>
-    <definedName name="_xlchart.v1.42" hidden="1">'alpha = 25'!$B$2:$B$28</definedName>
-    <definedName name="_xlchart.v1.43" hidden="1">'alpha = 25'!$C$1</definedName>
-    <definedName name="_xlchart.v1.44" hidden="1">'alpha = 25'!$C$2:$C$28</definedName>
-    <definedName name="_xlchart.v1.45" hidden="1">'alpha = 15'!$A$2:$A$30</definedName>
-    <definedName name="_xlchart.v1.46" hidden="1">'alpha = 15'!$B$1</definedName>
-    <definedName name="_xlchart.v1.47" hidden="1">'alpha = 15'!$B$2:$B$30</definedName>
-    <definedName name="_xlchart.v1.48" hidden="1">'alpha = 15'!$C$1</definedName>
-    <definedName name="_xlchart.v1.49" hidden="1">'alpha = 15'!$C$2:$C$30</definedName>
-    <definedName name="_xlchart.v1.5" hidden="1">'alpha = 30'!$A$2:$A$27</definedName>
-    <definedName name="_xlchart.v1.50" hidden="1">'alpha = 5'!$A$2:$A$17</definedName>
-    <definedName name="_xlchart.v1.51" hidden="1">'alpha = 5'!$B$1</definedName>
-    <definedName name="_xlchart.v1.52" hidden="1">'alpha = 5'!$B$2:$B$17</definedName>
-    <definedName name="_xlchart.v1.53" hidden="1">'alpha = 5'!$C$1</definedName>
-    <definedName name="_xlchart.v1.54" hidden="1">'alpha = 5'!$C$2:$C$17</definedName>
-    <definedName name="_xlchart.v1.55" hidden="1">'alpha = 10'!$A$2:$A$23</definedName>
-    <definedName name="_xlchart.v1.56" hidden="1">'alpha = 10'!$B$1</definedName>
-    <definedName name="_xlchart.v1.57" hidden="1">'alpha = 10'!$B$2:$B$23</definedName>
-    <definedName name="_xlchart.v1.58" hidden="1">'alpha = 10'!$C$1</definedName>
-    <definedName name="_xlchart.v1.59" hidden="1">'alpha = 10'!$C$2:$C$23</definedName>
-    <definedName name="_xlchart.v1.6" hidden="1">'alpha = 30'!$B$1</definedName>
-    <definedName name="_xlchart.v1.60" hidden="1">'alpha = 15'!$A$2:$A$30</definedName>
+    <definedName name="_xlchart.v1.0" hidden="1">'alpha = 5'!$A$2:$A$17</definedName>
+    <definedName name="_xlchart.v1.1" hidden="1">'alpha = 5'!$B$1</definedName>
+    <definedName name="_xlchart.v1.10" hidden="1">'alpha = 45'!$A$2:$A$21</definedName>
+    <definedName name="_xlchart.v1.100" hidden="1">'alpha = 5'!$A$2:$A$17</definedName>
+    <definedName name="_xlchart.v1.101" hidden="1">'alpha = 5'!$B$1</definedName>
+    <definedName name="_xlchart.v1.102" hidden="1">'alpha = 5'!$B$2:$B$17</definedName>
+    <definedName name="_xlchart.v1.103" hidden="1">'alpha = 5'!$C$1</definedName>
+    <definedName name="_xlchart.v1.104" hidden="1">'alpha = 5'!$C$2:$C$17</definedName>
+    <definedName name="_xlchart.v1.105" hidden="1">'alpha = 10'!$A$2:$A$17</definedName>
+    <definedName name="_xlchart.v1.106" hidden="1">'alpha = 10'!$B$1</definedName>
+    <definedName name="_xlchart.v1.107" hidden="1">'alpha = 10'!$B$2:$B$17</definedName>
+    <definedName name="_xlchart.v1.108" hidden="1">'alpha = 10'!$C$1</definedName>
+    <definedName name="_xlchart.v1.109" hidden="1">'alpha = 10'!$C$2:$C$17</definedName>
+    <definedName name="_xlchart.v1.11" hidden="1">'alpha = 45'!$B$1</definedName>
+    <definedName name="_xlchart.v1.110" hidden="1">'alpha = 15'!$A$2:$A$17</definedName>
+    <definedName name="_xlchart.v1.111" hidden="1">'alpha = 15'!$B$1</definedName>
+    <definedName name="_xlchart.v1.112" hidden="1">'alpha = 15'!$B$2:$B$17</definedName>
+    <definedName name="_xlchart.v1.113" hidden="1">'alpha = 15'!$C$1</definedName>
+    <definedName name="_xlchart.v1.114" hidden="1">'alpha = 15'!$C$2:$C$17</definedName>
+    <definedName name="_xlchart.v1.115" hidden="1">'alpha = 15'!$A$2:$A$17</definedName>
+    <definedName name="_xlchart.v1.116" hidden="1">'alpha = 15'!$B$1</definedName>
+    <definedName name="_xlchart.v1.117" hidden="1">'alpha = 15'!$B$2:$B$17</definedName>
+    <definedName name="_xlchart.v1.118" hidden="1">'alpha = 15'!$C$1</definedName>
+    <definedName name="_xlchart.v1.119" hidden="1">'alpha = 15'!$C$2:$C$17</definedName>
+    <definedName name="_xlchart.v1.12" hidden="1">'alpha = 45'!$B$2:$B$21</definedName>
+    <definedName name="_xlchart.v1.120" hidden="1">'alpha = 20'!$A$2:$A$17</definedName>
+    <definedName name="_xlchart.v1.121" hidden="1">'alpha = 20'!$B$1</definedName>
+    <definedName name="_xlchart.v1.122" hidden="1">'alpha = 20'!$B$2:$B$17</definedName>
+    <definedName name="_xlchart.v1.123" hidden="1">'alpha = 20'!$C$1</definedName>
+    <definedName name="_xlchart.v1.124" hidden="1">'alpha = 20'!$C$2:$C$17</definedName>
+    <definedName name="_xlchart.v1.125" hidden="1">'alpha = 25'!$A$2:$A$17</definedName>
+    <definedName name="_xlchart.v1.126" hidden="1">'alpha = 25'!$B$1</definedName>
+    <definedName name="_xlchart.v1.127" hidden="1">'alpha = 25'!$B$2:$B$17</definedName>
+    <definedName name="_xlchart.v1.128" hidden="1">'alpha = 25'!$C$1</definedName>
+    <definedName name="_xlchart.v1.129" hidden="1">'alpha = 25'!$C$2:$C$17</definedName>
+    <definedName name="_xlchart.v1.13" hidden="1">'alpha = 45'!$C$1</definedName>
+    <definedName name="_xlchart.v1.130" hidden="1">'alpha = 30'!$A$2:$A$17</definedName>
+    <definedName name="_xlchart.v1.131" hidden="1">'alpha = 30'!$B$1</definedName>
+    <definedName name="_xlchart.v1.132" hidden="1">'alpha = 30'!$B$2:$B$17</definedName>
+    <definedName name="_xlchart.v1.133" hidden="1">'alpha = 30'!$C$1</definedName>
+    <definedName name="_xlchart.v1.134" hidden="1">'alpha = 30'!$C$2:$C$17</definedName>
+    <definedName name="_xlchart.v1.135" hidden="1">'alpha = 35'!$A$2:$A$17</definedName>
+    <definedName name="_xlchart.v1.136" hidden="1">'alpha = 35'!$B$1</definedName>
+    <definedName name="_xlchart.v1.137" hidden="1">'alpha = 35'!$B$2:$B$17</definedName>
+    <definedName name="_xlchart.v1.138" hidden="1">'alpha = 35'!$C$1</definedName>
+    <definedName name="_xlchart.v1.139" hidden="1">'alpha = 35'!$C$2:$C$17</definedName>
+    <definedName name="_xlchart.v1.14" hidden="1">'alpha = 45'!$C$2:$C$21</definedName>
+    <definedName name="_xlchart.v1.140" hidden="1">'alpha = 40'!$A$2:$A$21</definedName>
+    <definedName name="_xlchart.v1.141" hidden="1">'alpha = 40'!$B$1</definedName>
+    <definedName name="_xlchart.v1.142" hidden="1">'alpha = 40'!$B$2:$B$21</definedName>
+    <definedName name="_xlchart.v1.143" hidden="1">'alpha = 40'!$C$1</definedName>
+    <definedName name="_xlchart.v1.144" hidden="1">'alpha = 40'!$C$2:$C$21</definedName>
+    <definedName name="_xlchart.v1.145" hidden="1">'alpha = 45'!$A$2:$A$21</definedName>
+    <definedName name="_xlchart.v1.146" hidden="1">'alpha = 45'!$B$1</definedName>
+    <definedName name="_xlchart.v1.147" hidden="1">'alpha = 45'!$B$2:$B$21</definedName>
+    <definedName name="_xlchart.v1.148" hidden="1">'alpha = 45'!$C$1</definedName>
+    <definedName name="_xlchart.v1.149" hidden="1">'alpha = 45'!$C$2:$C$21</definedName>
+    <definedName name="_xlchart.v1.15" hidden="1">'alpha = 20'!$A$2:$A$17</definedName>
+    <definedName name="_xlchart.v1.150" hidden="1">'alpha = 45'!$A$2:$A$21</definedName>
+    <definedName name="_xlchart.v1.151" hidden="1">'alpha = 45'!$B$1</definedName>
+    <definedName name="_xlchart.v1.152" hidden="1">'alpha = 45'!$B$2:$B$21</definedName>
+    <definedName name="_xlchart.v1.153" hidden="1">'alpha = 45'!$C$1</definedName>
+    <definedName name="_xlchart.v1.154" hidden="1">'alpha = 45'!$C$2:$C$21</definedName>
+    <definedName name="_xlchart.v1.155" hidden="1">'alpha =50'!$A$2:$A$21</definedName>
+    <definedName name="_xlchart.v1.156" hidden="1">'alpha =50'!$B$1</definedName>
+    <definedName name="_xlchart.v1.157" hidden="1">'alpha =50'!$B$2:$B$21</definedName>
+    <definedName name="_xlchart.v1.158" hidden="1">'alpha =50'!$C$1</definedName>
+    <definedName name="_xlchart.v1.159" hidden="1">'alpha =50'!$C$2:$C$21</definedName>
+    <definedName name="_xlchart.v1.16" hidden="1">'alpha = 20'!$B$1</definedName>
+    <definedName name="_xlchart.v1.17" hidden="1">'alpha = 20'!$B$2:$B$17</definedName>
+    <definedName name="_xlchart.v1.18" hidden="1">'alpha = 20'!$C$1</definedName>
+    <definedName name="_xlchart.v1.19" hidden="1">'alpha = 20'!$C$2:$C$17</definedName>
+    <definedName name="_xlchart.v1.2" hidden="1">'alpha = 5'!$B$2:$B$17</definedName>
+    <definedName name="_xlchart.v1.20" hidden="1">'alpha =50'!$A$2:$A$21</definedName>
+    <definedName name="_xlchart.v1.21" hidden="1">'alpha =50'!$B$1</definedName>
+    <definedName name="_xlchart.v1.22" hidden="1">'alpha =50'!$B$2:$B$21</definedName>
+    <definedName name="_xlchart.v1.23" hidden="1">'alpha =50'!$C$1</definedName>
+    <definedName name="_xlchart.v1.24" hidden="1">'alpha =50'!$C$2:$C$21</definedName>
+    <definedName name="_xlchart.v1.25" hidden="1">'alpha = 40'!$A$2:$A$21</definedName>
+    <definedName name="_xlchart.v1.26" hidden="1">'alpha = 40'!$B$1</definedName>
+    <definedName name="_xlchart.v1.27" hidden="1">'alpha = 40'!$B$2:$B$21</definedName>
+    <definedName name="_xlchart.v1.28" hidden="1">'alpha = 40'!$C$1</definedName>
+    <definedName name="_xlchart.v1.29" hidden="1">'alpha = 40'!$C$2:$C$21</definedName>
+    <definedName name="_xlchart.v1.3" hidden="1">'alpha = 5'!$C$1</definedName>
+    <definedName name="_xlchart.v1.30" hidden="1">'alpha = 25'!$A$2:$A$17</definedName>
+    <definedName name="_xlchart.v1.31" hidden="1">'alpha = 25'!$B$1</definedName>
+    <definedName name="_xlchart.v1.32" hidden="1">'alpha = 25'!$B$2:$B$17</definedName>
+    <definedName name="_xlchart.v1.33" hidden="1">'alpha = 25'!$C$1</definedName>
+    <definedName name="_xlchart.v1.34" hidden="1">'alpha = 25'!$C$2:$C$17</definedName>
+    <definedName name="_xlchart.v1.35" hidden="1">'alpha = 30'!$A$2:$A$17</definedName>
+    <definedName name="_xlchart.v1.36" hidden="1">'alpha = 30'!$B$1</definedName>
+    <definedName name="_xlchart.v1.37" hidden="1">'alpha = 30'!$B$2:$B$17</definedName>
+    <definedName name="_xlchart.v1.38" hidden="1">'alpha = 30'!$C$1</definedName>
+    <definedName name="_xlchart.v1.39" hidden="1">'alpha = 30'!$C$2:$C$17</definedName>
+    <definedName name="_xlchart.v1.4" hidden="1">'alpha = 5'!$C$2:$C$17</definedName>
+    <definedName name="_xlchart.v1.40" hidden="1">'alpha = 15'!$A$2:$A$17</definedName>
+    <definedName name="_xlchart.v1.41" hidden="1">'alpha = 15'!$B$1</definedName>
+    <definedName name="_xlchart.v1.42" hidden="1">'alpha = 15'!$B$2:$B$17</definedName>
+    <definedName name="_xlchart.v1.43" hidden="1">'alpha = 15'!$C$1</definedName>
+    <definedName name="_xlchart.v1.44" hidden="1">'alpha = 15'!$C$2:$C$17</definedName>
+    <definedName name="_xlchart.v1.45" hidden="1">'alpha = 35'!$A$2:$A$17</definedName>
+    <definedName name="_xlchart.v1.46" hidden="1">'alpha = 35'!$B$1</definedName>
+    <definedName name="_xlchart.v1.47" hidden="1">'alpha = 35'!$B$2:$B$17</definedName>
+    <definedName name="_xlchart.v1.48" hidden="1">'alpha = 35'!$C$1</definedName>
+    <definedName name="_xlchart.v1.49" hidden="1">'alpha = 35'!$C$2:$C$17</definedName>
+    <definedName name="_xlchart.v1.5" hidden="1">'alpha = 10'!$A$2:$A$17</definedName>
+    <definedName name="_xlchart.v1.50" hidden="1">'alpha = 45'!$A$2:$A$21</definedName>
+    <definedName name="_xlchart.v1.51" hidden="1">'alpha = 45'!$B$1</definedName>
+    <definedName name="_xlchart.v1.52" hidden="1">'alpha = 45'!$B$2:$B$21</definedName>
+    <definedName name="_xlchart.v1.53" hidden="1">'alpha = 45'!$C$1</definedName>
+    <definedName name="_xlchart.v1.54" hidden="1">'alpha = 45'!$C$2:$C$21</definedName>
+    <definedName name="_xlchart.v1.55" hidden="1">'alpha = 35'!$A$2:$A$17</definedName>
+    <definedName name="_xlchart.v1.56" hidden="1">'alpha = 35'!$B$1</definedName>
+    <definedName name="_xlchart.v1.57" hidden="1">'alpha = 35'!$B$2:$B$17</definedName>
+    <definedName name="_xlchart.v1.58" hidden="1">'alpha = 35'!$C$1</definedName>
+    <definedName name="_xlchart.v1.59" hidden="1">'alpha = 35'!$C$2:$C$17</definedName>
+    <definedName name="_xlchart.v1.6" hidden="1">'alpha = 10'!$B$1</definedName>
+    <definedName name="_xlchart.v1.60" hidden="1">'alpha = 15'!$A$2:$A$17</definedName>
     <definedName name="_xlchart.v1.61" hidden="1">'alpha = 15'!$B$1</definedName>
-    <definedName name="_xlchart.v1.62" hidden="1">'alpha = 15'!$B$2:$B$30</definedName>
+    <definedName name="_xlchart.v1.62" hidden="1">'alpha = 15'!$B$2:$B$17</definedName>
     <definedName name="_xlchart.v1.63" hidden="1">'alpha = 15'!$C$1</definedName>
-    <definedName name="_xlchart.v1.64" hidden="1">'alpha = 15'!$C$2:$C$30</definedName>
-    <definedName name="_xlchart.v1.65" hidden="1">'alpha = 20'!$A$2:$A$27</definedName>
-    <definedName name="_xlchart.v1.66" hidden="1">'alpha = 20'!$B$1</definedName>
-    <definedName name="_xlchart.v1.67" hidden="1">'alpha = 20'!$B$2:$B$27</definedName>
-    <definedName name="_xlchart.v1.68" hidden="1">'alpha = 20'!$C$1</definedName>
-    <definedName name="_xlchart.v1.69" hidden="1">'alpha = 20'!$C$2:$C$27</definedName>
-    <definedName name="_xlchart.v1.7" hidden="1">'alpha = 30'!$B$2:$B$27</definedName>
-    <definedName name="_xlchart.v1.70" hidden="1">'alpha = 25'!$A$2:$A$28</definedName>
-    <definedName name="_xlchart.v1.71" hidden="1">'alpha = 25'!$B$1</definedName>
-    <definedName name="_xlchart.v1.72" hidden="1">'alpha = 25'!$B$2:$B$28</definedName>
-    <definedName name="_xlchart.v1.73" hidden="1">'alpha = 25'!$C$1</definedName>
-    <definedName name="_xlchart.v1.74" hidden="1">'alpha = 25'!$C$2:$C$28</definedName>
-    <definedName name="_xlchart.v1.75" hidden="1">'alpha = 30'!$A$2:$A$27</definedName>
+    <definedName name="_xlchart.v1.64" hidden="1">'alpha = 15'!$C$2:$C$17</definedName>
+    <definedName name="_xlchart.v1.65" hidden="1">'alpha = 5'!$A$2:$A$17</definedName>
+    <definedName name="_xlchart.v1.66" hidden="1">'alpha = 5'!$B$1</definedName>
+    <definedName name="_xlchart.v1.67" hidden="1">'alpha = 5'!$B$2:$B$17</definedName>
+    <definedName name="_xlchart.v1.68" hidden="1">'alpha = 5'!$C$1</definedName>
+    <definedName name="_xlchart.v1.69" hidden="1">'alpha = 5'!$C$2:$C$17</definedName>
+    <definedName name="_xlchart.v1.7" hidden="1">'alpha = 10'!$B$2:$B$17</definedName>
+    <definedName name="_xlchart.v1.70" hidden="1">'alpha = 10'!$A$2:$A$17</definedName>
+    <definedName name="_xlchart.v1.71" hidden="1">'alpha = 10'!$B$1</definedName>
+    <definedName name="_xlchart.v1.72" hidden="1">'alpha = 10'!$B$2:$B$17</definedName>
+    <definedName name="_xlchart.v1.73" hidden="1">'alpha = 10'!$C$1</definedName>
+    <definedName name="_xlchart.v1.74" hidden="1">'alpha = 10'!$C$2:$C$17</definedName>
+    <definedName name="_xlchart.v1.75" hidden="1">'alpha = 30'!$A$2:$A$17</definedName>
     <definedName name="_xlchart.v1.76" hidden="1">'alpha = 30'!$B$1</definedName>
-    <definedName name="_xlchart.v1.77" hidden="1">'alpha = 30'!$B$2:$B$27</definedName>
+    <definedName name="_xlchart.v1.77" hidden="1">'alpha = 30'!$B$2:$B$17</definedName>
     <definedName name="_xlchart.v1.78" hidden="1">'alpha = 30'!$C$1</definedName>
-    <definedName name="_xlchart.v1.79" hidden="1">'alpha = 30'!$C$2:$C$27</definedName>
-    <definedName name="_xlchart.v1.8" hidden="1">'alpha = 30'!$C$1</definedName>
-    <definedName name="_xlchart.v1.80" hidden="1">'alpha = 35'!$A$2:$A$24</definedName>
-    <definedName name="_xlchart.v1.81" hidden="1">'alpha = 35'!$B$1</definedName>
-    <definedName name="_xlchart.v1.82" hidden="1">'alpha = 35'!$B$2:$B$24</definedName>
-    <definedName name="_xlchart.v1.83" hidden="1">'alpha = 35'!$C$1</definedName>
-    <definedName name="_xlchart.v1.84" hidden="1">'alpha = 35'!$C$2:$C$24</definedName>
-    <definedName name="_xlchart.v1.85" hidden="1">'alpha = 40'!$A$2:$A$27</definedName>
+    <definedName name="_xlchart.v1.79" hidden="1">'alpha = 30'!$C$2:$C$17</definedName>
+    <definedName name="_xlchart.v1.8" hidden="1">'alpha = 10'!$C$1</definedName>
+    <definedName name="_xlchart.v1.80" hidden="1">'alpha = 20'!$A$2:$A$17</definedName>
+    <definedName name="_xlchart.v1.81" hidden="1">'alpha = 20'!$B$1</definedName>
+    <definedName name="_xlchart.v1.82" hidden="1">'alpha = 20'!$B$2:$B$17</definedName>
+    <definedName name="_xlchart.v1.83" hidden="1">'alpha = 20'!$C$1</definedName>
+    <definedName name="_xlchart.v1.84" hidden="1">'alpha = 20'!$C$2:$C$17</definedName>
+    <definedName name="_xlchart.v1.85" hidden="1">'alpha = 40'!$A$2:$A$21</definedName>
     <definedName name="_xlchart.v1.86" hidden="1">'alpha = 40'!$B$1</definedName>
-    <definedName name="_xlchart.v1.87" hidden="1">'alpha = 40'!$B$2:$B$27</definedName>
+    <definedName name="_xlchart.v1.87" hidden="1">'alpha = 40'!$B$2:$B$21</definedName>
     <definedName name="_xlchart.v1.88" hidden="1">'alpha = 40'!$C$1</definedName>
-    <definedName name="_xlchart.v1.89" hidden="1">'alpha = 40'!$C$2:$C$27</definedName>
-    <definedName name="_xlchart.v1.9" hidden="1">'alpha = 30'!$C$2:$C$27</definedName>
-    <definedName name="_xlchart.v1.90" hidden="1">'alpha = 45'!$A$2:$A$26</definedName>
-    <definedName name="_xlchart.v1.91" hidden="1">'alpha = 45'!$B$1</definedName>
-    <definedName name="_xlchart.v1.92" hidden="1">'alpha = 45'!$B$2:$B$26</definedName>
-    <definedName name="_xlchart.v1.93" hidden="1">'alpha = 45'!$C$1</definedName>
-    <definedName name="_xlchart.v1.94" hidden="1">'alpha = 45'!$C$2:$C$26</definedName>
-    <definedName name="_xlchart.v1.95" hidden="1">'alpha =50'!$A$2:$A$36</definedName>
+    <definedName name="_xlchart.v1.89" hidden="1">'alpha = 40'!$C$2:$C$21</definedName>
+    <definedName name="_xlchart.v1.9" hidden="1">'alpha = 10'!$C$2:$C$17</definedName>
+    <definedName name="_xlchart.v1.90" hidden="1">'alpha = 25'!$A$2:$A$17</definedName>
+    <definedName name="_xlchart.v1.91" hidden="1">'alpha = 25'!$B$1</definedName>
+    <definedName name="_xlchart.v1.92" hidden="1">'alpha = 25'!$B$2:$B$17</definedName>
+    <definedName name="_xlchart.v1.93" hidden="1">'alpha = 25'!$C$1</definedName>
+    <definedName name="_xlchart.v1.94" hidden="1">'alpha = 25'!$C$2:$C$17</definedName>
+    <definedName name="_xlchart.v1.95" hidden="1">'alpha =50'!$A$2:$A$21</definedName>
     <definedName name="_xlchart.v1.96" hidden="1">'alpha =50'!$B$1</definedName>
-    <definedName name="_xlchart.v1.97" hidden="1">'alpha =50'!$B$2:$B$36</definedName>
+    <definedName name="_xlchart.v1.97" hidden="1">'alpha =50'!$B$2:$B$21</definedName>
     <definedName name="_xlchart.v1.98" hidden="1">'alpha =50'!$C$1</definedName>
-    <definedName name="_xlchart.v1.99" hidden="1">'alpha =50'!$C$2:$C$36</definedName>
+    <definedName name="_xlchart.v1.99" hidden="1">'alpha =50'!$C$2:$C$21</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -152,7 +207,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="275" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="192" uniqueCount="9">
   <si>
     <t>uuid</t>
   </si>
@@ -269,11 +324,10 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1"/>
@@ -305,463 +359,6 @@
 </file>
 
 <file path=xl/charts/chartEx1.xml><?xml version="1.0" encoding="utf-8"?>
-<cx:chartSpace xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex">
-  <cx:chartData>
-    <cx:data id="0">
-      <cx:strDim type="cat">
-        <cx:f>_xlchart.v1.20</cx:f>
-      </cx:strDim>
-      <cx:numDim type="val">
-        <cx:f>_xlchart.v1.22</cx:f>
-      </cx:numDim>
-    </cx:data>
-    <cx:data id="1">
-      <cx:strDim type="cat">
-        <cx:f>_xlchart.v1.20</cx:f>
-      </cx:strDim>
-      <cx:numDim type="val">
-        <cx:f>_xlchart.v1.24</cx:f>
-      </cx:numDim>
-    </cx:data>
-  </cx:chartData>
-  <cx:chart>
-    <cx:title pos="t" align="ctr" overlay="0">
-      <cx:tx>
-        <cx:txData>
-          <cx:v>Fault Detection Loss</cx:v>
-        </cx:txData>
-      </cx:tx>
-      <cx:txPr>
-        <a:bodyPr spcFirstLastPara="1" vertOverflow="ellipsis" horzOverflow="overflow" wrap="square" lIns="0" tIns="0" rIns="0" bIns="0" anchor="ctr" anchorCtr="1"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="ctr" rtl="0">
-            <a:defRPr/>
-          </a:pPr>
-          <a:r>
-            <a:rPr lang="en-US" sz="1400" b="0" i="0" u="none" strike="noStrike" baseline="0">
-              <a:solidFill>
-                <a:sysClr val="windowText" lastClr="000000">
-                  <a:lumMod val="65000"/>
-                  <a:lumOff val="35000"/>
-                </a:sysClr>
-              </a:solidFill>
-              <a:latin typeface="Calibri" panose="020F0502020204030204"/>
-            </a:rPr>
-            <a:t>Fault Detection Loss</a:t>
-          </a:r>
-        </a:p>
-      </cx:txPr>
-    </cx:title>
-    <cx:plotArea>
-      <cx:plotAreaRegion>
-        <cx:series layoutId="boxWhisker" uniqueId="{8FDFB772-DBBC-452E-8BFE-1FA09A957798}">
-          <cx:tx>
-            <cx:txData>
-              <cx:f>_xlchart.v1.21</cx:f>
-              <cx:v>Loss By K-means</cx:v>
-            </cx:txData>
-          </cx:tx>
-          <cx:dataId val="0"/>
-          <cx:layoutPr>
-            <cx:visibility meanLine="0" meanMarker="1" nonoutliers="0" outliers="1"/>
-            <cx:statistics quartileMethod="exclusive"/>
-          </cx:layoutPr>
-        </cx:series>
-        <cx:series layoutId="boxWhisker" uniqueId="{1FE11574-4EB6-44CF-A221-F9ADD92AE81C}">
-          <cx:tx>
-            <cx:txData>
-              <cx:f>_xlchart.v1.23</cx:f>
-              <cx:v>Loss By K-means ++</cx:v>
-            </cx:txData>
-          </cx:tx>
-          <cx:dataId val="1"/>
-          <cx:layoutPr>
-            <cx:visibility meanLine="0" meanMarker="1" nonoutliers="0" outliers="1"/>
-            <cx:statistics quartileMethod="exclusive"/>
-          </cx:layoutPr>
-        </cx:series>
-      </cx:plotAreaRegion>
-      <cx:axis id="0">
-        <cx:catScaling gapWidth="1"/>
-        <cx:tickLabels/>
-      </cx:axis>
-      <cx:axis id="1">
-        <cx:valScaling/>
-        <cx:majorGridlines/>
-        <cx:tickLabels/>
-      </cx:axis>
-    </cx:plotArea>
-    <cx:legend pos="t" align="ctr" overlay="0"/>
-  </cx:chart>
-</cx:chartSpace>
-</file>
-
-<file path=xl/charts/chartEx10.xml><?xml version="1.0" encoding="utf-8"?>
-<cx:chartSpace xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex">
-  <cx:chartData>
-    <cx:data id="0">
-      <cx:strDim type="cat">
-        <cx:f>_xlchart.v1.15</cx:f>
-      </cx:strDim>
-      <cx:numDim type="val">
-        <cx:f>_xlchart.v1.17</cx:f>
-      </cx:numDim>
-    </cx:data>
-    <cx:data id="1">
-      <cx:strDim type="cat">
-        <cx:f>_xlchart.v1.15</cx:f>
-      </cx:strDim>
-      <cx:numDim type="val">
-        <cx:f>_xlchart.v1.19</cx:f>
-      </cx:numDim>
-    </cx:data>
-  </cx:chartData>
-  <cx:chart>
-    <cx:title pos="t" align="ctr" overlay="0">
-      <cx:tx>
-        <cx:txData>
-          <cx:v>Fault Detection Loss</cx:v>
-        </cx:txData>
-      </cx:tx>
-      <cx:txPr>
-        <a:bodyPr spcFirstLastPara="1" vertOverflow="ellipsis" horzOverflow="overflow" wrap="square" lIns="0" tIns="0" rIns="0" bIns="0" anchor="ctr" anchorCtr="1"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="ctr" rtl="0">
-            <a:defRPr/>
-          </a:pPr>
-          <a:r>
-            <a:rPr lang="en-US" sz="1400" b="0" i="0" u="none" strike="noStrike" baseline="0">
-              <a:solidFill>
-                <a:sysClr val="windowText" lastClr="000000">
-                  <a:lumMod val="65000"/>
-                  <a:lumOff val="35000"/>
-                </a:sysClr>
-              </a:solidFill>
-              <a:latin typeface="Calibri" panose="020F0502020204030204"/>
-            </a:rPr>
-            <a:t>Fault Detection Loss</a:t>
-          </a:r>
-        </a:p>
-      </cx:txPr>
-    </cx:title>
-    <cx:plotArea>
-      <cx:plotAreaRegion>
-        <cx:series layoutId="boxWhisker" uniqueId="{2A073B5F-D6A9-4F8C-B85F-4FEC047D957A}">
-          <cx:tx>
-            <cx:txData>
-              <cx:f>_xlchart.v1.16</cx:f>
-              <cx:v>Loss By K-means</cx:v>
-            </cx:txData>
-          </cx:tx>
-          <cx:dataId val="0"/>
-          <cx:layoutPr>
-            <cx:visibility meanLine="0" meanMarker="1" nonoutliers="0" outliers="1"/>
-            <cx:statistics quartileMethod="exclusive"/>
-          </cx:layoutPr>
-        </cx:series>
-        <cx:series layoutId="boxWhisker" uniqueId="{0FA1A064-4076-4CED-9192-EC527C464F8D}">
-          <cx:tx>
-            <cx:txData>
-              <cx:f>_xlchart.v1.18</cx:f>
-              <cx:v>Loss By K-means ++</cx:v>
-            </cx:txData>
-          </cx:tx>
-          <cx:dataId val="1"/>
-          <cx:layoutPr>
-            <cx:visibility meanLine="0" meanMarker="1" nonoutliers="0" outliers="1"/>
-            <cx:statistics quartileMethod="exclusive"/>
-          </cx:layoutPr>
-        </cx:series>
-      </cx:plotAreaRegion>
-      <cx:axis id="0">
-        <cx:catScaling gapWidth="1"/>
-        <cx:tickLabels/>
-      </cx:axis>
-      <cx:axis id="1">
-        <cx:valScaling/>
-        <cx:majorGridlines/>
-        <cx:tickLabels/>
-      </cx:axis>
-    </cx:plotArea>
-    <cx:legend pos="t" align="ctr" overlay="0"/>
-  </cx:chart>
-</cx:chartSpace>
-</file>
-
-<file path=xl/charts/chartEx11.xml><?xml version="1.0" encoding="utf-8"?>
-<cx:chartSpace xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex">
-  <cx:chartData>
-    <cx:data id="0">
-      <cx:strDim type="cat">
-        <cx:f>_xlchart.v1.50</cx:f>
-      </cx:strDim>
-      <cx:numDim type="val">
-        <cx:f>_xlchart.v1.52</cx:f>
-      </cx:numDim>
-    </cx:data>
-    <cx:data id="1">
-      <cx:strDim type="cat">
-        <cx:f>_xlchart.v1.50</cx:f>
-      </cx:strDim>
-      <cx:numDim type="val">
-        <cx:f>_xlchart.v1.54</cx:f>
-      </cx:numDim>
-    </cx:data>
-  </cx:chartData>
-  <cx:chart>
-    <cx:title pos="t" align="ctr" overlay="0">
-      <cx:tx>
-        <cx:txData>
-          <cx:v>Fault Detection Loss</cx:v>
-        </cx:txData>
-      </cx:tx>
-      <cx:txPr>
-        <a:bodyPr spcFirstLastPara="1" vertOverflow="ellipsis" horzOverflow="overflow" wrap="square" lIns="0" tIns="0" rIns="0" bIns="0" anchor="ctr" anchorCtr="1"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="ctr" rtl="0">
-            <a:defRPr/>
-          </a:pPr>
-          <a:r>
-            <a:rPr lang="en-US" sz="1400" b="0" i="0" u="none" strike="noStrike" baseline="0">
-              <a:solidFill>
-                <a:sysClr val="windowText" lastClr="000000">
-                  <a:lumMod val="65000"/>
-                  <a:lumOff val="35000"/>
-                </a:sysClr>
-              </a:solidFill>
-              <a:latin typeface="Calibri" panose="020F0502020204030204"/>
-            </a:rPr>
-            <a:t>Fault Detection Loss</a:t>
-          </a:r>
-        </a:p>
-      </cx:txPr>
-    </cx:title>
-    <cx:plotArea>
-      <cx:plotAreaRegion>
-        <cx:series layoutId="boxWhisker" uniqueId="{8FDFB772-DBBC-452E-8BFE-1FA09A957798}">
-          <cx:tx>
-            <cx:txData>
-              <cx:f>_xlchart.v1.51</cx:f>
-              <cx:v>Loss By K-means</cx:v>
-            </cx:txData>
-          </cx:tx>
-          <cx:dataId val="0"/>
-          <cx:layoutPr>
-            <cx:visibility meanLine="0" meanMarker="1" nonoutliers="0" outliers="1"/>
-            <cx:statistics quartileMethod="exclusive"/>
-          </cx:layoutPr>
-        </cx:series>
-        <cx:series layoutId="boxWhisker" uniqueId="{1FE11574-4EB6-44CF-A221-F9ADD92AE81C}">
-          <cx:tx>
-            <cx:txData>
-              <cx:f>_xlchart.v1.53</cx:f>
-              <cx:v>Loss By K-means ++</cx:v>
-            </cx:txData>
-          </cx:tx>
-          <cx:dataId val="1"/>
-          <cx:layoutPr>
-            <cx:visibility meanLine="0" meanMarker="1" nonoutliers="0" outliers="1"/>
-            <cx:statistics quartileMethod="exclusive"/>
-          </cx:layoutPr>
-        </cx:series>
-      </cx:plotAreaRegion>
-      <cx:axis id="0">
-        <cx:catScaling gapWidth="1"/>
-        <cx:tickLabels/>
-      </cx:axis>
-      <cx:axis id="1">
-        <cx:valScaling/>
-        <cx:majorGridlines/>
-        <cx:tickLabels/>
-      </cx:axis>
-    </cx:plotArea>
-    <cx:legend pos="t" align="ctr" overlay="0"/>
-  </cx:chart>
-</cx:chartSpace>
-</file>
-
-<file path=xl/charts/chartEx12.xml><?xml version="1.0" encoding="utf-8"?>
-<cx:chartSpace xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex">
-  <cx:chartData>
-    <cx:data id="0">
-      <cx:strDim type="cat">
-        <cx:f>_xlchart.v1.55</cx:f>
-      </cx:strDim>
-      <cx:numDim type="val">
-        <cx:f>_xlchart.v1.57</cx:f>
-      </cx:numDim>
-    </cx:data>
-    <cx:data id="1">
-      <cx:strDim type="cat">
-        <cx:f>_xlchart.v1.55</cx:f>
-      </cx:strDim>
-      <cx:numDim type="val">
-        <cx:f>_xlchart.v1.59</cx:f>
-      </cx:numDim>
-    </cx:data>
-  </cx:chartData>
-  <cx:chart>
-    <cx:title pos="t" align="ctr" overlay="0">
-      <cx:tx>
-        <cx:txData>
-          <cx:v>Fault Detection Loss</cx:v>
-        </cx:txData>
-      </cx:tx>
-      <cx:txPr>
-        <a:bodyPr spcFirstLastPara="1" vertOverflow="ellipsis" horzOverflow="overflow" wrap="square" lIns="0" tIns="0" rIns="0" bIns="0" anchor="ctr" anchorCtr="1"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="ctr" rtl="0">
-            <a:defRPr/>
-          </a:pPr>
-          <a:r>
-            <a:rPr lang="en-US" sz="1400" b="0" i="0" u="none" strike="noStrike" baseline="0">
-              <a:solidFill>
-                <a:sysClr val="windowText" lastClr="000000">
-                  <a:lumMod val="65000"/>
-                  <a:lumOff val="35000"/>
-                </a:sysClr>
-              </a:solidFill>
-              <a:latin typeface="Calibri" panose="020F0502020204030204"/>
-            </a:rPr>
-            <a:t>Fault Detection Loss</a:t>
-          </a:r>
-        </a:p>
-      </cx:txPr>
-    </cx:title>
-    <cx:plotArea>
-      <cx:plotAreaRegion>
-        <cx:series layoutId="boxWhisker" uniqueId="{F9A96F06-C1E3-4082-95E0-6CD1D617F013}">
-          <cx:tx>
-            <cx:txData>
-              <cx:f>_xlchart.v1.56</cx:f>
-              <cx:v>Loss By K-means</cx:v>
-            </cx:txData>
-          </cx:tx>
-          <cx:dataId val="0"/>
-          <cx:layoutPr>
-            <cx:visibility meanLine="0" meanMarker="1" nonoutliers="0" outliers="1"/>
-            <cx:statistics quartileMethod="exclusive"/>
-          </cx:layoutPr>
-        </cx:series>
-        <cx:series layoutId="boxWhisker" uniqueId="{5722F756-B8ED-47FF-9480-E3EE51881ABE}">
-          <cx:tx>
-            <cx:txData>
-              <cx:f>_xlchart.v1.58</cx:f>
-              <cx:v>Loss By K-means ++</cx:v>
-            </cx:txData>
-          </cx:tx>
-          <cx:dataId val="1"/>
-          <cx:layoutPr>
-            <cx:visibility meanLine="0" meanMarker="1" nonoutliers="0" outliers="1"/>
-            <cx:statistics quartileMethod="exclusive"/>
-          </cx:layoutPr>
-        </cx:series>
-      </cx:plotAreaRegion>
-      <cx:axis id="0">
-        <cx:catScaling gapWidth="1"/>
-        <cx:tickLabels/>
-      </cx:axis>
-      <cx:axis id="1">
-        <cx:valScaling/>
-        <cx:majorGridlines/>
-        <cx:tickLabels/>
-      </cx:axis>
-    </cx:plotArea>
-    <cx:legend pos="t" align="ctr" overlay="0"/>
-  </cx:chart>
-</cx:chartSpace>
-</file>
-
-<file path=xl/charts/chartEx13.xml><?xml version="1.0" encoding="utf-8"?>
-<cx:chartSpace xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex">
-  <cx:chartData>
-    <cx:data id="0">
-      <cx:strDim type="cat">
-        <cx:f>_xlchart.v1.60</cx:f>
-      </cx:strDim>
-      <cx:numDim type="val">
-        <cx:f>_xlchart.v1.62</cx:f>
-      </cx:numDim>
-    </cx:data>
-    <cx:data id="1">
-      <cx:strDim type="cat">
-        <cx:f>_xlchart.v1.60</cx:f>
-      </cx:strDim>
-      <cx:numDim type="val">
-        <cx:f>_xlchart.v1.64</cx:f>
-      </cx:numDim>
-    </cx:data>
-  </cx:chartData>
-  <cx:chart>
-    <cx:title pos="t" align="ctr" overlay="0">
-      <cx:tx>
-        <cx:rich>
-          <a:bodyPr spcFirstLastPara="1" vertOverflow="ellipsis" horzOverflow="overflow" wrap="square" lIns="0" tIns="0" rIns="0" bIns="0" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr rtl="0"/>
-            <a:r>
-              <a:rPr lang="en-US" sz="1400" b="0" i="0" baseline="0">
-                <a:effectLst/>
-              </a:rPr>
-              <a:t>Fault Detection Loss</a:t>
-            </a:r>
-            <a:endParaRPr lang="en-US" sz="1400">
-              <a:effectLst/>
-            </a:endParaRPr>
-          </a:p>
-        </cx:rich>
-      </cx:tx>
-    </cx:title>
-    <cx:plotArea>
-      <cx:plotAreaRegion>
-        <cx:series layoutId="boxWhisker" uniqueId="{0E3BCA7B-327D-4DD0-B37C-933CCE367519}">
-          <cx:tx>
-            <cx:txData>
-              <cx:f>_xlchart.v1.61</cx:f>
-              <cx:v>Loss By K-means</cx:v>
-            </cx:txData>
-          </cx:tx>
-          <cx:dataId val="0"/>
-          <cx:layoutPr>
-            <cx:visibility meanLine="0" meanMarker="1" nonoutliers="0" outliers="1"/>
-            <cx:statistics quartileMethod="exclusive"/>
-          </cx:layoutPr>
-        </cx:series>
-        <cx:series layoutId="boxWhisker" uniqueId="{62F38CCD-83C3-4504-A11C-C5DEEA57B731}">
-          <cx:tx>
-            <cx:txData>
-              <cx:f>_xlchart.v1.63</cx:f>
-              <cx:v>Loss By K-means ++</cx:v>
-            </cx:txData>
-          </cx:tx>
-          <cx:dataId val="1"/>
-          <cx:layoutPr>
-            <cx:visibility meanLine="0" meanMarker="1" nonoutliers="0" outliers="1"/>
-            <cx:statistics quartileMethod="exclusive"/>
-          </cx:layoutPr>
-        </cx:series>
-      </cx:plotAreaRegion>
-      <cx:axis id="0">
-        <cx:catScaling gapWidth="1"/>
-        <cx:tickLabels/>
-      </cx:axis>
-      <cx:axis id="1">
-        <cx:valScaling/>
-        <cx:majorGridlines/>
-        <cx:tickLabels/>
-      </cx:axis>
-    </cx:plotArea>
-    <cx:legend pos="t" align="ctr" overlay="0"/>
-  </cx:chart>
-</cx:chartSpace>
-</file>
-
-<file path=xl/charts/chartEx14.xml><?xml version="1.0" encoding="utf-8"?>
 <cx:chartSpace xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex">
   <cx:chartData>
     <cx:data id="0">
@@ -812,7 +409,7 @@
     </cx:title>
     <cx:plotArea>
       <cx:plotAreaRegion>
-        <cx:series layoutId="boxWhisker" uniqueId="{6E42D3EF-C978-4CC9-BFCB-67BB2E997C91}">
+        <cx:series layoutId="boxWhisker" uniqueId="{8FDFB772-DBBC-452E-8BFE-1FA09A957798}">
           <cx:tx>
             <cx:txData>
               <cx:f>_xlchart.v1.66</cx:f>
@@ -825,7 +422,7 @@
             <cx:statistics quartileMethod="exclusive"/>
           </cx:layoutPr>
         </cx:series>
-        <cx:series layoutId="boxWhisker" uniqueId="{32096FDA-5561-4AFA-BA35-9666AABAE7F6}">
+        <cx:series layoutId="boxWhisker" uniqueId="{1FE11574-4EB6-44CF-A221-F9ADD92AE81C}">
           <cx:tx>
             <cx:txData>
               <cx:f>_xlchart.v1.68</cx:f>
@@ -854,7 +451,929 @@
 </cx:chartSpace>
 </file>
 
+<file path=xl/charts/chartEx10.xml><?xml version="1.0" encoding="utf-8"?>
+<cx:chartSpace xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex">
+  <cx:chartData>
+    <cx:data id="0">
+      <cx:strDim type="cat">
+        <cx:f>_xlchart.v1.95</cx:f>
+      </cx:strDim>
+      <cx:numDim type="val">
+        <cx:f>_xlchart.v1.97</cx:f>
+      </cx:numDim>
+    </cx:data>
+    <cx:data id="1">
+      <cx:strDim type="cat">
+        <cx:f>_xlchart.v1.95</cx:f>
+      </cx:strDim>
+      <cx:numDim type="val">
+        <cx:f>_xlchart.v1.99</cx:f>
+      </cx:numDim>
+    </cx:data>
+  </cx:chartData>
+  <cx:chart>
+    <cx:title pos="t" align="ctr" overlay="0">
+      <cx:tx>
+        <cx:txData>
+          <cx:v>Fault Detection Loss</cx:v>
+        </cx:txData>
+      </cx:tx>
+      <cx:txPr>
+        <a:bodyPr spcFirstLastPara="1" vertOverflow="ellipsis" horzOverflow="overflow" wrap="square" lIns="0" tIns="0" rIns="0" bIns="0" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr" rtl="0">
+            <a:defRPr/>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="en-US" sz="1400" b="0" i="0" u="none" strike="noStrike" baseline="0">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:sysClr>
+              </a:solidFill>
+              <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+            </a:rPr>
+            <a:t>Fault Detection Loss</a:t>
+          </a:r>
+        </a:p>
+      </cx:txPr>
+    </cx:title>
+    <cx:plotArea>
+      <cx:plotAreaRegion>
+        <cx:series layoutId="boxWhisker" uniqueId="{2A073B5F-D6A9-4F8C-B85F-4FEC047D957A}">
+          <cx:tx>
+            <cx:txData>
+              <cx:f>_xlchart.v1.96</cx:f>
+              <cx:v>Loss By K-means</cx:v>
+            </cx:txData>
+          </cx:tx>
+          <cx:dataId val="0"/>
+          <cx:layoutPr>
+            <cx:visibility meanLine="0" meanMarker="1" nonoutliers="0" outliers="1"/>
+            <cx:statistics quartileMethod="exclusive"/>
+          </cx:layoutPr>
+        </cx:series>
+        <cx:series layoutId="boxWhisker" uniqueId="{0FA1A064-4076-4CED-9192-EC527C464F8D}">
+          <cx:tx>
+            <cx:txData>
+              <cx:f>_xlchart.v1.98</cx:f>
+              <cx:v>Loss By K-means ++</cx:v>
+            </cx:txData>
+          </cx:tx>
+          <cx:dataId val="1"/>
+          <cx:layoutPr>
+            <cx:visibility meanLine="0" meanMarker="1" nonoutliers="0" outliers="1"/>
+            <cx:statistics quartileMethod="exclusive"/>
+          </cx:layoutPr>
+        </cx:series>
+      </cx:plotAreaRegion>
+      <cx:axis id="0">
+        <cx:catScaling gapWidth="1"/>
+        <cx:tickLabels/>
+      </cx:axis>
+      <cx:axis id="1">
+        <cx:valScaling/>
+        <cx:majorGridlines/>
+        <cx:tickLabels/>
+      </cx:axis>
+    </cx:plotArea>
+    <cx:legend pos="t" align="ctr" overlay="0"/>
+  </cx:chart>
+</cx:chartSpace>
+</file>
+
+<file path=xl/charts/chartEx11.xml><?xml version="1.0" encoding="utf-8"?>
+<cx:chartSpace xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex">
+  <cx:chartData>
+    <cx:data id="0">
+      <cx:strDim type="cat">
+        <cx:f>_xlchart.v1.100</cx:f>
+      </cx:strDim>
+      <cx:numDim type="val">
+        <cx:f>_xlchart.v1.102</cx:f>
+      </cx:numDim>
+    </cx:data>
+    <cx:data id="1">
+      <cx:strDim type="cat">
+        <cx:f>_xlchart.v1.100</cx:f>
+      </cx:strDim>
+      <cx:numDim type="val">
+        <cx:f>_xlchart.v1.104</cx:f>
+      </cx:numDim>
+    </cx:data>
+  </cx:chartData>
+  <cx:chart>
+    <cx:title pos="t" align="ctr" overlay="0">
+      <cx:tx>
+        <cx:txData>
+          <cx:v>Fault Detection Loss</cx:v>
+        </cx:txData>
+      </cx:tx>
+      <cx:txPr>
+        <a:bodyPr spcFirstLastPara="1" vertOverflow="ellipsis" horzOverflow="overflow" wrap="square" lIns="0" tIns="0" rIns="0" bIns="0" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr" rtl="0">
+            <a:defRPr/>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="en-US" sz="1400" b="0" i="0" u="none" strike="noStrike" baseline="0">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:sysClr>
+              </a:solidFill>
+              <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+            </a:rPr>
+            <a:t>Fault Detection Loss</a:t>
+          </a:r>
+        </a:p>
+      </cx:txPr>
+    </cx:title>
+    <cx:plotArea>
+      <cx:plotAreaRegion>
+        <cx:series layoutId="boxWhisker" uniqueId="{8FDFB772-DBBC-452E-8BFE-1FA09A957798}">
+          <cx:tx>
+            <cx:txData>
+              <cx:f>_xlchart.v1.101</cx:f>
+              <cx:v>Loss By K-means</cx:v>
+            </cx:txData>
+          </cx:tx>
+          <cx:dataId val="0"/>
+          <cx:layoutPr>
+            <cx:visibility meanLine="0" meanMarker="1" nonoutliers="0" outliers="1"/>
+            <cx:statistics quartileMethod="exclusive"/>
+          </cx:layoutPr>
+        </cx:series>
+        <cx:series layoutId="boxWhisker" uniqueId="{1FE11574-4EB6-44CF-A221-F9ADD92AE81C}">
+          <cx:tx>
+            <cx:txData>
+              <cx:f>_xlchart.v1.103</cx:f>
+              <cx:v>Loss By K-means ++</cx:v>
+            </cx:txData>
+          </cx:tx>
+          <cx:dataId val="1"/>
+          <cx:layoutPr>
+            <cx:visibility meanLine="0" meanMarker="1" nonoutliers="0" outliers="1"/>
+            <cx:statistics quartileMethod="exclusive"/>
+          </cx:layoutPr>
+        </cx:series>
+      </cx:plotAreaRegion>
+      <cx:axis id="0">
+        <cx:catScaling gapWidth="1"/>
+        <cx:tickLabels/>
+      </cx:axis>
+      <cx:axis id="1">
+        <cx:valScaling/>
+        <cx:majorGridlines/>
+        <cx:tickLabels/>
+      </cx:axis>
+    </cx:plotArea>
+    <cx:legend pos="t" align="ctr" overlay="0"/>
+  </cx:chart>
+</cx:chartSpace>
+</file>
+
+<file path=xl/charts/chartEx12.xml><?xml version="1.0" encoding="utf-8"?>
+<cx:chartSpace xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex">
+  <cx:chartData>
+    <cx:data id="0">
+      <cx:strDim type="cat">
+        <cx:f>_xlchart.v1.105</cx:f>
+      </cx:strDim>
+      <cx:numDim type="val">
+        <cx:f>_xlchart.v1.107</cx:f>
+      </cx:numDim>
+    </cx:data>
+    <cx:data id="1">
+      <cx:strDim type="cat">
+        <cx:f>_xlchart.v1.105</cx:f>
+      </cx:strDim>
+      <cx:numDim type="val">
+        <cx:f>_xlchart.v1.109</cx:f>
+      </cx:numDim>
+    </cx:data>
+  </cx:chartData>
+  <cx:chart>
+    <cx:title pos="t" align="ctr" overlay="0">
+      <cx:tx>
+        <cx:txData>
+          <cx:v>Fault Detection Loss</cx:v>
+        </cx:txData>
+      </cx:tx>
+      <cx:txPr>
+        <a:bodyPr spcFirstLastPara="1" vertOverflow="ellipsis" horzOverflow="overflow" wrap="square" lIns="0" tIns="0" rIns="0" bIns="0" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr" rtl="0">
+            <a:defRPr/>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="en-US" sz="1400" b="0" i="0" u="none" strike="noStrike" baseline="0">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:sysClr>
+              </a:solidFill>
+              <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+            </a:rPr>
+            <a:t>Fault Detection Loss</a:t>
+          </a:r>
+        </a:p>
+      </cx:txPr>
+    </cx:title>
+    <cx:plotArea>
+      <cx:plotAreaRegion>
+        <cx:series layoutId="boxWhisker" uniqueId="{F9A96F06-C1E3-4082-95E0-6CD1D617F013}">
+          <cx:tx>
+            <cx:txData>
+              <cx:f>_xlchart.v1.106</cx:f>
+              <cx:v>Loss By K-means</cx:v>
+            </cx:txData>
+          </cx:tx>
+          <cx:dataId val="0"/>
+          <cx:layoutPr>
+            <cx:visibility meanLine="0" meanMarker="1" nonoutliers="0" outliers="1"/>
+            <cx:statistics quartileMethod="exclusive"/>
+          </cx:layoutPr>
+        </cx:series>
+        <cx:series layoutId="boxWhisker" uniqueId="{5722F756-B8ED-47FF-9480-E3EE51881ABE}">
+          <cx:tx>
+            <cx:txData>
+              <cx:f>_xlchart.v1.108</cx:f>
+              <cx:v>Loss By K-means ++</cx:v>
+            </cx:txData>
+          </cx:tx>
+          <cx:dataId val="1"/>
+          <cx:layoutPr>
+            <cx:visibility meanLine="0" meanMarker="1" nonoutliers="0" outliers="1"/>
+            <cx:statistics quartileMethod="exclusive"/>
+          </cx:layoutPr>
+        </cx:series>
+      </cx:plotAreaRegion>
+      <cx:axis id="0">
+        <cx:catScaling gapWidth="1"/>
+        <cx:tickLabels/>
+      </cx:axis>
+      <cx:axis id="1">
+        <cx:valScaling/>
+        <cx:majorGridlines/>
+        <cx:tickLabels/>
+      </cx:axis>
+    </cx:plotArea>
+    <cx:legend pos="t" align="ctr" overlay="0"/>
+  </cx:chart>
+</cx:chartSpace>
+</file>
+
+<file path=xl/charts/chartEx13.xml><?xml version="1.0" encoding="utf-8"?>
+<cx:chartSpace xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex">
+  <cx:chartData>
+    <cx:data id="0">
+      <cx:strDim type="cat">
+        <cx:f>_xlchart.v1.110</cx:f>
+      </cx:strDim>
+      <cx:numDim type="val">
+        <cx:f>_xlchart.v1.112</cx:f>
+      </cx:numDim>
+    </cx:data>
+    <cx:data id="1">
+      <cx:strDim type="cat">
+        <cx:f>_xlchart.v1.110</cx:f>
+      </cx:strDim>
+      <cx:numDim type="val">
+        <cx:f>_xlchart.v1.114</cx:f>
+      </cx:numDim>
+    </cx:data>
+  </cx:chartData>
+  <cx:chart>
+    <cx:title pos="t" align="ctr" overlay="0">
+      <cx:tx>
+        <cx:rich>
+          <a:bodyPr spcFirstLastPara="1" vertOverflow="ellipsis" horzOverflow="overflow" wrap="square" lIns="0" tIns="0" rIns="0" bIns="0" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr rtl="0"/>
+            <a:r>
+              <a:rPr lang="en-US" sz="1400" b="0" i="0" baseline="0">
+                <a:effectLst/>
+              </a:rPr>
+              <a:t>Fault Detection Loss</a:t>
+            </a:r>
+            <a:endParaRPr lang="en-US" sz="1400">
+              <a:effectLst/>
+            </a:endParaRPr>
+          </a:p>
+        </cx:rich>
+      </cx:tx>
+    </cx:title>
+    <cx:plotArea>
+      <cx:plotAreaRegion>
+        <cx:series layoutId="boxWhisker" uniqueId="{0E3BCA7B-327D-4DD0-B37C-933CCE367519}">
+          <cx:tx>
+            <cx:txData>
+              <cx:f>_xlchart.v1.111</cx:f>
+              <cx:v>Loss By K-means</cx:v>
+            </cx:txData>
+          </cx:tx>
+          <cx:dataId val="0"/>
+          <cx:layoutPr>
+            <cx:visibility meanLine="0" meanMarker="1" nonoutliers="0" outliers="1"/>
+            <cx:statistics quartileMethod="exclusive"/>
+          </cx:layoutPr>
+        </cx:series>
+        <cx:series layoutId="boxWhisker" uniqueId="{62F38CCD-83C3-4504-A11C-C5DEEA57B731}">
+          <cx:tx>
+            <cx:txData>
+              <cx:f>_xlchart.v1.113</cx:f>
+              <cx:v>Loss By K-means ++</cx:v>
+            </cx:txData>
+          </cx:tx>
+          <cx:dataId val="1"/>
+          <cx:layoutPr>
+            <cx:visibility meanLine="0" meanMarker="1" nonoutliers="0" outliers="1"/>
+            <cx:statistics quartileMethod="exclusive"/>
+          </cx:layoutPr>
+        </cx:series>
+      </cx:plotAreaRegion>
+      <cx:axis id="0">
+        <cx:catScaling gapWidth="1"/>
+        <cx:tickLabels/>
+      </cx:axis>
+      <cx:axis id="1">
+        <cx:valScaling/>
+        <cx:majorGridlines/>
+        <cx:tickLabels/>
+      </cx:axis>
+    </cx:plotArea>
+    <cx:legend pos="t" align="ctr" overlay="0"/>
+  </cx:chart>
+</cx:chartSpace>
+</file>
+
+<file path=xl/charts/chartEx14.xml><?xml version="1.0" encoding="utf-8"?>
+<cx:chartSpace xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex">
+  <cx:chartData>
+    <cx:data id="0">
+      <cx:strDim type="cat">
+        <cx:f>_xlchart.v1.120</cx:f>
+      </cx:strDim>
+      <cx:numDim type="val">
+        <cx:f>_xlchart.v1.122</cx:f>
+      </cx:numDim>
+    </cx:data>
+    <cx:data id="1">
+      <cx:strDim type="cat">
+        <cx:f>_xlchart.v1.120</cx:f>
+      </cx:strDim>
+      <cx:numDim type="val">
+        <cx:f>_xlchart.v1.124</cx:f>
+      </cx:numDim>
+    </cx:data>
+  </cx:chartData>
+  <cx:chart>
+    <cx:title pos="t" align="ctr" overlay="0">
+      <cx:tx>
+        <cx:txData>
+          <cx:v>Fault Detection Loss</cx:v>
+        </cx:txData>
+      </cx:tx>
+      <cx:txPr>
+        <a:bodyPr spcFirstLastPara="1" vertOverflow="ellipsis" horzOverflow="overflow" wrap="square" lIns="0" tIns="0" rIns="0" bIns="0" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr" rtl="0">
+            <a:defRPr/>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="en-US" sz="1400" b="0" i="0" u="none" strike="noStrike" baseline="0">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:sysClr>
+              </a:solidFill>
+              <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+            </a:rPr>
+            <a:t>Fault Detection Loss</a:t>
+          </a:r>
+        </a:p>
+      </cx:txPr>
+    </cx:title>
+    <cx:plotArea>
+      <cx:plotAreaRegion>
+        <cx:series layoutId="boxWhisker" uniqueId="{6E42D3EF-C978-4CC9-BFCB-67BB2E997C91}">
+          <cx:tx>
+            <cx:txData>
+              <cx:f>_xlchart.v1.121</cx:f>
+              <cx:v>Loss By K-means</cx:v>
+            </cx:txData>
+          </cx:tx>
+          <cx:dataId val="0"/>
+          <cx:layoutPr>
+            <cx:visibility meanLine="0" meanMarker="1" nonoutliers="0" outliers="1"/>
+            <cx:statistics quartileMethod="exclusive"/>
+          </cx:layoutPr>
+        </cx:series>
+        <cx:series layoutId="boxWhisker" uniqueId="{32096FDA-5561-4AFA-BA35-9666AABAE7F6}">
+          <cx:tx>
+            <cx:txData>
+              <cx:f>_xlchart.v1.123</cx:f>
+              <cx:v>Loss By K-means ++</cx:v>
+            </cx:txData>
+          </cx:tx>
+          <cx:dataId val="1"/>
+          <cx:layoutPr>
+            <cx:visibility meanLine="0" meanMarker="1" nonoutliers="0" outliers="1"/>
+            <cx:statistics quartileMethod="exclusive"/>
+          </cx:layoutPr>
+        </cx:series>
+      </cx:plotAreaRegion>
+      <cx:axis id="0">
+        <cx:catScaling gapWidth="1"/>
+        <cx:tickLabels/>
+      </cx:axis>
+      <cx:axis id="1">
+        <cx:valScaling/>
+        <cx:majorGridlines/>
+        <cx:tickLabels/>
+      </cx:axis>
+    </cx:plotArea>
+    <cx:legend pos="t" align="ctr" overlay="0"/>
+  </cx:chart>
+</cx:chartSpace>
+</file>
+
 <file path=xl/charts/chartEx15.xml><?xml version="1.0" encoding="utf-8"?>
+<cx:chartSpace xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex">
+  <cx:chartData>
+    <cx:data id="0">
+      <cx:strDim type="cat">
+        <cx:f>_xlchart.v1.125</cx:f>
+      </cx:strDim>
+      <cx:numDim type="val">
+        <cx:f>_xlchart.v1.127</cx:f>
+      </cx:numDim>
+    </cx:data>
+    <cx:data id="1">
+      <cx:strDim type="cat">
+        <cx:f>_xlchart.v1.125</cx:f>
+      </cx:strDim>
+      <cx:numDim type="val">
+        <cx:f>_xlchart.v1.129</cx:f>
+      </cx:numDim>
+    </cx:data>
+  </cx:chartData>
+  <cx:chart>
+    <cx:title pos="t" align="ctr" overlay="0">
+      <cx:tx>
+        <cx:txData>
+          <cx:v>Fault Detection Loss</cx:v>
+        </cx:txData>
+      </cx:tx>
+      <cx:txPr>
+        <a:bodyPr spcFirstLastPara="1" vertOverflow="ellipsis" horzOverflow="overflow" wrap="square" lIns="0" tIns="0" rIns="0" bIns="0" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr" rtl="0">
+            <a:defRPr/>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="en-US" sz="1400" b="0" i="0" u="none" strike="noStrike" baseline="0">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:sysClr>
+              </a:solidFill>
+              <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+            </a:rPr>
+            <a:t>Fault Detection Loss</a:t>
+          </a:r>
+        </a:p>
+      </cx:txPr>
+    </cx:title>
+    <cx:plotArea>
+      <cx:plotAreaRegion>
+        <cx:series layoutId="boxWhisker" uniqueId="{785ADE08-C678-4890-A512-FE3856A9FF22}">
+          <cx:tx>
+            <cx:txData>
+              <cx:f>_xlchart.v1.126</cx:f>
+              <cx:v>Loss By K-means</cx:v>
+            </cx:txData>
+          </cx:tx>
+          <cx:dataId val="0"/>
+          <cx:layoutPr>
+            <cx:visibility meanLine="0" meanMarker="1" nonoutliers="0" outliers="1"/>
+            <cx:statistics quartileMethod="exclusive"/>
+          </cx:layoutPr>
+        </cx:series>
+        <cx:series layoutId="boxWhisker" uniqueId="{44BDD5BD-7009-4000-A449-3332EAF541A7}">
+          <cx:tx>
+            <cx:txData>
+              <cx:f>_xlchart.v1.128</cx:f>
+              <cx:v>Loss By K-means ++</cx:v>
+            </cx:txData>
+          </cx:tx>
+          <cx:dataId val="1"/>
+          <cx:layoutPr>
+            <cx:visibility meanLine="0" meanMarker="1" nonoutliers="0" outliers="1"/>
+            <cx:statistics quartileMethod="exclusive"/>
+          </cx:layoutPr>
+        </cx:series>
+      </cx:plotAreaRegion>
+      <cx:axis id="0">
+        <cx:catScaling gapWidth="1"/>
+        <cx:tickLabels/>
+      </cx:axis>
+      <cx:axis id="1">
+        <cx:valScaling/>
+        <cx:majorGridlines/>
+        <cx:tickLabels/>
+      </cx:axis>
+    </cx:plotArea>
+    <cx:legend pos="t" align="ctr" overlay="0"/>
+  </cx:chart>
+</cx:chartSpace>
+</file>
+
+<file path=xl/charts/chartEx16.xml><?xml version="1.0" encoding="utf-8"?>
+<cx:chartSpace xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex">
+  <cx:chartData>
+    <cx:data id="0">
+      <cx:strDim type="cat">
+        <cx:f>_xlchart.v1.130</cx:f>
+      </cx:strDim>
+      <cx:numDim type="val">
+        <cx:f>_xlchart.v1.132</cx:f>
+      </cx:numDim>
+    </cx:data>
+    <cx:data id="1">
+      <cx:strDim type="cat">
+        <cx:f>_xlchart.v1.130</cx:f>
+      </cx:strDim>
+      <cx:numDim type="val">
+        <cx:f>_xlchart.v1.134</cx:f>
+      </cx:numDim>
+    </cx:data>
+  </cx:chartData>
+  <cx:chart>
+    <cx:title pos="t" align="ctr" overlay="0">
+      <cx:tx>
+        <cx:txData>
+          <cx:v>Fault Detection Loss</cx:v>
+        </cx:txData>
+      </cx:tx>
+      <cx:txPr>
+        <a:bodyPr spcFirstLastPara="1" vertOverflow="ellipsis" horzOverflow="overflow" wrap="square" lIns="0" tIns="0" rIns="0" bIns="0" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr" rtl="0">
+            <a:defRPr/>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="en-US" sz="1400" b="0" i="0" u="none" strike="noStrike" baseline="0">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:sysClr>
+              </a:solidFill>
+              <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+            </a:rPr>
+            <a:t>Fault Detection Loss</a:t>
+          </a:r>
+        </a:p>
+      </cx:txPr>
+    </cx:title>
+    <cx:plotArea>
+      <cx:plotAreaRegion>
+        <cx:series layoutId="boxWhisker" uniqueId="{EEF60DC7-2DD5-4003-9E9F-8313ED2A8839}">
+          <cx:tx>
+            <cx:txData>
+              <cx:f>_xlchart.v1.131</cx:f>
+              <cx:v>Loss By K-means</cx:v>
+            </cx:txData>
+          </cx:tx>
+          <cx:dataId val="0"/>
+          <cx:layoutPr>
+            <cx:visibility meanLine="0" meanMarker="1" nonoutliers="0" outliers="1"/>
+            <cx:statistics quartileMethod="exclusive"/>
+          </cx:layoutPr>
+        </cx:series>
+        <cx:series layoutId="boxWhisker" uniqueId="{5F7005D6-8481-4DD4-AAE7-5898E3FDF462}">
+          <cx:tx>
+            <cx:txData>
+              <cx:f>_xlchart.v1.133</cx:f>
+              <cx:v>Loss By K-means ++</cx:v>
+            </cx:txData>
+          </cx:tx>
+          <cx:dataId val="1"/>
+          <cx:layoutPr>
+            <cx:visibility meanLine="0" meanMarker="1" nonoutliers="0" outliers="1"/>
+            <cx:statistics quartileMethod="exclusive"/>
+          </cx:layoutPr>
+        </cx:series>
+      </cx:plotAreaRegion>
+      <cx:axis id="0">
+        <cx:catScaling gapWidth="1"/>
+        <cx:tickLabels/>
+      </cx:axis>
+      <cx:axis id="1">
+        <cx:valScaling/>
+        <cx:majorGridlines/>
+        <cx:tickLabels/>
+      </cx:axis>
+    </cx:plotArea>
+    <cx:legend pos="t" align="ctr" overlay="0"/>
+  </cx:chart>
+</cx:chartSpace>
+</file>
+
+<file path=xl/charts/chartEx17.xml><?xml version="1.0" encoding="utf-8"?>
+<cx:chartSpace xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex">
+  <cx:chartData>
+    <cx:data id="0">
+      <cx:strDim type="cat">
+        <cx:f>_xlchart.v1.135</cx:f>
+      </cx:strDim>
+      <cx:numDim type="val">
+        <cx:f>_xlchart.v1.137</cx:f>
+      </cx:numDim>
+    </cx:data>
+    <cx:data id="1">
+      <cx:strDim type="cat">
+        <cx:f>_xlchart.v1.135</cx:f>
+      </cx:strDim>
+      <cx:numDim type="val">
+        <cx:f>_xlchart.v1.139</cx:f>
+      </cx:numDim>
+    </cx:data>
+  </cx:chartData>
+  <cx:chart>
+    <cx:title pos="t" align="ctr" overlay="0">
+      <cx:tx>
+        <cx:txData>
+          <cx:v>Fault Detection Loss</cx:v>
+        </cx:txData>
+      </cx:tx>
+      <cx:txPr>
+        <a:bodyPr spcFirstLastPara="1" vertOverflow="ellipsis" horzOverflow="overflow" wrap="square" lIns="0" tIns="0" rIns="0" bIns="0" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr" rtl="0">
+            <a:defRPr/>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="en-US" sz="1400" b="0" i="0" u="none" strike="noStrike" baseline="0">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:sysClr>
+              </a:solidFill>
+              <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+            </a:rPr>
+            <a:t>Fault Detection Loss</a:t>
+          </a:r>
+        </a:p>
+      </cx:txPr>
+    </cx:title>
+    <cx:plotArea>
+      <cx:plotAreaRegion>
+        <cx:series layoutId="boxWhisker" uniqueId="{11B59819-AD8D-467F-A225-762B8DC25488}">
+          <cx:tx>
+            <cx:txData>
+              <cx:f>_xlchart.v1.136</cx:f>
+              <cx:v>Loss By K-means</cx:v>
+            </cx:txData>
+          </cx:tx>
+          <cx:dataId val="0"/>
+          <cx:layoutPr>
+            <cx:visibility meanLine="0" meanMarker="1" nonoutliers="0" outliers="1"/>
+            <cx:statistics quartileMethod="exclusive"/>
+          </cx:layoutPr>
+        </cx:series>
+        <cx:series layoutId="boxWhisker" uniqueId="{B71B95C5-B0AD-47F0-8DC2-F25CA9DFEC96}">
+          <cx:tx>
+            <cx:txData>
+              <cx:f>_xlchart.v1.138</cx:f>
+              <cx:v>Loss By K-means ++</cx:v>
+            </cx:txData>
+          </cx:tx>
+          <cx:dataId val="1"/>
+          <cx:layoutPr>
+            <cx:visibility meanLine="0" meanMarker="1" nonoutliers="0" outliers="1"/>
+            <cx:statistics quartileMethod="exclusive"/>
+          </cx:layoutPr>
+        </cx:series>
+      </cx:plotAreaRegion>
+      <cx:axis id="0">
+        <cx:catScaling gapWidth="1"/>
+        <cx:tickLabels/>
+      </cx:axis>
+      <cx:axis id="1">
+        <cx:valScaling/>
+        <cx:majorGridlines/>
+        <cx:tickLabels/>
+      </cx:axis>
+    </cx:plotArea>
+    <cx:legend pos="t" align="ctr" overlay="0"/>
+  </cx:chart>
+</cx:chartSpace>
+</file>
+
+<file path=xl/charts/chartEx18.xml><?xml version="1.0" encoding="utf-8"?>
+<cx:chartSpace xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex">
+  <cx:chartData>
+    <cx:data id="0">
+      <cx:strDim type="cat">
+        <cx:f>_xlchart.v1.140</cx:f>
+      </cx:strDim>
+      <cx:numDim type="val">
+        <cx:f>_xlchart.v1.142</cx:f>
+      </cx:numDim>
+    </cx:data>
+    <cx:data id="1">
+      <cx:strDim type="cat">
+        <cx:f>_xlchart.v1.140</cx:f>
+      </cx:strDim>
+      <cx:numDim type="val">
+        <cx:f>_xlchart.v1.144</cx:f>
+      </cx:numDim>
+    </cx:data>
+  </cx:chartData>
+  <cx:chart>
+    <cx:title pos="t" align="ctr" overlay="0">
+      <cx:tx>
+        <cx:txData>
+          <cx:v>Fault Detection Loss</cx:v>
+        </cx:txData>
+      </cx:tx>
+      <cx:txPr>
+        <a:bodyPr spcFirstLastPara="1" vertOverflow="ellipsis" horzOverflow="overflow" wrap="square" lIns="0" tIns="0" rIns="0" bIns="0" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr" rtl="0">
+            <a:defRPr/>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="en-US" sz="1400" b="0" i="0" u="none" strike="noStrike" baseline="0">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:sysClr>
+              </a:solidFill>
+              <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+            </a:rPr>
+            <a:t>Fault Detection Loss</a:t>
+          </a:r>
+        </a:p>
+      </cx:txPr>
+    </cx:title>
+    <cx:plotArea>
+      <cx:plotAreaRegion>
+        <cx:series layoutId="boxWhisker" uniqueId="{DF41C6EA-3EFE-4E9B-B0C8-41397A6759CA}">
+          <cx:tx>
+            <cx:txData>
+              <cx:f>_xlchart.v1.141</cx:f>
+              <cx:v>Loss By K-means</cx:v>
+            </cx:txData>
+          </cx:tx>
+          <cx:dataId val="0"/>
+          <cx:layoutPr>
+            <cx:visibility meanLine="0" meanMarker="1" nonoutliers="0" outliers="1"/>
+            <cx:statistics quartileMethod="exclusive"/>
+          </cx:layoutPr>
+        </cx:series>
+        <cx:series layoutId="boxWhisker" uniqueId="{3EC7602A-C35F-4DFA-B86A-059C4B7FE26E}">
+          <cx:tx>
+            <cx:txData>
+              <cx:f>_xlchart.v1.143</cx:f>
+              <cx:v>Loss By K-means ++</cx:v>
+            </cx:txData>
+          </cx:tx>
+          <cx:dataId val="1"/>
+          <cx:layoutPr>
+            <cx:visibility meanLine="0" meanMarker="1" nonoutliers="0" outliers="1"/>
+            <cx:statistics quartileMethod="exclusive"/>
+          </cx:layoutPr>
+        </cx:series>
+      </cx:plotAreaRegion>
+      <cx:axis id="0">
+        <cx:catScaling gapWidth="1"/>
+        <cx:tickLabels/>
+      </cx:axis>
+      <cx:axis id="1">
+        <cx:valScaling/>
+        <cx:majorGridlines/>
+        <cx:tickLabels/>
+      </cx:axis>
+    </cx:plotArea>
+    <cx:legend pos="t" align="ctr" overlay="0"/>
+  </cx:chart>
+</cx:chartSpace>
+</file>
+
+<file path=xl/charts/chartEx19.xml><?xml version="1.0" encoding="utf-8"?>
+<cx:chartSpace xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex">
+  <cx:chartData>
+    <cx:data id="0">
+      <cx:strDim type="cat">
+        <cx:f>_xlchart.v1.145</cx:f>
+      </cx:strDim>
+      <cx:numDim type="val">
+        <cx:f>_xlchart.v1.147</cx:f>
+      </cx:numDim>
+    </cx:data>
+    <cx:data id="1">
+      <cx:strDim type="cat">
+        <cx:f>_xlchart.v1.145</cx:f>
+      </cx:strDim>
+      <cx:numDim type="val">
+        <cx:f>_xlchart.v1.149</cx:f>
+      </cx:numDim>
+    </cx:data>
+  </cx:chartData>
+  <cx:chart>
+    <cx:title pos="t" align="ctr" overlay="0">
+      <cx:tx>
+        <cx:txData>
+          <cx:v>Fault Detection Loss</cx:v>
+        </cx:txData>
+      </cx:tx>
+      <cx:txPr>
+        <a:bodyPr spcFirstLastPara="1" vertOverflow="ellipsis" horzOverflow="overflow" wrap="square" lIns="0" tIns="0" rIns="0" bIns="0" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr" rtl="0">
+            <a:defRPr/>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="en-US" sz="1400" b="0" i="0" u="none" strike="noStrike" baseline="0">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:sysClr>
+              </a:solidFill>
+              <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+            </a:rPr>
+            <a:t>Fault Detection Loss</a:t>
+          </a:r>
+        </a:p>
+      </cx:txPr>
+    </cx:title>
+    <cx:plotArea>
+      <cx:plotAreaRegion>
+        <cx:series layoutId="boxWhisker" uniqueId="{42923672-4E71-475D-B468-2ED82FF9BAF5}">
+          <cx:tx>
+            <cx:txData>
+              <cx:f>_xlchart.v1.146</cx:f>
+              <cx:v>Loss By K-means</cx:v>
+            </cx:txData>
+          </cx:tx>
+          <cx:dataId val="0"/>
+          <cx:layoutPr>
+            <cx:visibility meanLine="0" meanMarker="1" nonoutliers="0" outliers="1"/>
+            <cx:statistics quartileMethod="exclusive"/>
+          </cx:layoutPr>
+        </cx:series>
+        <cx:series layoutId="boxWhisker" uniqueId="{B630CA84-9C41-4191-B0FD-8C5FDF0E34FA}">
+          <cx:tx>
+            <cx:txData>
+              <cx:f>_xlchart.v1.148</cx:f>
+              <cx:v>Loss By K-means ++</cx:v>
+            </cx:txData>
+          </cx:tx>
+          <cx:dataId val="1"/>
+          <cx:layoutPr>
+            <cx:visibility meanLine="0" meanMarker="1" nonoutliers="0" outliers="1"/>
+            <cx:statistics quartileMethod="exclusive"/>
+          </cx:layoutPr>
+        </cx:series>
+      </cx:plotAreaRegion>
+      <cx:axis id="0">
+        <cx:catScaling gapWidth="1"/>
+        <cx:tickLabels/>
+      </cx:axis>
+      <cx:axis id="1">
+        <cx:valScaling/>
+        <cx:majorGridlines/>
+        <cx:tickLabels/>
+      </cx:axis>
+    </cx:plotArea>
+    <cx:legend pos="t" align="ctr" overlay="0"/>
+  </cx:chart>
+</cx:chartSpace>
+</file>
+
+<file path=xl/charts/chartEx2.xml><?xml version="1.0" encoding="utf-8"?>
 <cx:chartSpace xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex">
   <cx:chartData>
     <cx:data id="0">
@@ -905,7 +1424,7 @@
     </cx:title>
     <cx:plotArea>
       <cx:plotAreaRegion>
-        <cx:series layoutId="boxWhisker" uniqueId="{785ADE08-C678-4890-A512-FE3856A9FF22}">
+        <cx:series layoutId="boxWhisker" uniqueId="{F9A96F06-C1E3-4082-95E0-6CD1D617F013}">
           <cx:tx>
             <cx:txData>
               <cx:f>_xlchart.v1.71</cx:f>
@@ -918,7 +1437,7 @@
             <cx:statistics quartileMethod="exclusive"/>
           </cx:layoutPr>
         </cx:series>
-        <cx:series layoutId="boxWhisker" uniqueId="{44BDD5BD-7009-4000-A449-3332EAF541A7}">
+        <cx:series layoutId="boxWhisker" uniqueId="{5722F756-B8ED-47FF-9480-E3EE51881ABE}">
           <cx:tx>
             <cx:txData>
               <cx:f>_xlchart.v1.73</cx:f>
@@ -947,7 +1466,379 @@
 </cx:chartSpace>
 </file>
 
-<file path=xl/charts/chartEx16.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chartEx20.xml><?xml version="1.0" encoding="utf-8"?>
+<cx:chartSpace xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex">
+  <cx:chartData>
+    <cx:data id="0">
+      <cx:strDim type="cat">
+        <cx:f>_xlchart.v1.155</cx:f>
+      </cx:strDim>
+      <cx:numDim type="val">
+        <cx:f>_xlchart.v1.157</cx:f>
+      </cx:numDim>
+    </cx:data>
+    <cx:data id="1">
+      <cx:strDim type="cat">
+        <cx:f>_xlchart.v1.155</cx:f>
+      </cx:strDim>
+      <cx:numDim type="val">
+        <cx:f>_xlchart.v1.159</cx:f>
+      </cx:numDim>
+    </cx:data>
+  </cx:chartData>
+  <cx:chart>
+    <cx:title pos="t" align="ctr" overlay="0">
+      <cx:tx>
+        <cx:txData>
+          <cx:v>Fault Detection Loss</cx:v>
+        </cx:txData>
+      </cx:tx>
+      <cx:txPr>
+        <a:bodyPr spcFirstLastPara="1" vertOverflow="ellipsis" horzOverflow="overflow" wrap="square" lIns="0" tIns="0" rIns="0" bIns="0" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr" rtl="0">
+            <a:defRPr/>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="en-US" sz="1400" b="0" i="0" u="none" strike="noStrike" baseline="0">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:sysClr>
+              </a:solidFill>
+              <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+            </a:rPr>
+            <a:t>Fault Detection Loss</a:t>
+          </a:r>
+        </a:p>
+      </cx:txPr>
+    </cx:title>
+    <cx:plotArea>
+      <cx:plotAreaRegion>
+        <cx:series layoutId="boxWhisker" uniqueId="{2A073B5F-D6A9-4F8C-B85F-4FEC047D957A}">
+          <cx:tx>
+            <cx:txData>
+              <cx:f>_xlchart.v1.156</cx:f>
+              <cx:v>Loss By K-means</cx:v>
+            </cx:txData>
+          </cx:tx>
+          <cx:dataId val="0"/>
+          <cx:layoutPr>
+            <cx:visibility meanLine="0" meanMarker="1" nonoutliers="0" outliers="1"/>
+            <cx:statistics quartileMethod="exclusive"/>
+          </cx:layoutPr>
+        </cx:series>
+        <cx:series layoutId="boxWhisker" uniqueId="{0FA1A064-4076-4CED-9192-EC527C464F8D}">
+          <cx:tx>
+            <cx:txData>
+              <cx:f>_xlchart.v1.158</cx:f>
+              <cx:v>Loss By K-means ++</cx:v>
+            </cx:txData>
+          </cx:tx>
+          <cx:dataId val="1"/>
+          <cx:layoutPr>
+            <cx:visibility meanLine="0" meanMarker="1" nonoutliers="0" outliers="1"/>
+            <cx:statistics quartileMethod="exclusive"/>
+          </cx:layoutPr>
+        </cx:series>
+      </cx:plotAreaRegion>
+      <cx:axis id="0">
+        <cx:catScaling gapWidth="1"/>
+        <cx:tickLabels/>
+      </cx:axis>
+      <cx:axis id="1">
+        <cx:valScaling/>
+        <cx:majorGridlines/>
+        <cx:tickLabels/>
+      </cx:axis>
+    </cx:plotArea>
+    <cx:legend pos="t" align="ctr" overlay="0"/>
+  </cx:chart>
+</cx:chartSpace>
+</file>
+
+<file path=xl/charts/chartEx3.xml><?xml version="1.0" encoding="utf-8"?>
+<cx:chartSpace xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex">
+  <cx:chartData>
+    <cx:data id="0">
+      <cx:strDim type="cat">
+        <cx:f>_xlchart.v1.60</cx:f>
+      </cx:strDim>
+      <cx:numDim type="val">
+        <cx:f>_xlchart.v1.62</cx:f>
+      </cx:numDim>
+    </cx:data>
+    <cx:data id="1">
+      <cx:strDim type="cat">
+        <cx:f>_xlchart.v1.60</cx:f>
+      </cx:strDim>
+      <cx:numDim type="val">
+        <cx:f>_xlchart.v1.64</cx:f>
+      </cx:numDim>
+    </cx:data>
+  </cx:chartData>
+  <cx:chart>
+    <cx:title pos="t" align="ctr" overlay="0">
+      <cx:tx>
+        <cx:rich>
+          <a:bodyPr spcFirstLastPara="1" vertOverflow="ellipsis" horzOverflow="overflow" wrap="square" lIns="0" tIns="0" rIns="0" bIns="0" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr rtl="0"/>
+            <a:r>
+              <a:rPr lang="en-US" sz="1400" b="0" i="0" baseline="0">
+                <a:solidFill>
+                  <a:sysClr val="windowText" lastClr="000000"/>
+                </a:solidFill>
+                <a:effectLst/>
+                <a:latin typeface="+mn-lt"/>
+              </a:rPr>
+              <a:t>Fault Detection Loss</a:t>
+            </a:r>
+            <a:endParaRPr lang="en-US" sz="1400" b="0">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+            </a:endParaRPr>
+          </a:p>
+        </cx:rich>
+      </cx:tx>
+    </cx:title>
+    <cx:plotArea>
+      <cx:plotAreaRegion>
+        <cx:series layoutId="boxWhisker" uniqueId="{0E3BCA7B-327D-4DD0-B37C-933CCE367519}">
+          <cx:tx>
+            <cx:txData>
+              <cx:f>_xlchart.v1.61</cx:f>
+              <cx:v>Loss By K-means</cx:v>
+            </cx:txData>
+          </cx:tx>
+          <cx:dataId val="0"/>
+          <cx:layoutPr>
+            <cx:visibility meanLine="0" meanMarker="1" nonoutliers="0" outliers="1"/>
+            <cx:statistics quartileMethod="exclusive"/>
+          </cx:layoutPr>
+        </cx:series>
+        <cx:series layoutId="boxWhisker" uniqueId="{62F38CCD-83C3-4504-A11C-C5DEEA57B731}">
+          <cx:tx>
+            <cx:txData>
+              <cx:f>_xlchart.v1.63</cx:f>
+              <cx:v>Loss By K-means ++</cx:v>
+            </cx:txData>
+          </cx:tx>
+          <cx:dataId val="1"/>
+          <cx:layoutPr>
+            <cx:visibility meanLine="0" meanMarker="1" nonoutliers="0" outliers="1"/>
+            <cx:statistics quartileMethod="exclusive"/>
+          </cx:layoutPr>
+        </cx:series>
+      </cx:plotAreaRegion>
+      <cx:axis id="0">
+        <cx:catScaling gapWidth="1"/>
+        <cx:tickLabels/>
+      </cx:axis>
+      <cx:axis id="1">
+        <cx:valScaling/>
+        <cx:majorGridlines/>
+        <cx:tickLabels/>
+      </cx:axis>
+    </cx:plotArea>
+    <cx:legend pos="t" align="ctr" overlay="0"/>
+  </cx:chart>
+</cx:chartSpace>
+</file>
+
+<file path=xl/charts/chartEx4.xml><?xml version="1.0" encoding="utf-8"?>
+<cx:chartSpace xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex">
+  <cx:chartData>
+    <cx:data id="0">
+      <cx:strDim type="cat">
+        <cx:f>_xlchart.v1.80</cx:f>
+      </cx:strDim>
+      <cx:numDim type="val">
+        <cx:f>_xlchart.v1.82</cx:f>
+      </cx:numDim>
+    </cx:data>
+    <cx:data id="1">
+      <cx:strDim type="cat">
+        <cx:f>_xlchart.v1.80</cx:f>
+      </cx:strDim>
+      <cx:numDim type="val">
+        <cx:f>_xlchart.v1.84</cx:f>
+      </cx:numDim>
+    </cx:data>
+  </cx:chartData>
+  <cx:chart>
+    <cx:title pos="t" align="ctr" overlay="0">
+      <cx:tx>
+        <cx:txData>
+          <cx:v>Fault Detection Loss</cx:v>
+        </cx:txData>
+      </cx:tx>
+      <cx:txPr>
+        <a:bodyPr spcFirstLastPara="1" vertOverflow="ellipsis" horzOverflow="overflow" wrap="square" lIns="0" tIns="0" rIns="0" bIns="0" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr" rtl="0">
+            <a:defRPr/>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="en-US" sz="1400" b="0" i="0" u="none" strike="noStrike" baseline="0">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:sysClr>
+              </a:solidFill>
+              <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+            </a:rPr>
+            <a:t>Fault Detection Loss</a:t>
+          </a:r>
+        </a:p>
+      </cx:txPr>
+    </cx:title>
+    <cx:plotArea>
+      <cx:plotAreaRegion>
+        <cx:series layoutId="boxWhisker" uniqueId="{6E42D3EF-C978-4CC9-BFCB-67BB2E997C91}">
+          <cx:tx>
+            <cx:txData>
+              <cx:f>_xlchart.v1.81</cx:f>
+              <cx:v>Loss By K-means</cx:v>
+            </cx:txData>
+          </cx:tx>
+          <cx:dataId val="0"/>
+          <cx:layoutPr>
+            <cx:visibility meanLine="0" meanMarker="1" nonoutliers="0" outliers="1"/>
+            <cx:statistics quartileMethod="exclusive"/>
+          </cx:layoutPr>
+        </cx:series>
+        <cx:series layoutId="boxWhisker" uniqueId="{32096FDA-5561-4AFA-BA35-9666AABAE7F6}">
+          <cx:tx>
+            <cx:txData>
+              <cx:f>_xlchart.v1.83</cx:f>
+              <cx:v>Loss By K-means ++</cx:v>
+            </cx:txData>
+          </cx:tx>
+          <cx:dataId val="1"/>
+          <cx:layoutPr>
+            <cx:visibility meanLine="0" meanMarker="1" nonoutliers="0" outliers="1"/>
+            <cx:statistics quartileMethod="exclusive"/>
+          </cx:layoutPr>
+        </cx:series>
+      </cx:plotAreaRegion>
+      <cx:axis id="0">
+        <cx:catScaling gapWidth="1"/>
+        <cx:tickLabels/>
+      </cx:axis>
+      <cx:axis id="1">
+        <cx:valScaling/>
+        <cx:majorGridlines/>
+        <cx:tickLabels/>
+      </cx:axis>
+    </cx:plotArea>
+    <cx:legend pos="t" align="ctr" overlay="0"/>
+  </cx:chart>
+</cx:chartSpace>
+</file>
+
+<file path=xl/charts/chartEx5.xml><?xml version="1.0" encoding="utf-8"?>
+<cx:chartSpace xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex">
+  <cx:chartData>
+    <cx:data id="0">
+      <cx:strDim type="cat">
+        <cx:f>_xlchart.v1.90</cx:f>
+      </cx:strDim>
+      <cx:numDim type="val">
+        <cx:f>_xlchart.v1.92</cx:f>
+      </cx:numDim>
+    </cx:data>
+    <cx:data id="1">
+      <cx:strDim type="cat">
+        <cx:f>_xlchart.v1.90</cx:f>
+      </cx:strDim>
+      <cx:numDim type="val">
+        <cx:f>_xlchart.v1.94</cx:f>
+      </cx:numDim>
+    </cx:data>
+  </cx:chartData>
+  <cx:chart>
+    <cx:title pos="t" align="ctr" overlay="0">
+      <cx:tx>
+        <cx:txData>
+          <cx:v>Fault Detection Loss</cx:v>
+        </cx:txData>
+      </cx:tx>
+      <cx:txPr>
+        <a:bodyPr spcFirstLastPara="1" vertOverflow="ellipsis" horzOverflow="overflow" wrap="square" lIns="0" tIns="0" rIns="0" bIns="0" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr" rtl="0">
+            <a:defRPr/>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="en-US" sz="1400" b="0" i="0" u="none" strike="noStrike" baseline="0">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:sysClr>
+              </a:solidFill>
+              <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+            </a:rPr>
+            <a:t>Fault Detection Loss</a:t>
+          </a:r>
+        </a:p>
+      </cx:txPr>
+    </cx:title>
+    <cx:plotArea>
+      <cx:plotAreaRegion>
+        <cx:series layoutId="boxWhisker" uniqueId="{785ADE08-C678-4890-A512-FE3856A9FF22}">
+          <cx:tx>
+            <cx:txData>
+              <cx:f>_xlchart.v1.91</cx:f>
+              <cx:v>Loss By K-means</cx:v>
+            </cx:txData>
+          </cx:tx>
+          <cx:dataId val="0"/>
+          <cx:layoutPr>
+            <cx:visibility meanLine="0" meanMarker="1" nonoutliers="0" outliers="1"/>
+            <cx:statistics quartileMethod="exclusive"/>
+          </cx:layoutPr>
+        </cx:series>
+        <cx:series layoutId="boxWhisker" uniqueId="{44BDD5BD-7009-4000-A449-3332EAF541A7}">
+          <cx:tx>
+            <cx:txData>
+              <cx:f>_xlchart.v1.93</cx:f>
+              <cx:v>Loss By K-means ++</cx:v>
+            </cx:txData>
+          </cx:tx>
+          <cx:dataId val="1"/>
+          <cx:layoutPr>
+            <cx:visibility meanLine="0" meanMarker="1" nonoutliers="0" outliers="1"/>
+            <cx:statistics quartileMethod="exclusive"/>
+          </cx:layoutPr>
+        </cx:series>
+      </cx:plotAreaRegion>
+      <cx:axis id="0">
+        <cx:catScaling gapWidth="1"/>
+        <cx:tickLabels/>
+      </cx:axis>
+      <cx:axis id="1">
+        <cx:valScaling/>
+        <cx:majorGridlines/>
+        <cx:tickLabels/>
+      </cx:axis>
+    </cx:plotArea>
+    <cx:legend pos="t" align="ctr" overlay="0"/>
+  </cx:chart>
+</cx:chartSpace>
+</file>
+
+<file path=xl/charts/chartEx6.xml><?xml version="1.0" encoding="utf-8"?>
 <cx:chartSpace xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex">
   <cx:chartData>
     <cx:data id="0">
@@ -1040,23 +1931,23 @@
 </cx:chartSpace>
 </file>
 
-<file path=xl/charts/chartEx17.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chartEx7.xml><?xml version="1.0" encoding="utf-8"?>
 <cx:chartSpace xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex">
   <cx:chartData>
     <cx:data id="0">
       <cx:strDim type="cat">
-        <cx:f>_xlchart.v1.80</cx:f>
+        <cx:f>_xlchart.v1.55</cx:f>
       </cx:strDim>
       <cx:numDim type="val">
-        <cx:f>_xlchart.v1.82</cx:f>
+        <cx:f>_xlchart.v1.57</cx:f>
       </cx:numDim>
     </cx:data>
     <cx:data id="1">
       <cx:strDim type="cat">
-        <cx:f>_xlchart.v1.80</cx:f>
+        <cx:f>_xlchart.v1.55</cx:f>
       </cx:strDim>
       <cx:numDim type="val">
-        <cx:f>_xlchart.v1.84</cx:f>
+        <cx:f>_xlchart.v1.59</cx:f>
       </cx:numDim>
     </cx:data>
   </cx:chartData>
@@ -1094,7 +1985,7 @@
         <cx:series layoutId="boxWhisker" uniqueId="{11B59819-AD8D-467F-A225-762B8DC25488}">
           <cx:tx>
             <cx:txData>
-              <cx:f>_xlchart.v1.81</cx:f>
+              <cx:f>_xlchart.v1.56</cx:f>
               <cx:v>Loss By K-means</cx:v>
             </cx:txData>
           </cx:tx>
@@ -1107,7 +1998,7 @@
         <cx:series layoutId="boxWhisker" uniqueId="{B71B95C5-B0AD-47F0-8DC2-F25CA9DFEC96}">
           <cx:tx>
             <cx:txData>
-              <cx:f>_xlchart.v1.83</cx:f>
+              <cx:f>_xlchart.v1.58</cx:f>
               <cx:v>Loss By K-means ++</cx:v>
             </cx:txData>
           </cx:tx>
@@ -1133,7 +2024,7 @@
 </cx:chartSpace>
 </file>
 
-<file path=xl/charts/chartEx18.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chartEx8.xml><?xml version="1.0" encoding="utf-8"?>
 <cx:chartSpace xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex">
   <cx:chartData>
     <cx:data id="0">
@@ -1226,23 +2117,23 @@
 </cx:chartSpace>
 </file>
 
-<file path=xl/charts/chartEx19.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chartEx9.xml><?xml version="1.0" encoding="utf-8"?>
 <cx:chartSpace xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex">
   <cx:chartData>
     <cx:data id="0">
       <cx:strDim type="cat">
-        <cx:f>_xlchart.v1.90</cx:f>
+        <cx:f>_xlchart.v1.50</cx:f>
       </cx:strDim>
       <cx:numDim type="val">
-        <cx:f>_xlchart.v1.92</cx:f>
+        <cx:f>_xlchart.v1.52</cx:f>
       </cx:numDim>
     </cx:data>
     <cx:data id="1">
       <cx:strDim type="cat">
-        <cx:f>_xlchart.v1.90</cx:f>
+        <cx:f>_xlchart.v1.50</cx:f>
       </cx:strDim>
       <cx:numDim type="val">
-        <cx:f>_xlchart.v1.94</cx:f>
+        <cx:f>_xlchart.v1.54</cx:f>
       </cx:numDim>
     </cx:data>
   </cx:chartData>
@@ -1280,7 +2171,7 @@
         <cx:series layoutId="boxWhisker" uniqueId="{42923672-4E71-475D-B468-2ED82FF9BAF5}">
           <cx:tx>
             <cx:txData>
-              <cx:f>_xlchart.v1.91</cx:f>
+              <cx:f>_xlchart.v1.51</cx:f>
               <cx:v>Loss By K-means</cx:v>
             </cx:txData>
           </cx:tx>
@@ -1293,836 +2184,7 @@
         <cx:series layoutId="boxWhisker" uniqueId="{B630CA84-9C41-4191-B0FD-8C5FDF0E34FA}">
           <cx:tx>
             <cx:txData>
-              <cx:f>_xlchart.v1.93</cx:f>
-              <cx:v>Loss By K-means ++</cx:v>
-            </cx:txData>
-          </cx:tx>
-          <cx:dataId val="1"/>
-          <cx:layoutPr>
-            <cx:visibility meanLine="0" meanMarker="1" nonoutliers="0" outliers="1"/>
-            <cx:statistics quartileMethod="exclusive"/>
-          </cx:layoutPr>
-        </cx:series>
-      </cx:plotAreaRegion>
-      <cx:axis id="0">
-        <cx:catScaling gapWidth="1"/>
-        <cx:tickLabels/>
-      </cx:axis>
-      <cx:axis id="1">
-        <cx:valScaling/>
-        <cx:majorGridlines/>
-        <cx:tickLabels/>
-      </cx:axis>
-    </cx:plotArea>
-    <cx:legend pos="t" align="ctr" overlay="0"/>
-  </cx:chart>
-</cx:chartSpace>
-</file>
-
-<file path=xl/charts/chartEx2.xml><?xml version="1.0" encoding="utf-8"?>
-<cx:chartSpace xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex">
-  <cx:chartData>
-    <cx:data id="0">
-      <cx:strDim type="cat">
-        <cx:f>_xlchart.v1.0</cx:f>
-      </cx:strDim>
-      <cx:numDim type="val">
-        <cx:f>_xlchart.v1.2</cx:f>
-      </cx:numDim>
-    </cx:data>
-    <cx:data id="1">
-      <cx:strDim type="cat">
-        <cx:f>_xlchart.v1.0</cx:f>
-      </cx:strDim>
-      <cx:numDim type="val">
-        <cx:f>_xlchart.v1.4</cx:f>
-      </cx:numDim>
-    </cx:data>
-  </cx:chartData>
-  <cx:chart>
-    <cx:title pos="t" align="ctr" overlay="0">
-      <cx:tx>
-        <cx:txData>
-          <cx:v>Fault Detection Loss</cx:v>
-        </cx:txData>
-      </cx:tx>
-      <cx:txPr>
-        <a:bodyPr spcFirstLastPara="1" vertOverflow="ellipsis" horzOverflow="overflow" wrap="square" lIns="0" tIns="0" rIns="0" bIns="0" anchor="ctr" anchorCtr="1"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="ctr" rtl="0">
-            <a:defRPr/>
-          </a:pPr>
-          <a:r>
-            <a:rPr lang="en-US" sz="1400" b="0" i="0" u="none" strike="noStrike" baseline="0">
-              <a:solidFill>
-                <a:sysClr val="windowText" lastClr="000000">
-                  <a:lumMod val="65000"/>
-                  <a:lumOff val="35000"/>
-                </a:sysClr>
-              </a:solidFill>
-              <a:latin typeface="Calibri" panose="020F0502020204030204"/>
-            </a:rPr>
-            <a:t>Fault Detection Loss</a:t>
-          </a:r>
-        </a:p>
-      </cx:txPr>
-    </cx:title>
-    <cx:plotArea>
-      <cx:plotAreaRegion>
-        <cx:series layoutId="boxWhisker" uniqueId="{F9A96F06-C1E3-4082-95E0-6CD1D617F013}">
-          <cx:tx>
-            <cx:txData>
-              <cx:f>_xlchart.v1.1</cx:f>
-              <cx:v>Loss By K-means</cx:v>
-            </cx:txData>
-          </cx:tx>
-          <cx:dataId val="0"/>
-          <cx:layoutPr>
-            <cx:visibility meanLine="0" meanMarker="1" nonoutliers="0" outliers="1"/>
-            <cx:statistics quartileMethod="exclusive"/>
-          </cx:layoutPr>
-        </cx:series>
-        <cx:series layoutId="boxWhisker" uniqueId="{5722F756-B8ED-47FF-9480-E3EE51881ABE}">
-          <cx:tx>
-            <cx:txData>
-              <cx:f>_xlchart.v1.3</cx:f>
-              <cx:v>Loss By K-means ++</cx:v>
-            </cx:txData>
-          </cx:tx>
-          <cx:dataId val="1"/>
-          <cx:layoutPr>
-            <cx:visibility meanLine="0" meanMarker="1" nonoutliers="0" outliers="1"/>
-            <cx:statistics quartileMethod="exclusive"/>
-          </cx:layoutPr>
-        </cx:series>
-      </cx:plotAreaRegion>
-      <cx:axis id="0">
-        <cx:catScaling gapWidth="1"/>
-        <cx:tickLabels/>
-      </cx:axis>
-      <cx:axis id="1">
-        <cx:valScaling/>
-        <cx:majorGridlines/>
-        <cx:tickLabels/>
-      </cx:axis>
-    </cx:plotArea>
-    <cx:legend pos="t" align="ctr" overlay="0"/>
-  </cx:chart>
-</cx:chartSpace>
-</file>
-
-<file path=xl/charts/chartEx20.xml><?xml version="1.0" encoding="utf-8"?>
-<cx:chartSpace xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex">
-  <cx:chartData>
-    <cx:data id="0">
-      <cx:strDim type="cat">
-        <cx:f>_xlchart.v1.100</cx:f>
-      </cx:strDim>
-      <cx:numDim type="val">
-        <cx:f>_xlchart.v1.102</cx:f>
-      </cx:numDim>
-    </cx:data>
-    <cx:data id="1">
-      <cx:strDim type="cat">
-        <cx:f>_xlchart.v1.100</cx:f>
-      </cx:strDim>
-      <cx:numDim type="val">
-        <cx:f>_xlchart.v1.104</cx:f>
-      </cx:numDim>
-    </cx:data>
-  </cx:chartData>
-  <cx:chart>
-    <cx:title pos="t" align="ctr" overlay="0">
-      <cx:tx>
-        <cx:txData>
-          <cx:v>Fault Detection Loss</cx:v>
-        </cx:txData>
-      </cx:tx>
-      <cx:txPr>
-        <a:bodyPr spcFirstLastPara="1" vertOverflow="ellipsis" horzOverflow="overflow" wrap="square" lIns="0" tIns="0" rIns="0" bIns="0" anchor="ctr" anchorCtr="1"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="ctr" rtl="0">
-            <a:defRPr/>
-          </a:pPr>
-          <a:r>
-            <a:rPr lang="en-US" sz="1400" b="0" i="0" u="none" strike="noStrike" baseline="0">
-              <a:solidFill>
-                <a:sysClr val="windowText" lastClr="000000">
-                  <a:lumMod val="65000"/>
-                  <a:lumOff val="35000"/>
-                </a:sysClr>
-              </a:solidFill>
-              <a:latin typeface="Calibri" panose="020F0502020204030204"/>
-            </a:rPr>
-            <a:t>Fault Detection Loss</a:t>
-          </a:r>
-        </a:p>
-      </cx:txPr>
-    </cx:title>
-    <cx:plotArea>
-      <cx:plotAreaRegion>
-        <cx:series layoutId="boxWhisker" uniqueId="{2A073B5F-D6A9-4F8C-B85F-4FEC047D957A}">
-          <cx:tx>
-            <cx:txData>
-              <cx:f>_xlchart.v1.101</cx:f>
-              <cx:v>Loss By K-means</cx:v>
-            </cx:txData>
-          </cx:tx>
-          <cx:dataId val="0"/>
-          <cx:layoutPr>
-            <cx:visibility meanLine="0" meanMarker="1" nonoutliers="0" outliers="1"/>
-            <cx:statistics quartileMethod="exclusive"/>
-          </cx:layoutPr>
-        </cx:series>
-        <cx:series layoutId="boxWhisker" uniqueId="{0FA1A064-4076-4CED-9192-EC527C464F8D}">
-          <cx:tx>
-            <cx:txData>
-              <cx:f>_xlchart.v1.103</cx:f>
-              <cx:v>Loss By K-means ++</cx:v>
-            </cx:txData>
-          </cx:tx>
-          <cx:dataId val="1"/>
-          <cx:layoutPr>
-            <cx:visibility meanLine="0" meanMarker="1" nonoutliers="0" outliers="1"/>
-            <cx:statistics quartileMethod="exclusive"/>
-          </cx:layoutPr>
-        </cx:series>
-      </cx:plotAreaRegion>
-      <cx:axis id="0">
-        <cx:catScaling gapWidth="1"/>
-        <cx:tickLabels/>
-      </cx:axis>
-      <cx:axis id="1">
-        <cx:valScaling/>
-        <cx:majorGridlines/>
-        <cx:tickLabels/>
-      </cx:axis>
-    </cx:plotArea>
-    <cx:legend pos="t" align="ctr" overlay="0"/>
-  </cx:chart>
-</cx:chartSpace>
-</file>
-
-<file path=xl/charts/chartEx3.xml><?xml version="1.0" encoding="utf-8"?>
-<cx:chartSpace xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex">
-  <cx:chartData>
-    <cx:data id="0">
-      <cx:strDim type="cat">
-        <cx:f>_xlchart.v1.45</cx:f>
-      </cx:strDim>
-      <cx:numDim type="val">
-        <cx:f>_xlchart.v1.47</cx:f>
-      </cx:numDim>
-    </cx:data>
-    <cx:data id="1">
-      <cx:strDim type="cat">
-        <cx:f>_xlchart.v1.45</cx:f>
-      </cx:strDim>
-      <cx:numDim type="val">
-        <cx:f>_xlchart.v1.49</cx:f>
-      </cx:numDim>
-    </cx:data>
-  </cx:chartData>
-  <cx:chart>
-    <cx:title pos="t" align="ctr" overlay="0">
-      <cx:tx>
-        <cx:rich>
-          <a:bodyPr spcFirstLastPara="1" vertOverflow="ellipsis" horzOverflow="overflow" wrap="square" lIns="0" tIns="0" rIns="0" bIns="0" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr rtl="0"/>
-            <a:r>
-              <a:rPr lang="en-US" sz="1400" b="0" i="0" baseline="0">
-                <a:effectLst/>
-              </a:rPr>
-              <a:t>Fault Detection Loss</a:t>
-            </a:r>
-            <a:endParaRPr lang="en-US" sz="1400">
-              <a:effectLst/>
-            </a:endParaRPr>
-          </a:p>
-        </cx:rich>
-      </cx:tx>
-    </cx:title>
-    <cx:plotArea>
-      <cx:plotAreaRegion>
-        <cx:series layoutId="boxWhisker" uniqueId="{0E3BCA7B-327D-4DD0-B37C-933CCE367519}">
-          <cx:tx>
-            <cx:txData>
-              <cx:f>_xlchart.v1.46</cx:f>
-              <cx:v>Loss By K-means</cx:v>
-            </cx:txData>
-          </cx:tx>
-          <cx:dataId val="0"/>
-          <cx:layoutPr>
-            <cx:visibility meanLine="0" meanMarker="1" nonoutliers="0" outliers="1"/>
-            <cx:statistics quartileMethod="exclusive"/>
-          </cx:layoutPr>
-        </cx:series>
-        <cx:series layoutId="boxWhisker" uniqueId="{62F38CCD-83C3-4504-A11C-C5DEEA57B731}">
-          <cx:tx>
-            <cx:txData>
-              <cx:f>_xlchart.v1.48</cx:f>
-              <cx:v>Loss By K-means ++</cx:v>
-            </cx:txData>
-          </cx:tx>
-          <cx:dataId val="1"/>
-          <cx:layoutPr>
-            <cx:visibility meanLine="0" meanMarker="1" nonoutliers="0" outliers="1"/>
-            <cx:statistics quartileMethod="exclusive"/>
-          </cx:layoutPr>
-        </cx:series>
-      </cx:plotAreaRegion>
-      <cx:axis id="0">
-        <cx:catScaling gapWidth="1"/>
-        <cx:tickLabels/>
-      </cx:axis>
-      <cx:axis id="1">
-        <cx:valScaling/>
-        <cx:majorGridlines/>
-        <cx:tickLabels/>
-      </cx:axis>
-    </cx:plotArea>
-    <cx:legend pos="t" align="ctr" overlay="0"/>
-  </cx:chart>
-</cx:chartSpace>
-</file>
-
-<file path=xl/charts/chartEx4.xml><?xml version="1.0" encoding="utf-8"?>
-<cx:chartSpace xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex">
-  <cx:chartData>
-    <cx:data id="0">
-      <cx:strDim type="cat">
-        <cx:f>_xlchart.v1.30</cx:f>
-      </cx:strDim>
-      <cx:numDim type="val">
-        <cx:f>_xlchart.v1.32</cx:f>
-      </cx:numDim>
-    </cx:data>
-    <cx:data id="1">
-      <cx:strDim type="cat">
-        <cx:f>_xlchart.v1.30</cx:f>
-      </cx:strDim>
-      <cx:numDim type="val">
-        <cx:f>_xlchart.v1.34</cx:f>
-      </cx:numDim>
-    </cx:data>
-  </cx:chartData>
-  <cx:chart>
-    <cx:title pos="t" align="ctr" overlay="0">
-      <cx:tx>
-        <cx:txData>
-          <cx:v>Fault Detection Loss</cx:v>
-        </cx:txData>
-      </cx:tx>
-      <cx:txPr>
-        <a:bodyPr spcFirstLastPara="1" vertOverflow="ellipsis" horzOverflow="overflow" wrap="square" lIns="0" tIns="0" rIns="0" bIns="0" anchor="ctr" anchorCtr="1"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="ctr" rtl="0">
-            <a:defRPr/>
-          </a:pPr>
-          <a:r>
-            <a:rPr lang="en-US" sz="1400" b="0" i="0" u="none" strike="noStrike" baseline="0">
-              <a:solidFill>
-                <a:sysClr val="windowText" lastClr="000000">
-                  <a:lumMod val="65000"/>
-                  <a:lumOff val="35000"/>
-                </a:sysClr>
-              </a:solidFill>
-              <a:latin typeface="Calibri" panose="020F0502020204030204"/>
-            </a:rPr>
-            <a:t>Fault Detection Loss</a:t>
-          </a:r>
-        </a:p>
-      </cx:txPr>
-    </cx:title>
-    <cx:plotArea>
-      <cx:plotAreaRegion>
-        <cx:series layoutId="boxWhisker" uniqueId="{6E42D3EF-C978-4CC9-BFCB-67BB2E997C91}">
-          <cx:tx>
-            <cx:txData>
-              <cx:f>_xlchart.v1.31</cx:f>
-              <cx:v>Loss By K-means</cx:v>
-            </cx:txData>
-          </cx:tx>
-          <cx:dataId val="0"/>
-          <cx:layoutPr>
-            <cx:visibility meanLine="0" meanMarker="1" nonoutliers="0" outliers="1"/>
-            <cx:statistics quartileMethod="exclusive"/>
-          </cx:layoutPr>
-        </cx:series>
-        <cx:series layoutId="boxWhisker" uniqueId="{32096FDA-5561-4AFA-BA35-9666AABAE7F6}">
-          <cx:tx>
-            <cx:txData>
-              <cx:f>_xlchart.v1.33</cx:f>
-              <cx:v>Loss By K-means ++</cx:v>
-            </cx:txData>
-          </cx:tx>
-          <cx:dataId val="1"/>
-          <cx:layoutPr>
-            <cx:visibility meanLine="0" meanMarker="1" nonoutliers="0" outliers="1"/>
-            <cx:statistics quartileMethod="exclusive"/>
-          </cx:layoutPr>
-        </cx:series>
-      </cx:plotAreaRegion>
-      <cx:axis id="0">
-        <cx:catScaling gapWidth="1"/>
-        <cx:tickLabels/>
-      </cx:axis>
-      <cx:axis id="1">
-        <cx:valScaling/>
-        <cx:majorGridlines/>
-        <cx:tickLabels/>
-      </cx:axis>
-    </cx:plotArea>
-    <cx:legend pos="t" align="ctr" overlay="0"/>
-  </cx:chart>
-</cx:chartSpace>
-</file>
-
-<file path=xl/charts/chartEx5.xml><?xml version="1.0" encoding="utf-8"?>
-<cx:chartSpace xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex">
-  <cx:chartData>
-    <cx:data id="0">
-      <cx:strDim type="cat">
-        <cx:f>_xlchart.v1.40</cx:f>
-      </cx:strDim>
-      <cx:numDim type="val">
-        <cx:f>_xlchart.v1.42</cx:f>
-      </cx:numDim>
-    </cx:data>
-    <cx:data id="1">
-      <cx:strDim type="cat">
-        <cx:f>_xlchart.v1.40</cx:f>
-      </cx:strDim>
-      <cx:numDim type="val">
-        <cx:f>_xlchart.v1.44</cx:f>
-      </cx:numDim>
-    </cx:data>
-  </cx:chartData>
-  <cx:chart>
-    <cx:title pos="t" align="ctr" overlay="0">
-      <cx:tx>
-        <cx:txData>
-          <cx:v>Fault Detection Loss</cx:v>
-        </cx:txData>
-      </cx:tx>
-      <cx:txPr>
-        <a:bodyPr spcFirstLastPara="1" vertOverflow="ellipsis" horzOverflow="overflow" wrap="square" lIns="0" tIns="0" rIns="0" bIns="0" anchor="ctr" anchorCtr="1"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="ctr" rtl="0">
-            <a:defRPr/>
-          </a:pPr>
-          <a:r>
-            <a:rPr lang="en-US" sz="1400" b="0" i="0" u="none" strike="noStrike" baseline="0">
-              <a:solidFill>
-                <a:sysClr val="windowText" lastClr="000000">
-                  <a:lumMod val="65000"/>
-                  <a:lumOff val="35000"/>
-                </a:sysClr>
-              </a:solidFill>
-              <a:latin typeface="Calibri" panose="020F0502020204030204"/>
-            </a:rPr>
-            <a:t>Fault Detection Loss</a:t>
-          </a:r>
-        </a:p>
-      </cx:txPr>
-    </cx:title>
-    <cx:plotArea>
-      <cx:plotAreaRegion>
-        <cx:series layoutId="boxWhisker" uniqueId="{785ADE08-C678-4890-A512-FE3856A9FF22}">
-          <cx:tx>
-            <cx:txData>
-              <cx:f>_xlchart.v1.41</cx:f>
-              <cx:v>Loss By K-means</cx:v>
-            </cx:txData>
-          </cx:tx>
-          <cx:dataId val="0"/>
-          <cx:layoutPr>
-            <cx:visibility meanLine="0" meanMarker="1" nonoutliers="0" outliers="1"/>
-            <cx:statistics quartileMethod="exclusive"/>
-          </cx:layoutPr>
-        </cx:series>
-        <cx:series layoutId="boxWhisker" uniqueId="{44BDD5BD-7009-4000-A449-3332EAF541A7}">
-          <cx:tx>
-            <cx:txData>
-              <cx:f>_xlchart.v1.43</cx:f>
-              <cx:v>Loss By K-means ++</cx:v>
-            </cx:txData>
-          </cx:tx>
-          <cx:dataId val="1"/>
-          <cx:layoutPr>
-            <cx:visibility meanLine="0" meanMarker="1" nonoutliers="0" outliers="1"/>
-            <cx:statistics quartileMethod="exclusive"/>
-          </cx:layoutPr>
-        </cx:series>
-      </cx:plotAreaRegion>
-      <cx:axis id="0">
-        <cx:catScaling gapWidth="1"/>
-        <cx:tickLabels/>
-      </cx:axis>
-      <cx:axis id="1">
-        <cx:valScaling/>
-        <cx:majorGridlines/>
-        <cx:tickLabels/>
-      </cx:axis>
-    </cx:plotArea>
-    <cx:legend pos="t" align="ctr" overlay="0"/>
-  </cx:chart>
-</cx:chartSpace>
-</file>
-
-<file path=xl/charts/chartEx6.xml><?xml version="1.0" encoding="utf-8"?>
-<cx:chartSpace xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex">
-  <cx:chartData>
-    <cx:data id="0">
-      <cx:strDim type="cat">
-        <cx:f>_xlchart.v1.5</cx:f>
-      </cx:strDim>
-      <cx:numDim type="val">
-        <cx:f>_xlchart.v1.7</cx:f>
-      </cx:numDim>
-    </cx:data>
-    <cx:data id="1">
-      <cx:strDim type="cat">
-        <cx:f>_xlchart.v1.5</cx:f>
-      </cx:strDim>
-      <cx:numDim type="val">
-        <cx:f>_xlchart.v1.9</cx:f>
-      </cx:numDim>
-    </cx:data>
-  </cx:chartData>
-  <cx:chart>
-    <cx:title pos="t" align="ctr" overlay="0">
-      <cx:tx>
-        <cx:txData>
-          <cx:v>Fault Detection Loss</cx:v>
-        </cx:txData>
-      </cx:tx>
-      <cx:txPr>
-        <a:bodyPr spcFirstLastPara="1" vertOverflow="ellipsis" horzOverflow="overflow" wrap="square" lIns="0" tIns="0" rIns="0" bIns="0" anchor="ctr" anchorCtr="1"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="ctr" rtl="0">
-            <a:defRPr/>
-          </a:pPr>
-          <a:r>
-            <a:rPr lang="en-US" sz="1400" b="0" i="0" u="none" strike="noStrike" baseline="0">
-              <a:solidFill>
-                <a:sysClr val="windowText" lastClr="000000">
-                  <a:lumMod val="65000"/>
-                  <a:lumOff val="35000"/>
-                </a:sysClr>
-              </a:solidFill>
-              <a:latin typeface="Calibri" panose="020F0502020204030204"/>
-            </a:rPr>
-            <a:t>Fault Detection Loss</a:t>
-          </a:r>
-        </a:p>
-      </cx:txPr>
-    </cx:title>
-    <cx:plotArea>
-      <cx:plotAreaRegion>
-        <cx:series layoutId="boxWhisker" uniqueId="{EEF60DC7-2DD5-4003-9E9F-8313ED2A8839}">
-          <cx:tx>
-            <cx:txData>
-              <cx:f>_xlchart.v1.6</cx:f>
-              <cx:v>Loss By K-means</cx:v>
-            </cx:txData>
-          </cx:tx>
-          <cx:dataId val="0"/>
-          <cx:layoutPr>
-            <cx:visibility meanLine="0" meanMarker="1" nonoutliers="0" outliers="1"/>
-            <cx:statistics quartileMethod="exclusive"/>
-          </cx:layoutPr>
-        </cx:series>
-        <cx:series layoutId="boxWhisker" uniqueId="{5F7005D6-8481-4DD4-AAE7-5898E3FDF462}">
-          <cx:tx>
-            <cx:txData>
-              <cx:f>_xlchart.v1.8</cx:f>
-              <cx:v>Loss By K-means ++</cx:v>
-            </cx:txData>
-          </cx:tx>
-          <cx:dataId val="1"/>
-          <cx:layoutPr>
-            <cx:visibility meanLine="0" meanMarker="1" nonoutliers="0" outliers="1"/>
-            <cx:statistics quartileMethod="exclusive"/>
-          </cx:layoutPr>
-        </cx:series>
-      </cx:plotAreaRegion>
-      <cx:axis id="0">
-        <cx:catScaling gapWidth="1"/>
-        <cx:tickLabels/>
-      </cx:axis>
-      <cx:axis id="1">
-        <cx:valScaling/>
-        <cx:majorGridlines/>
-        <cx:tickLabels/>
-      </cx:axis>
-    </cx:plotArea>
-    <cx:legend pos="t" align="ctr" overlay="0"/>
-  </cx:chart>
-</cx:chartSpace>
-</file>
-
-<file path=xl/charts/chartEx7.xml><?xml version="1.0" encoding="utf-8"?>
-<cx:chartSpace xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex">
-  <cx:chartData>
-    <cx:data id="0">
-      <cx:strDim type="cat">
-        <cx:f>_xlchart.v1.25</cx:f>
-      </cx:strDim>
-      <cx:numDim type="val">
-        <cx:f>_xlchart.v1.27</cx:f>
-      </cx:numDim>
-    </cx:data>
-    <cx:data id="1">
-      <cx:strDim type="cat">
-        <cx:f>_xlchart.v1.25</cx:f>
-      </cx:strDim>
-      <cx:numDim type="val">
-        <cx:f>_xlchart.v1.29</cx:f>
-      </cx:numDim>
-    </cx:data>
-  </cx:chartData>
-  <cx:chart>
-    <cx:title pos="t" align="ctr" overlay="0">
-      <cx:tx>
-        <cx:txData>
-          <cx:v>Fault Detection Loss</cx:v>
-        </cx:txData>
-      </cx:tx>
-      <cx:txPr>
-        <a:bodyPr spcFirstLastPara="1" vertOverflow="ellipsis" horzOverflow="overflow" wrap="square" lIns="0" tIns="0" rIns="0" bIns="0" anchor="ctr" anchorCtr="1"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="ctr" rtl="0">
-            <a:defRPr/>
-          </a:pPr>
-          <a:r>
-            <a:rPr lang="en-US" sz="1400" b="0" i="0" u="none" strike="noStrike" baseline="0">
-              <a:solidFill>
-                <a:sysClr val="windowText" lastClr="000000">
-                  <a:lumMod val="65000"/>
-                  <a:lumOff val="35000"/>
-                </a:sysClr>
-              </a:solidFill>
-              <a:latin typeface="Calibri" panose="020F0502020204030204"/>
-            </a:rPr>
-            <a:t>Fault Detection Loss</a:t>
-          </a:r>
-        </a:p>
-      </cx:txPr>
-    </cx:title>
-    <cx:plotArea>
-      <cx:plotAreaRegion>
-        <cx:series layoutId="boxWhisker" uniqueId="{11B59819-AD8D-467F-A225-762B8DC25488}">
-          <cx:tx>
-            <cx:txData>
-              <cx:f>_xlchart.v1.26</cx:f>
-              <cx:v>Loss By K-means</cx:v>
-            </cx:txData>
-          </cx:tx>
-          <cx:dataId val="0"/>
-          <cx:layoutPr>
-            <cx:visibility meanLine="0" meanMarker="1" nonoutliers="0" outliers="1"/>
-            <cx:statistics quartileMethod="exclusive"/>
-          </cx:layoutPr>
-        </cx:series>
-        <cx:series layoutId="boxWhisker" uniqueId="{B71B95C5-B0AD-47F0-8DC2-F25CA9DFEC96}">
-          <cx:tx>
-            <cx:txData>
-              <cx:f>_xlchart.v1.28</cx:f>
-              <cx:v>Loss By K-means ++</cx:v>
-            </cx:txData>
-          </cx:tx>
-          <cx:dataId val="1"/>
-          <cx:layoutPr>
-            <cx:visibility meanLine="0" meanMarker="1" nonoutliers="0" outliers="1"/>
-            <cx:statistics quartileMethod="exclusive"/>
-          </cx:layoutPr>
-        </cx:series>
-      </cx:plotAreaRegion>
-      <cx:axis id="0">
-        <cx:catScaling gapWidth="1"/>
-        <cx:tickLabels/>
-      </cx:axis>
-      <cx:axis id="1">
-        <cx:valScaling/>
-        <cx:majorGridlines/>
-        <cx:tickLabels/>
-      </cx:axis>
-    </cx:plotArea>
-    <cx:legend pos="t" align="ctr" overlay="0"/>
-  </cx:chart>
-</cx:chartSpace>
-</file>
-
-<file path=xl/charts/chartEx8.xml><?xml version="1.0" encoding="utf-8"?>
-<cx:chartSpace xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex">
-  <cx:chartData>
-    <cx:data id="0">
-      <cx:strDim type="cat">
-        <cx:f>_xlchart.v1.10</cx:f>
-      </cx:strDim>
-      <cx:numDim type="val">
-        <cx:f>_xlchart.v1.12</cx:f>
-      </cx:numDim>
-    </cx:data>
-    <cx:data id="1">
-      <cx:strDim type="cat">
-        <cx:f>_xlchart.v1.10</cx:f>
-      </cx:strDim>
-      <cx:numDim type="val">
-        <cx:f>_xlchart.v1.14</cx:f>
-      </cx:numDim>
-    </cx:data>
-  </cx:chartData>
-  <cx:chart>
-    <cx:title pos="t" align="ctr" overlay="0">
-      <cx:tx>
-        <cx:txData>
-          <cx:v>Fault Detection Loss</cx:v>
-        </cx:txData>
-      </cx:tx>
-      <cx:txPr>
-        <a:bodyPr spcFirstLastPara="1" vertOverflow="ellipsis" horzOverflow="overflow" wrap="square" lIns="0" tIns="0" rIns="0" bIns="0" anchor="ctr" anchorCtr="1"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="ctr" rtl="0">
-            <a:defRPr/>
-          </a:pPr>
-          <a:r>
-            <a:rPr lang="en-US" sz="1400" b="0" i="0" u="none" strike="noStrike" baseline="0">
-              <a:solidFill>
-                <a:sysClr val="windowText" lastClr="000000">
-                  <a:lumMod val="65000"/>
-                  <a:lumOff val="35000"/>
-                </a:sysClr>
-              </a:solidFill>
-              <a:latin typeface="Calibri" panose="020F0502020204030204"/>
-            </a:rPr>
-            <a:t>Fault Detection Loss</a:t>
-          </a:r>
-        </a:p>
-      </cx:txPr>
-    </cx:title>
-    <cx:plotArea>
-      <cx:plotAreaRegion>
-        <cx:series layoutId="boxWhisker" uniqueId="{DF41C6EA-3EFE-4E9B-B0C8-41397A6759CA}">
-          <cx:tx>
-            <cx:txData>
-              <cx:f>_xlchart.v1.11</cx:f>
-              <cx:v>Loss By K-means</cx:v>
-            </cx:txData>
-          </cx:tx>
-          <cx:dataId val="0"/>
-          <cx:layoutPr>
-            <cx:visibility meanLine="0" meanMarker="1" nonoutliers="0" outliers="1"/>
-            <cx:statistics quartileMethod="exclusive"/>
-          </cx:layoutPr>
-        </cx:series>
-        <cx:series layoutId="boxWhisker" uniqueId="{3EC7602A-C35F-4DFA-B86A-059C4B7FE26E}">
-          <cx:tx>
-            <cx:txData>
-              <cx:f>_xlchart.v1.13</cx:f>
-              <cx:v>Loss By K-means ++</cx:v>
-            </cx:txData>
-          </cx:tx>
-          <cx:dataId val="1"/>
-          <cx:layoutPr>
-            <cx:visibility meanLine="0" meanMarker="1" nonoutliers="0" outliers="1"/>
-            <cx:statistics quartileMethod="exclusive"/>
-          </cx:layoutPr>
-        </cx:series>
-      </cx:plotAreaRegion>
-      <cx:axis id="0">
-        <cx:catScaling gapWidth="1"/>
-        <cx:tickLabels/>
-      </cx:axis>
-      <cx:axis id="1">
-        <cx:valScaling/>
-        <cx:majorGridlines/>
-        <cx:tickLabels/>
-      </cx:axis>
-    </cx:plotArea>
-    <cx:legend pos="t" align="ctr" overlay="0"/>
-  </cx:chart>
-</cx:chartSpace>
-</file>
-
-<file path=xl/charts/chartEx9.xml><?xml version="1.0" encoding="utf-8"?>
-<cx:chartSpace xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex">
-  <cx:chartData>
-    <cx:data id="0">
-      <cx:strDim type="cat">
-        <cx:f>_xlchart.v1.35</cx:f>
-      </cx:strDim>
-      <cx:numDim type="val">
-        <cx:f>_xlchart.v1.37</cx:f>
-      </cx:numDim>
-    </cx:data>
-    <cx:data id="1">
-      <cx:strDim type="cat">
-        <cx:f>_xlchart.v1.35</cx:f>
-      </cx:strDim>
-      <cx:numDim type="val">
-        <cx:f>_xlchart.v1.39</cx:f>
-      </cx:numDim>
-    </cx:data>
-  </cx:chartData>
-  <cx:chart>
-    <cx:title pos="t" align="ctr" overlay="0">
-      <cx:tx>
-        <cx:txData>
-          <cx:v>Fault Detection Loss</cx:v>
-        </cx:txData>
-      </cx:tx>
-      <cx:txPr>
-        <a:bodyPr spcFirstLastPara="1" vertOverflow="ellipsis" horzOverflow="overflow" wrap="square" lIns="0" tIns="0" rIns="0" bIns="0" anchor="ctr" anchorCtr="1"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="ctr" rtl="0">
-            <a:defRPr/>
-          </a:pPr>
-          <a:r>
-            <a:rPr lang="en-US" sz="1400" b="0" i="0" u="none" strike="noStrike" baseline="0">
-              <a:solidFill>
-                <a:sysClr val="windowText" lastClr="000000">
-                  <a:lumMod val="65000"/>
-                  <a:lumOff val="35000"/>
-                </a:sysClr>
-              </a:solidFill>
-              <a:latin typeface="Calibri" panose="020F0502020204030204"/>
-            </a:rPr>
-            <a:t>Fault Detection Loss</a:t>
-          </a:r>
-        </a:p>
-      </cx:txPr>
-    </cx:title>
-    <cx:plotArea>
-      <cx:plotAreaRegion>
-        <cx:series layoutId="boxWhisker" uniqueId="{42923672-4E71-475D-B468-2ED82FF9BAF5}">
-          <cx:tx>
-            <cx:txData>
-              <cx:f>_xlchart.v1.36</cx:f>
-              <cx:v>Loss By K-means</cx:v>
-            </cx:txData>
-          </cx:tx>
-          <cx:dataId val="0"/>
-          <cx:layoutPr>
-            <cx:visibility meanLine="0" meanMarker="1" nonoutliers="0" outliers="1"/>
-            <cx:statistics quartileMethod="exclusive"/>
-          </cx:layoutPr>
-        </cx:series>
-        <cx:series layoutId="boxWhisker" uniqueId="{B630CA84-9C41-4191-B0FD-8C5FDF0E34FA}">
-          <cx:tx>
-            <cx:txData>
-              <cx:f>_xlchart.v1.38</cx:f>
+              <cx:f>_xlchart.v1.53</cx:f>
               <cx:v>Loss By K-means ++</cx:v>
             </cx:txData>
           </cx:tx>
@@ -13253,24 +13315,24 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>2</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
+      <xdr:colOff>15240</xdr:colOff>
       <xdr:row>101</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>9</xdr:col>
-      <xdr:colOff>594360</xdr:colOff>
+      <xdr:colOff>606552</xdr:colOff>
       <xdr:row>111</xdr:row>
-      <xdr:rowOff>158496</xdr:rowOff>
+      <xdr:rowOff>155448</xdr:rowOff>
     </xdr:to>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" Requires="cx1">
         <xdr:graphicFrame macro="">
           <xdr:nvGraphicFramePr>
-            <xdr:cNvPr id="2" name="Chart 1">
+            <xdr:cNvPr id="12" name="Chart 11">
               <a:extLst>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{22AFD10D-D9EB-436E-8313-B6D150B65FA1}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FCFF9640-AF78-45E9-8187-D8AC723B1A68}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -13297,8 +13359,8 @@
           </xdr:nvSpPr>
           <xdr:spPr>
             <a:xfrm>
-              <a:off x="1219200" y="17960340"/>
-              <a:ext cx="4693920" cy="1987296"/>
+              <a:off x="1234440" y="17960340"/>
+              <a:ext cx="4690872" cy="1984248"/>
             </a:xfrm>
             <a:prstGeom prst="rect">
               <a:avLst/>
@@ -13331,24 +13393,24 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>2</xdr:col>
-      <xdr:colOff>7619</xdr:colOff>
-      <xdr:row>90</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
+      <xdr:colOff>15240</xdr:colOff>
+      <xdr:row>89</xdr:row>
+      <xdr:rowOff>137160</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>9</xdr:col>
-      <xdr:colOff>589764</xdr:colOff>
+      <xdr:colOff>606552</xdr:colOff>
       <xdr:row>100</xdr:row>
-      <xdr:rowOff>152400</xdr:rowOff>
+      <xdr:rowOff>147828</xdr:rowOff>
     </xdr:to>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" Requires="cx1">
         <xdr:graphicFrame macro="">
           <xdr:nvGraphicFramePr>
-            <xdr:cNvPr id="3" name="Chart 2">
+            <xdr:cNvPr id="13" name="Chart 12">
               <a:extLst>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{BCACAED8-2805-49C8-A9DE-C90795E61732}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1674457E-5D97-4577-A383-1BE663E8E5C2}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -13375,8 +13437,8 @@
           </xdr:nvSpPr>
           <xdr:spPr>
             <a:xfrm>
-              <a:off x="1226819" y="15963900"/>
-              <a:ext cx="4681705" cy="1981200"/>
+              <a:off x="1234440" y="15956280"/>
+              <a:ext cx="4690872" cy="1984248"/>
             </a:xfrm>
             <a:prstGeom prst="rect">
               <a:avLst/>
@@ -13409,24 +13471,24 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>2</xdr:col>
-      <xdr:colOff>15239</xdr:colOff>
-      <xdr:row>79</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>78</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>9</xdr:col>
-      <xdr:colOff>588660</xdr:colOff>
+      <xdr:colOff>591312</xdr:colOff>
       <xdr:row>89</xdr:row>
-      <xdr:rowOff>143256</xdr:rowOff>
+      <xdr:rowOff>132588</xdr:rowOff>
     </xdr:to>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" Requires="cx1">
         <xdr:graphicFrame macro="">
           <xdr:nvGraphicFramePr>
-            <xdr:cNvPr id="4" name="Chart 3">
+            <xdr:cNvPr id="14" name="Chart 13">
               <a:extLst>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{667CFB5A-2ED6-48E1-9E7D-54DA903651BB}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A3A6C155-307B-46BF-9E7A-F540EF219C66}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -13453,8 +13515,8 @@
           </xdr:nvSpPr>
           <xdr:spPr>
             <a:xfrm>
-              <a:off x="1234439" y="13990320"/>
-              <a:ext cx="4672981" cy="1972056"/>
+              <a:off x="1219200" y="13967460"/>
+              <a:ext cx="4690872" cy="1984248"/>
             </a:xfrm>
             <a:prstGeom prst="rect">
               <a:avLst/>
@@ -13487,24 +13549,24 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>2</xdr:col>
-      <xdr:colOff>7619</xdr:colOff>
-      <xdr:row>68</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
+      <xdr:colOff>15240</xdr:colOff>
+      <xdr:row>67</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>9</xdr:col>
-      <xdr:colOff>589764</xdr:colOff>
-      <xdr:row>78</xdr:row>
-      <xdr:rowOff>135636</xdr:rowOff>
+      <xdr:colOff>606552</xdr:colOff>
+      <xdr:row>79</xdr:row>
+      <xdr:rowOff>10668</xdr:rowOff>
     </xdr:to>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" Requires="cx1">
         <xdr:graphicFrame macro="">
           <xdr:nvGraphicFramePr>
-            <xdr:cNvPr id="5" name="Chart 4">
+            <xdr:cNvPr id="15" name="Chart 14">
               <a:extLst>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{97726BCA-C6B6-433B-8A24-1F72A983503A}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E3011783-1BE7-48E2-9554-0A3A16300526}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -13531,398 +13593,8 @@
           </xdr:nvSpPr>
           <xdr:spPr>
             <a:xfrm>
-              <a:off x="1226819" y="12024360"/>
-              <a:ext cx="4681705" cy="1964436"/>
-            </a:xfrm>
-            <a:prstGeom prst="rect">
-              <a:avLst/>
-            </a:prstGeom>
-            <a:solidFill>
-              <a:prstClr val="white"/>
-            </a:solidFill>
-            <a:ln w="1">
-              <a:solidFill>
-                <a:prstClr val="green"/>
-              </a:solidFill>
-            </a:ln>
-          </xdr:spPr>
-          <xdr:txBody>
-            <a:bodyPr vertOverflow="clip" horzOverflow="clip"/>
-            <a:lstStyle/>
-            <a:p>
-              <a:r>
-                <a:rPr lang="en-US" sz="1100"/>
-                <a:t>This chart isn't available in your version of Excel.
-Editing this shape or saving this workbook into a different file format will permanently break the chart.</a:t>
-              </a:r>
-            </a:p>
-          </xdr:txBody>
-        </xdr:sp>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>2</xdr:col>
-      <xdr:colOff>15239</xdr:colOff>
-      <xdr:row>57</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>588660</xdr:colOff>
-      <xdr:row>67</xdr:row>
-      <xdr:rowOff>120396</xdr:rowOff>
-    </xdr:to>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" Requires="cx1">
-        <xdr:graphicFrame macro="">
-          <xdr:nvGraphicFramePr>
-            <xdr:cNvPr id="6" name="Chart 5">
-              <a:extLst>
-                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6D403847-3CFF-4DF8-98A6-2EC880E52366}"/>
-                </a:ext>
-              </a:extLst>
-            </xdr:cNvPr>
-            <xdr:cNvGraphicFramePr/>
-          </xdr:nvGraphicFramePr>
-          <xdr:xfrm>
-            <a:off x="0" y="0"/>
-            <a:ext cx="0" cy="0"/>
-          </xdr:xfrm>
-          <a:graphic>
-            <a:graphicData uri="http://schemas.microsoft.com/office/drawing/2014/chartex">
-              <cx:chart xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId5"/>
-            </a:graphicData>
-          </a:graphic>
-        </xdr:graphicFrame>
-      </mc:Choice>
-      <mc:Fallback>
-        <xdr:sp macro="" textlink="">
-          <xdr:nvSpPr>
-            <xdr:cNvPr id="0" name=""/>
-            <xdr:cNvSpPr>
-              <a:spLocks noTextEdit="1"/>
-            </xdr:cNvSpPr>
-          </xdr:nvSpPr>
-          <xdr:spPr>
-            <a:xfrm>
-              <a:off x="1234439" y="10073640"/>
-              <a:ext cx="4672981" cy="1949196"/>
-            </a:xfrm>
-            <a:prstGeom prst="rect">
-              <a:avLst/>
-            </a:prstGeom>
-            <a:solidFill>
-              <a:prstClr val="white"/>
-            </a:solidFill>
-            <a:ln w="1">
-              <a:solidFill>
-                <a:prstClr val="green"/>
-              </a:solidFill>
-            </a:ln>
-          </xdr:spPr>
-          <xdr:txBody>
-            <a:bodyPr vertOverflow="clip" horzOverflow="clip"/>
-            <a:lstStyle/>
-            <a:p>
-              <a:r>
-                <a:rPr lang="en-US" sz="1100"/>
-                <a:t>This chart isn't available in your version of Excel.
-Editing this shape or saving this workbook into a different file format will permanently break the chart.</a:t>
-              </a:r>
-            </a:p>
-          </xdr:txBody>
-        </xdr:sp>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>2</xdr:col>
-      <xdr:colOff>22860</xdr:colOff>
-      <xdr:row>46</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>587556</xdr:colOff>
-      <xdr:row>56</xdr:row>
-      <xdr:rowOff>120396</xdr:rowOff>
-    </xdr:to>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" Requires="cx1">
-        <xdr:graphicFrame macro="">
-          <xdr:nvGraphicFramePr>
-            <xdr:cNvPr id="7" name="Chart 6">
-              <a:extLst>
-                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2F93031C-33BB-48F3-91B1-52118CFCB0FA}"/>
-                </a:ext>
-              </a:extLst>
-            </xdr:cNvPr>
-            <xdr:cNvGraphicFramePr/>
-          </xdr:nvGraphicFramePr>
-          <xdr:xfrm>
-            <a:off x="0" y="0"/>
-            <a:ext cx="0" cy="0"/>
-          </xdr:xfrm>
-          <a:graphic>
-            <a:graphicData uri="http://schemas.microsoft.com/office/drawing/2014/chartex">
-              <cx:chart xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId6"/>
-            </a:graphicData>
-          </a:graphic>
-        </xdr:graphicFrame>
-      </mc:Choice>
-      <mc:Fallback>
-        <xdr:sp macro="" textlink="">
-          <xdr:nvSpPr>
-            <xdr:cNvPr id="0" name=""/>
-            <xdr:cNvSpPr>
-              <a:spLocks noTextEdit="1"/>
-            </xdr:cNvSpPr>
-          </xdr:nvSpPr>
-          <xdr:spPr>
-            <a:xfrm>
-              <a:off x="1242060" y="8122920"/>
-              <a:ext cx="4664256" cy="1949196"/>
-            </a:xfrm>
-            <a:prstGeom prst="rect">
-              <a:avLst/>
-            </a:prstGeom>
-            <a:solidFill>
-              <a:prstClr val="white"/>
-            </a:solidFill>
-            <a:ln w="1">
-              <a:solidFill>
-                <a:prstClr val="green"/>
-              </a:solidFill>
-            </a:ln>
-          </xdr:spPr>
-          <xdr:txBody>
-            <a:bodyPr vertOverflow="clip" horzOverflow="clip"/>
-            <a:lstStyle/>
-            <a:p>
-              <a:r>
-                <a:rPr lang="en-US" sz="1100"/>
-                <a:t>This chart isn't available in your version of Excel.
-Editing this shape or saving this workbook into a different file format will permanently break the chart.</a:t>
-              </a:r>
-            </a:p>
-          </xdr:txBody>
-        </xdr:sp>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>2</xdr:col>
-      <xdr:colOff>15239</xdr:colOff>
-      <xdr:row>35</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>588660</xdr:colOff>
-      <xdr:row>45</xdr:row>
-      <xdr:rowOff>112776</xdr:rowOff>
-    </xdr:to>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" Requires="cx1">
-        <xdr:graphicFrame macro="">
-          <xdr:nvGraphicFramePr>
-            <xdr:cNvPr id="8" name="Chart 7">
-              <a:extLst>
-                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FFE570AC-A807-487F-A9C6-397FD10E1588}"/>
-                </a:ext>
-              </a:extLst>
-            </xdr:cNvPr>
-            <xdr:cNvGraphicFramePr/>
-          </xdr:nvGraphicFramePr>
-          <xdr:xfrm>
-            <a:off x="0" y="0"/>
-            <a:ext cx="0" cy="0"/>
-          </xdr:xfrm>
-          <a:graphic>
-            <a:graphicData uri="http://schemas.microsoft.com/office/drawing/2014/chartex">
-              <cx:chart xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId7"/>
-            </a:graphicData>
-          </a:graphic>
-        </xdr:graphicFrame>
-      </mc:Choice>
-      <mc:Fallback>
-        <xdr:sp macro="" textlink="">
-          <xdr:nvSpPr>
-            <xdr:cNvPr id="0" name=""/>
-            <xdr:cNvSpPr>
-              <a:spLocks noTextEdit="1"/>
-            </xdr:cNvSpPr>
-          </xdr:nvSpPr>
-          <xdr:spPr>
-            <a:xfrm>
-              <a:off x="1234439" y="6179820"/>
-              <a:ext cx="4672981" cy="1941576"/>
-            </a:xfrm>
-            <a:prstGeom prst="rect">
-              <a:avLst/>
-            </a:prstGeom>
-            <a:solidFill>
-              <a:prstClr val="white"/>
-            </a:solidFill>
-            <a:ln w="1">
-              <a:solidFill>
-                <a:prstClr val="green"/>
-              </a:solidFill>
-            </a:ln>
-          </xdr:spPr>
-          <xdr:txBody>
-            <a:bodyPr vertOverflow="clip" horzOverflow="clip"/>
-            <a:lstStyle/>
-            <a:p>
-              <a:r>
-                <a:rPr lang="en-US" sz="1100"/>
-                <a:t>This chart isn't available in your version of Excel.
-Editing this shape or saving this workbook into a different file format will permanently break the chart.</a:t>
-              </a:r>
-            </a:p>
-          </xdr:txBody>
-        </xdr:sp>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>2</xdr:col>
-      <xdr:colOff>7619</xdr:colOff>
-      <xdr:row>24</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>589764</xdr:colOff>
-      <xdr:row>34</xdr:row>
-      <xdr:rowOff>105156</xdr:rowOff>
-    </xdr:to>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" Requires="cx1">
-        <xdr:graphicFrame macro="">
-          <xdr:nvGraphicFramePr>
-            <xdr:cNvPr id="9" name="Chart 8">
-              <a:extLst>
-                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7320CA55-F3CB-47F4-816E-78D60DF66E9C}"/>
-                </a:ext>
-              </a:extLst>
-            </xdr:cNvPr>
-            <xdr:cNvGraphicFramePr/>
-          </xdr:nvGraphicFramePr>
-          <xdr:xfrm>
-            <a:off x="0" y="0"/>
-            <a:ext cx="0" cy="0"/>
-          </xdr:xfrm>
-          <a:graphic>
-            <a:graphicData uri="http://schemas.microsoft.com/office/drawing/2014/chartex">
-              <cx:chart xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId8"/>
-            </a:graphicData>
-          </a:graphic>
-        </xdr:graphicFrame>
-      </mc:Choice>
-      <mc:Fallback>
-        <xdr:sp macro="" textlink="">
-          <xdr:nvSpPr>
-            <xdr:cNvPr id="0" name=""/>
-            <xdr:cNvSpPr>
-              <a:spLocks noTextEdit="1"/>
-            </xdr:cNvSpPr>
-          </xdr:nvSpPr>
-          <xdr:spPr>
-            <a:xfrm>
-              <a:off x="1226819" y="4244340"/>
-              <a:ext cx="4681705" cy="1933956"/>
-            </a:xfrm>
-            <a:prstGeom prst="rect">
-              <a:avLst/>
-            </a:prstGeom>
-            <a:solidFill>
-              <a:prstClr val="white"/>
-            </a:solidFill>
-            <a:ln w="1">
-              <a:solidFill>
-                <a:prstClr val="green"/>
-              </a:solidFill>
-            </a:ln>
-          </xdr:spPr>
-          <xdr:txBody>
-            <a:bodyPr vertOverflow="clip" horzOverflow="clip"/>
-            <a:lstStyle/>
-            <a:p>
-              <a:r>
-                <a:rPr lang="en-US" sz="1100"/>
-                <a:t>This chart isn't available in your version of Excel.
-Editing this shape or saving this workbook into a different file format will permanently break the chart.</a:t>
-              </a:r>
-            </a:p>
-          </xdr:txBody>
-        </xdr:sp>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>2</xdr:col>
-      <xdr:colOff>7619</xdr:colOff>
-      <xdr:row>13</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>589764</xdr:colOff>
-      <xdr:row>23</xdr:row>
-      <xdr:rowOff>105156</xdr:rowOff>
-    </xdr:to>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" Requires="cx1">
-        <xdr:graphicFrame macro="">
-          <xdr:nvGraphicFramePr>
-            <xdr:cNvPr id="10" name="Chart 9">
-              <a:extLst>
-                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{316CA33B-AA8B-4551-836C-1CFCC48726B7}"/>
-                </a:ext>
-              </a:extLst>
-            </xdr:cNvPr>
-            <xdr:cNvGraphicFramePr/>
-          </xdr:nvGraphicFramePr>
-          <xdr:xfrm>
-            <a:off x="0" y="0"/>
-            <a:ext cx="0" cy="0"/>
-          </xdr:xfrm>
-          <a:graphic>
-            <a:graphicData uri="http://schemas.microsoft.com/office/drawing/2014/chartex">
-              <cx:chart xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId9"/>
-            </a:graphicData>
-          </a:graphic>
-        </xdr:graphicFrame>
-      </mc:Choice>
-      <mc:Fallback>
-        <xdr:sp macro="" textlink="">
-          <xdr:nvSpPr>
-            <xdr:cNvPr id="0" name=""/>
-            <xdr:cNvSpPr>
-              <a:spLocks noTextEdit="1"/>
-            </xdr:cNvSpPr>
-          </xdr:nvSpPr>
-          <xdr:spPr>
-            <a:xfrm>
-              <a:off x="1226819" y="2194560"/>
-              <a:ext cx="4681705" cy="2040636"/>
+              <a:off x="1234440" y="12016740"/>
+              <a:ext cx="4690872" cy="1984248"/>
             </a:xfrm>
             <a:prstGeom prst="rect">
               <a:avLst/>
@@ -13956,23 +13628,413 @@
     <xdr:from>
       <xdr:col>2</xdr:col>
       <xdr:colOff>7620</xdr:colOff>
-      <xdr:row>2</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
+      <xdr:row>57</xdr:row>
+      <xdr:rowOff>7620</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>9</xdr:col>
-      <xdr:colOff>601980</xdr:colOff>
-      <xdr:row>12</xdr:row>
-      <xdr:rowOff>89916</xdr:rowOff>
+      <xdr:colOff>598932</xdr:colOff>
+      <xdr:row>68</xdr:row>
+      <xdr:rowOff>41148</xdr:rowOff>
     </xdr:to>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" Requires="cx1">
         <xdr:graphicFrame macro="">
           <xdr:nvGraphicFramePr>
-            <xdr:cNvPr id="11" name="Chart 10">
+            <xdr:cNvPr id="16" name="Chart 15">
               <a:extLst>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{07B550D4-755B-4EE4-9595-810FECE0F402}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{724A5072-D9F1-4446-B59A-67FF32DD9220}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvGraphicFramePr/>
+          </xdr:nvGraphicFramePr>
+          <xdr:xfrm>
+            <a:off x="0" y="0"/>
+            <a:ext cx="0" cy="0"/>
+          </xdr:xfrm>
+          <a:graphic>
+            <a:graphicData uri="http://schemas.microsoft.com/office/drawing/2014/chartex">
+              <cx:chart xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId5"/>
+            </a:graphicData>
+          </a:graphic>
+        </xdr:graphicFrame>
+      </mc:Choice>
+      <mc:Fallback>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="0" name=""/>
+            <xdr:cNvSpPr>
+              <a:spLocks noTextEdit="1"/>
+            </xdr:cNvSpPr>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="1226820" y="10081260"/>
+              <a:ext cx="4690872" cy="1984248"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:solidFill>
+              <a:prstClr val="white"/>
+            </a:solidFill>
+            <a:ln w="1">
+              <a:solidFill>
+                <a:prstClr val="green"/>
+              </a:solidFill>
+            </a:ln>
+          </xdr:spPr>
+          <xdr:txBody>
+            <a:bodyPr vertOverflow="clip" horzOverflow="clip"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:r>
+                <a:rPr lang="en-US" sz="1100"/>
+                <a:t>This chart isn't available in your version of Excel.
+Editing this shape or saving this workbook into a different file format will permanently break the chart.</a:t>
+              </a:r>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>7620</xdr:colOff>
+      <xdr:row>45</xdr:row>
+      <xdr:rowOff>91440</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>598932</xdr:colOff>
+      <xdr:row>57</xdr:row>
+      <xdr:rowOff>10668</xdr:rowOff>
+    </xdr:to>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" Requires="cx1">
+        <xdr:graphicFrame macro="">
+          <xdr:nvGraphicFramePr>
+            <xdr:cNvPr id="17" name="Chart 16">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9F1D66FA-7246-4F2A-B214-C59CDBC9059D}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvGraphicFramePr/>
+          </xdr:nvGraphicFramePr>
+          <xdr:xfrm>
+            <a:off x="0" y="0"/>
+            <a:ext cx="0" cy="0"/>
+          </xdr:xfrm>
+          <a:graphic>
+            <a:graphicData uri="http://schemas.microsoft.com/office/drawing/2014/chartex">
+              <cx:chart xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId6"/>
+            </a:graphicData>
+          </a:graphic>
+        </xdr:graphicFrame>
+      </mc:Choice>
+      <mc:Fallback>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="0" name=""/>
+            <xdr:cNvSpPr>
+              <a:spLocks noTextEdit="1"/>
+            </xdr:cNvSpPr>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="1226820" y="8100060"/>
+              <a:ext cx="4690872" cy="1984248"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:solidFill>
+              <a:prstClr val="white"/>
+            </a:solidFill>
+            <a:ln w="1">
+              <a:solidFill>
+                <a:prstClr val="green"/>
+              </a:solidFill>
+            </a:ln>
+          </xdr:spPr>
+          <xdr:txBody>
+            <a:bodyPr vertOverflow="clip" horzOverflow="clip"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:r>
+                <a:rPr lang="en-US" sz="1100"/>
+                <a:t>This chart isn't available in your version of Excel.
+Editing this shape or saving this workbook into a different file format will permanently break the chart.</a:t>
+              </a:r>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>34</xdr:row>
+      <xdr:rowOff>53340</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>591312</xdr:colOff>
+      <xdr:row>46</xdr:row>
+      <xdr:rowOff>18288</xdr:rowOff>
+    </xdr:to>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" Requires="cx1">
+        <xdr:graphicFrame macro="">
+          <xdr:nvGraphicFramePr>
+            <xdr:cNvPr id="18" name="Chart 17">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B893FC5F-7084-4619-9C3B-3C9F3FBC0451}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvGraphicFramePr/>
+          </xdr:nvGraphicFramePr>
+          <xdr:xfrm>
+            <a:off x="0" y="0"/>
+            <a:ext cx="0" cy="0"/>
+          </xdr:xfrm>
+          <a:graphic>
+            <a:graphicData uri="http://schemas.microsoft.com/office/drawing/2014/chartex">
+              <cx:chart xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId7"/>
+            </a:graphicData>
+          </a:graphic>
+        </xdr:graphicFrame>
+      </mc:Choice>
+      <mc:Fallback>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="0" name=""/>
+            <xdr:cNvSpPr>
+              <a:spLocks noTextEdit="1"/>
+            </xdr:cNvSpPr>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="1219200" y="6126480"/>
+              <a:ext cx="4690872" cy="2014728"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:solidFill>
+              <a:prstClr val="white"/>
+            </a:solidFill>
+            <a:ln w="1">
+              <a:solidFill>
+                <a:prstClr val="green"/>
+              </a:solidFill>
+            </a:ln>
+          </xdr:spPr>
+          <xdr:txBody>
+            <a:bodyPr vertOverflow="clip" horzOverflow="clip"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:r>
+                <a:rPr lang="en-US" sz="1100"/>
+                <a:t>This chart isn't available in your version of Excel.
+Editing this shape or saving this workbook into a different file format will permanently break the chart.</a:t>
+              </a:r>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>7620</xdr:colOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>598932</xdr:colOff>
+      <xdr:row>35</xdr:row>
+      <xdr:rowOff>10668</xdr:rowOff>
+    </xdr:to>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" Requires="cx1">
+        <xdr:graphicFrame macro="">
+          <xdr:nvGraphicFramePr>
+            <xdr:cNvPr id="19" name="Chart 18">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A34C469B-4855-43C8-8E1D-CD5B0B2F2940}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvGraphicFramePr/>
+          </xdr:nvGraphicFramePr>
+          <xdr:xfrm>
+            <a:off x="0" y="0"/>
+            <a:ext cx="0" cy="0"/>
+          </xdr:xfrm>
+          <a:graphic>
+            <a:graphicData uri="http://schemas.microsoft.com/office/drawing/2014/chartex">
+              <cx:chart xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId8"/>
+            </a:graphicData>
+          </a:graphic>
+        </xdr:graphicFrame>
+      </mc:Choice>
+      <mc:Fallback>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="0" name=""/>
+            <xdr:cNvSpPr>
+              <a:spLocks noTextEdit="1"/>
+            </xdr:cNvSpPr>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="1226820" y="4206240"/>
+              <a:ext cx="4690872" cy="1984248"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:solidFill>
+              <a:prstClr val="white"/>
+            </a:solidFill>
+            <a:ln w="1">
+              <a:solidFill>
+                <a:prstClr val="green"/>
+              </a:solidFill>
+            </a:ln>
+          </xdr:spPr>
+          <xdr:txBody>
+            <a:bodyPr vertOverflow="clip" horzOverflow="clip"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:r>
+                <a:rPr lang="en-US" sz="1100"/>
+                <a:t>This chart isn't available in your version of Excel.
+Editing this shape or saving this workbook into a different file format will permanently break the chart.</a:t>
+              </a:r>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>7620</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>598932</xdr:colOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>48768</xdr:rowOff>
+    </xdr:to>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" Requires="cx1">
+        <xdr:graphicFrame macro="">
+          <xdr:nvGraphicFramePr>
+            <xdr:cNvPr id="20" name="Chart 19">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0F4BEEAA-E30B-4483-AE9C-0D73C0EDDD79}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvGraphicFramePr/>
+          </xdr:nvGraphicFramePr>
+          <xdr:xfrm>
+            <a:off x="0" y="0"/>
+            <a:ext cx="0" cy="0"/>
+          </xdr:xfrm>
+          <a:graphic>
+            <a:graphicData uri="http://schemas.microsoft.com/office/drawing/2014/chartex">
+              <cx:chart xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId9"/>
+            </a:graphicData>
+          </a:graphic>
+        </xdr:graphicFrame>
+      </mc:Choice>
+      <mc:Fallback>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="0" name=""/>
+            <xdr:cNvSpPr>
+              <a:spLocks noTextEdit="1"/>
+            </xdr:cNvSpPr>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="1226820" y="2194560"/>
+              <a:ext cx="4690872" cy="1984248"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:solidFill>
+              <a:prstClr val="white"/>
+            </a:solidFill>
+            <a:ln w="1">
+              <a:solidFill>
+                <a:prstClr val="green"/>
+              </a:solidFill>
+            </a:ln>
+          </xdr:spPr>
+          <xdr:txBody>
+            <a:bodyPr vertOverflow="clip" horzOverflow="clip"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:r>
+                <a:rPr lang="en-US" sz="1100"/>
+                <a:t>This chart isn't available in your version of Excel.
+Editing this shape or saving this workbook into a different file format will permanently break the chart.</a:t>
+              </a:r>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>7620</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>83820</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>598932</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>56388</xdr:rowOff>
+    </xdr:to>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" Requires="cx1">
+        <xdr:graphicFrame macro="">
+          <xdr:nvGraphicFramePr>
+            <xdr:cNvPr id="21" name="Chart 20">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8D568936-2553-40A2-9A51-AA1210B9444B}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -13999,8 +14061,8 @@
           </xdr:nvSpPr>
           <xdr:spPr>
             <a:xfrm>
-              <a:off x="1226820" y="289560"/>
-              <a:ext cx="4693920" cy="1903476"/>
+              <a:off x="1226820" y="266700"/>
+              <a:ext cx="4690872" cy="1984248"/>
             </a:xfrm>
             <a:prstGeom prst="rect">
               <a:avLst/>
@@ -14039,13 +14101,13 @@
     <xdr:from>
       <xdr:col>5</xdr:col>
       <xdr:colOff>15240</xdr:colOff>
-      <xdr:row>5</xdr:row>
+      <xdr:row>2</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>12</xdr:col>
       <xdr:colOff>320040</xdr:colOff>
-      <xdr:row>20</xdr:row>
+      <xdr:row>14</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
@@ -14082,8 +14144,8 @@
           </xdr:nvSpPr>
           <xdr:spPr>
             <a:xfrm>
-              <a:off x="4914900" y="914400"/>
-              <a:ext cx="4572000" cy="2743200"/>
+              <a:off x="4914900" y="365760"/>
+              <a:ext cx="4572000" cy="2194560"/>
             </a:xfrm>
             <a:prstGeom prst="rect">
               <a:avLst/>
@@ -14122,14 +14184,14 @@
     <xdr:from>
       <xdr:col>4</xdr:col>
       <xdr:colOff>15240</xdr:colOff>
-      <xdr:row>13</xdr:row>
-      <xdr:rowOff>15240</xdr:rowOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>11</xdr:col>
       <xdr:colOff>320040</xdr:colOff>
-      <xdr:row>28</xdr:row>
-      <xdr:rowOff>15240</xdr:rowOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" Requires="cx1">
@@ -14165,8 +14227,8 @@
           </xdr:nvSpPr>
           <xdr:spPr>
             <a:xfrm>
-              <a:off x="4732020" y="2392680"/>
-              <a:ext cx="4572000" cy="2743200"/>
+              <a:off x="4732020" y="1645920"/>
+              <a:ext cx="4572000" cy="1463040"/>
             </a:xfrm>
             <a:prstGeom prst="rect">
               <a:avLst/>
@@ -14288,14 +14350,14 @@
     <xdr:from>
       <xdr:col>4</xdr:col>
       <xdr:colOff>601980</xdr:colOff>
-      <xdr:row>5</xdr:row>
+      <xdr:row>3</xdr:row>
       <xdr:rowOff>106680</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>12</xdr:col>
       <xdr:colOff>297180</xdr:colOff>
-      <xdr:row>20</xdr:row>
-      <xdr:rowOff>106680</xdr:rowOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" Requires="cx1">
@@ -14331,8 +14393,8 @@
           </xdr:nvSpPr>
           <xdr:spPr>
             <a:xfrm>
-              <a:off x="5928360" y="1021080"/>
-              <a:ext cx="4572000" cy="2743200"/>
+              <a:off x="5928360" y="655320"/>
+              <a:ext cx="4572000" cy="2453640"/>
             </a:xfrm>
             <a:prstGeom prst="rect">
               <a:avLst/>
@@ -14371,13 +14433,13 @@
     <xdr:from>
       <xdr:col>4</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>8</xdr:row>
-      <xdr:rowOff>167640</xdr:rowOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>11</xdr:col>
       <xdr:colOff>304800</xdr:colOff>
-      <xdr:row>23</xdr:row>
+      <xdr:row>13</xdr:row>
       <xdr:rowOff>167640</xdr:rowOff>
     </xdr:to>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
@@ -14414,8 +14476,8 @@
           </xdr:nvSpPr>
           <xdr:spPr>
             <a:xfrm>
-              <a:off x="4732020" y="1630680"/>
-              <a:ext cx="4572000" cy="2743200"/>
+              <a:off x="4732020" y="914400"/>
+              <a:ext cx="4572000" cy="1630680"/>
             </a:xfrm>
             <a:prstGeom prst="rect">
               <a:avLst/>
@@ -14454,13 +14516,13 @@
     <xdr:from>
       <xdr:col>4</xdr:col>
       <xdr:colOff>22860</xdr:colOff>
-      <xdr:row>5</xdr:row>
+      <xdr:row>3</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>11</xdr:col>
       <xdr:colOff>327660</xdr:colOff>
-      <xdr:row>20</xdr:row>
+      <xdr:row>13</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
@@ -14497,8 +14559,8 @@
           </xdr:nvSpPr>
           <xdr:spPr>
             <a:xfrm>
-              <a:off x="4533900" y="914400"/>
-              <a:ext cx="4572000" cy="2743200"/>
+              <a:off x="4533900" y="548640"/>
+              <a:ext cx="4572000" cy="1828800"/>
             </a:xfrm>
             <a:prstGeom prst="rect">
               <a:avLst/>
@@ -14537,14 +14599,14 @@
     <xdr:from>
       <xdr:col>4</xdr:col>
       <xdr:colOff>7620</xdr:colOff>
-      <xdr:row>8</xdr:row>
+      <xdr:row>5</xdr:row>
       <xdr:rowOff>167640</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>11</xdr:col>
       <xdr:colOff>312420</xdr:colOff>
-      <xdr:row>23</xdr:row>
-      <xdr:rowOff>167640</xdr:rowOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>91440</xdr:rowOff>
     </xdr:to>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" Requires="cx1">
@@ -14580,8 +14642,8 @@
           </xdr:nvSpPr>
           <xdr:spPr>
             <a:xfrm>
-              <a:off x="4869180" y="1630680"/>
-              <a:ext cx="4572000" cy="2743200"/>
+              <a:off x="4869180" y="1082040"/>
+              <a:ext cx="4572000" cy="1935480"/>
             </a:xfrm>
             <a:prstGeom prst="rect">
               <a:avLst/>
@@ -14620,13 +14682,13 @@
     <xdr:from>
       <xdr:col>4</xdr:col>
       <xdr:colOff>22860</xdr:colOff>
-      <xdr:row>8</xdr:row>
+      <xdr:row>5</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>11</xdr:col>
       <xdr:colOff>327660</xdr:colOff>
-      <xdr:row>23</xdr:row>
+      <xdr:row>16</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
@@ -14663,8 +14725,8 @@
           </xdr:nvSpPr>
           <xdr:spPr>
             <a:xfrm>
-              <a:off x="4457700" y="1463040"/>
-              <a:ext cx="4572000" cy="2743200"/>
+              <a:off x="4457700" y="914400"/>
+              <a:ext cx="4572000" cy="2011680"/>
             </a:xfrm>
             <a:prstGeom prst="rect">
               <a:avLst/>
@@ -14703,13 +14765,13 @@
     <xdr:from>
       <xdr:col>3</xdr:col>
       <xdr:colOff>601980</xdr:colOff>
-      <xdr:row>4</xdr:row>
-      <xdr:rowOff>22860</xdr:rowOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>11</xdr:col>
       <xdr:colOff>297180</xdr:colOff>
-      <xdr:row>19</xdr:row>
+      <xdr:row>14</xdr:row>
       <xdr:rowOff>22860</xdr:rowOff>
     </xdr:to>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
@@ -14746,8 +14808,8 @@
           </xdr:nvSpPr>
           <xdr:spPr>
             <a:xfrm>
-              <a:off x="4945380" y="754380"/>
-              <a:ext cx="4572000" cy="2743200"/>
+              <a:off x="4945380" y="365760"/>
+              <a:ext cx="4572000" cy="2217420"/>
             </a:xfrm>
             <a:prstGeom prst="rect">
               <a:avLst/>
@@ -14786,13 +14848,13 @@
     <xdr:from>
       <xdr:col>3</xdr:col>
       <xdr:colOff>601980</xdr:colOff>
-      <xdr:row>5</xdr:row>
+      <xdr:row>2</xdr:row>
       <xdr:rowOff>30480</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>11</xdr:col>
       <xdr:colOff>297180</xdr:colOff>
-      <xdr:row>20</xdr:row>
+      <xdr:row>18</xdr:row>
       <xdr:rowOff>30480</xdr:rowOff>
     </xdr:to>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
@@ -14829,8 +14891,8 @@
           </xdr:nvSpPr>
           <xdr:spPr>
             <a:xfrm>
-              <a:off x="4503420" y="944880"/>
-              <a:ext cx="4572000" cy="2743200"/>
+              <a:off x="4503420" y="396240"/>
+              <a:ext cx="4572000" cy="2926080"/>
             </a:xfrm>
             <a:prstGeom prst="rect">
               <a:avLst/>
@@ -15162,8 +15224,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0F5855BA-60BB-47F3-A54F-6D3B56E54D72}">
   <dimension ref="K2:K112"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="C3" sqref="C3:K112"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C3" sqref="C3:K57"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -15174,367 +15236,367 @@
   <sheetData>
     <row r="2" spans="11:11" ht="8.4" customHeight="1" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="3" spans="11:11" ht="13.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="K3" s="7">
+      <c r="K3" s="6">
         <v>50</v>
       </c>
     </row>
     <row r="4" spans="11:11" x14ac:dyDescent="0.3">
-      <c r="K4" s="8"/>
+      <c r="K4" s="7"/>
     </row>
     <row r="5" spans="11:11" x14ac:dyDescent="0.3">
-      <c r="K5" s="8"/>
+      <c r="K5" s="7"/>
     </row>
     <row r="6" spans="11:11" x14ac:dyDescent="0.3">
-      <c r="K6" s="8"/>
+      <c r="K6" s="7"/>
     </row>
     <row r="7" spans="11:11" x14ac:dyDescent="0.3">
-      <c r="K7" s="8"/>
+      <c r="K7" s="7"/>
     </row>
     <row r="8" spans="11:11" x14ac:dyDescent="0.3">
-      <c r="K8" s="8"/>
+      <c r="K8" s="7"/>
     </row>
     <row r="9" spans="11:11" x14ac:dyDescent="0.3">
-      <c r="K9" s="8"/>
+      <c r="K9" s="7"/>
     </row>
     <row r="10" spans="11:11" x14ac:dyDescent="0.3">
-      <c r="K10" s="8"/>
+      <c r="K10" s="7"/>
     </row>
     <row r="11" spans="11:11" x14ac:dyDescent="0.3">
-      <c r="K11" s="8"/>
+      <c r="K11" s="7"/>
     </row>
     <row r="12" spans="11:11" x14ac:dyDescent="0.3">
-      <c r="K12" s="8"/>
+      <c r="K12" s="7"/>
     </row>
     <row r="13" spans="11:11" ht="7.2" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="K13" s="9"/>
+      <c r="K13" s="8"/>
     </row>
     <row r="14" spans="11:11" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="K14" s="7">
+      <c r="K14" s="6">
         <v>45</v>
       </c>
     </row>
     <row r="15" spans="11:11" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="K15" s="8"/>
+      <c r="K15" s="7"/>
     </row>
     <row r="16" spans="11:11" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="K16" s="8"/>
+      <c r="K16" s="7"/>
     </row>
     <row r="17" spans="11:11" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="K17" s="8"/>
+      <c r="K17" s="7"/>
     </row>
     <row r="18" spans="11:11" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="K18" s="8"/>
+      <c r="K18" s="7"/>
     </row>
     <row r="19" spans="11:11" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="K19" s="8"/>
+      <c r="K19" s="7"/>
     </row>
     <row r="20" spans="11:11" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="K20" s="8"/>
+      <c r="K20" s="7"/>
     </row>
     <row r="21" spans="11:11" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="K21" s="8"/>
+      <c r="K21" s="7"/>
     </row>
     <row r="22" spans="11:11" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="K22" s="8"/>
+      <c r="K22" s="7"/>
     </row>
     <row r="23" spans="11:11" ht="22.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="K23" s="8"/>
+      <c r="K23" s="7"/>
     </row>
     <row r="24" spans="11:11" ht="9" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="K24" s="9"/>
+      <c r="K24" s="8"/>
     </row>
     <row r="25" spans="11:11" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="K25" s="7">
+      <c r="K25" s="6">
         <v>40</v>
       </c>
     </row>
     <row r="26" spans="11:11" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="K26" s="8"/>
+      <c r="K26" s="7"/>
     </row>
     <row r="27" spans="11:11" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="K27" s="8"/>
+      <c r="K27" s="7"/>
     </row>
     <row r="28" spans="11:11" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="K28" s="8"/>
+      <c r="K28" s="7"/>
     </row>
     <row r="29" spans="11:11" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="K29" s="8"/>
+      <c r="K29" s="7"/>
     </row>
     <row r="30" spans="11:11" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="K30" s="8"/>
+      <c r="K30" s="7"/>
     </row>
     <row r="31" spans="11:11" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="K31" s="8"/>
+      <c r="K31" s="7"/>
     </row>
     <row r="32" spans="11:11" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="K32" s="8"/>
+      <c r="K32" s="7"/>
     </row>
     <row r="33" spans="11:11" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="K33" s="8"/>
+      <c r="K33" s="7"/>
     </row>
     <row r="34" spans="11:11" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="K34" s="8"/>
+      <c r="K34" s="7"/>
     </row>
     <row r="35" spans="11:11" ht="8.4" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="K35" s="9"/>
+      <c r="K35" s="8"/>
     </row>
     <row r="36" spans="11:11" x14ac:dyDescent="0.3">
-      <c r="K36" s="7">
+      <c r="K36" s="6">
         <v>35</v>
       </c>
     </row>
     <row r="37" spans="11:11" x14ac:dyDescent="0.3">
-      <c r="K37" s="8"/>
+      <c r="K37" s="7"/>
     </row>
     <row r="38" spans="11:11" x14ac:dyDescent="0.3">
-      <c r="K38" s="8"/>
+      <c r="K38" s="7"/>
     </row>
     <row r="39" spans="11:11" x14ac:dyDescent="0.3">
-      <c r="K39" s="8"/>
+      <c r="K39" s="7"/>
     </row>
     <row r="40" spans="11:11" x14ac:dyDescent="0.3">
-      <c r="K40" s="8"/>
+      <c r="K40" s="7"/>
     </row>
     <row r="41" spans="11:11" x14ac:dyDescent="0.3">
-      <c r="K41" s="8"/>
+      <c r="K41" s="7"/>
     </row>
     <row r="42" spans="11:11" x14ac:dyDescent="0.3">
-      <c r="K42" s="8"/>
+      <c r="K42" s="7"/>
     </row>
     <row r="43" spans="11:11" x14ac:dyDescent="0.3">
-      <c r="K43" s="8"/>
+      <c r="K43" s="7"/>
     </row>
     <row r="44" spans="11:11" x14ac:dyDescent="0.3">
-      <c r="K44" s="8"/>
+      <c r="K44" s="7"/>
     </row>
     <row r="45" spans="11:11" x14ac:dyDescent="0.3">
-      <c r="K45" s="8"/>
+      <c r="K45" s="7"/>
     </row>
     <row r="46" spans="11:11" ht="9" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="K46" s="9"/>
+      <c r="K46" s="8"/>
     </row>
     <row r="47" spans="11:11" x14ac:dyDescent="0.3">
-      <c r="K47" s="7">
+      <c r="K47" s="6">
         <v>30</v>
       </c>
     </row>
     <row r="48" spans="11:11" x14ac:dyDescent="0.3">
-      <c r="K48" s="8"/>
+      <c r="K48" s="7"/>
     </row>
     <row r="49" spans="11:11" x14ac:dyDescent="0.3">
-      <c r="K49" s="8"/>
+      <c r="K49" s="7"/>
     </row>
     <row r="50" spans="11:11" x14ac:dyDescent="0.3">
-      <c r="K50" s="8"/>
+      <c r="K50" s="7"/>
     </row>
     <row r="51" spans="11:11" x14ac:dyDescent="0.3">
-      <c r="K51" s="8"/>
+      <c r="K51" s="7"/>
     </row>
     <row r="52" spans="11:11" x14ac:dyDescent="0.3">
-      <c r="K52" s="8"/>
+      <c r="K52" s="7"/>
     </row>
     <row r="53" spans="11:11" x14ac:dyDescent="0.3">
-      <c r="K53" s="8"/>
+      <c r="K53" s="7"/>
     </row>
     <row r="54" spans="11:11" x14ac:dyDescent="0.3">
-      <c r="K54" s="8"/>
+      <c r="K54" s="7"/>
     </row>
     <row r="55" spans="11:11" x14ac:dyDescent="0.3">
-      <c r="K55" s="8"/>
+      <c r="K55" s="7"/>
     </row>
     <row r="56" spans="11:11" x14ac:dyDescent="0.3">
-      <c r="K56" s="8"/>
+      <c r="K56" s="7"/>
     </row>
     <row r="57" spans="11:11" ht="9.6" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="K57" s="9"/>
+      <c r="K57" s="8"/>
     </row>
     <row r="58" spans="11:11" x14ac:dyDescent="0.3">
-      <c r="K58" s="7">
+      <c r="K58" s="6">
         <v>25</v>
       </c>
     </row>
     <row r="59" spans="11:11" x14ac:dyDescent="0.3">
-      <c r="K59" s="8"/>
+      <c r="K59" s="7"/>
     </row>
     <row r="60" spans="11:11" x14ac:dyDescent="0.3">
-      <c r="K60" s="8"/>
+      <c r="K60" s="7"/>
     </row>
     <row r="61" spans="11:11" x14ac:dyDescent="0.3">
-      <c r="K61" s="8"/>
+      <c r="K61" s="7"/>
     </row>
     <row r="62" spans="11:11" x14ac:dyDescent="0.3">
-      <c r="K62" s="8"/>
+      <c r="K62" s="7"/>
     </row>
     <row r="63" spans="11:11" x14ac:dyDescent="0.3">
-      <c r="K63" s="8"/>
+      <c r="K63" s="7"/>
     </row>
     <row r="64" spans="11:11" x14ac:dyDescent="0.3">
-      <c r="K64" s="8"/>
+      <c r="K64" s="7"/>
     </row>
     <row r="65" spans="11:11" x14ac:dyDescent="0.3">
-      <c r="K65" s="8"/>
+      <c r="K65" s="7"/>
     </row>
     <row r="66" spans="11:11" x14ac:dyDescent="0.3">
-      <c r="K66" s="8"/>
+      <c r="K66" s="7"/>
     </row>
     <row r="67" spans="11:11" x14ac:dyDescent="0.3">
-      <c r="K67" s="8"/>
+      <c r="K67" s="7"/>
     </row>
     <row r="68" spans="11:11" ht="9.6" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="K68" s="9"/>
+      <c r="K68" s="8"/>
     </row>
     <row r="69" spans="11:11" x14ac:dyDescent="0.3">
-      <c r="K69" s="7">
+      <c r="K69" s="6">
         <v>20</v>
       </c>
     </row>
     <row r="70" spans="11:11" x14ac:dyDescent="0.3">
-      <c r="K70" s="8"/>
+      <c r="K70" s="7"/>
     </row>
     <row r="71" spans="11:11" x14ac:dyDescent="0.3">
-      <c r="K71" s="8"/>
+      <c r="K71" s="7"/>
     </row>
     <row r="72" spans="11:11" x14ac:dyDescent="0.3">
-      <c r="K72" s="8"/>
+      <c r="K72" s="7"/>
     </row>
     <row r="73" spans="11:11" x14ac:dyDescent="0.3">
-      <c r="K73" s="8"/>
+      <c r="K73" s="7"/>
     </row>
     <row r="74" spans="11:11" x14ac:dyDescent="0.3">
-      <c r="K74" s="8"/>
+      <c r="K74" s="7"/>
     </row>
     <row r="75" spans="11:11" x14ac:dyDescent="0.3">
-      <c r="K75" s="8"/>
+      <c r="K75" s="7"/>
     </row>
     <row r="76" spans="11:11" x14ac:dyDescent="0.3">
-      <c r="K76" s="8"/>
+      <c r="K76" s="7"/>
     </row>
     <row r="77" spans="11:11" x14ac:dyDescent="0.3">
-      <c r="K77" s="8"/>
+      <c r="K77" s="7"/>
     </row>
     <row r="78" spans="11:11" x14ac:dyDescent="0.3">
-      <c r="K78" s="8"/>
+      <c r="K78" s="7"/>
     </row>
     <row r="79" spans="11:11" ht="10.8" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="K79" s="9"/>
+      <c r="K79" s="8"/>
     </row>
     <row r="80" spans="11:11" x14ac:dyDescent="0.3">
-      <c r="K80" s="7">
+      <c r="K80" s="6">
         <v>15</v>
       </c>
     </row>
     <row r="81" spans="11:11" x14ac:dyDescent="0.3">
-      <c r="K81" s="8"/>
+      <c r="K81" s="7"/>
     </row>
     <row r="82" spans="11:11" x14ac:dyDescent="0.3">
-      <c r="K82" s="8"/>
+      <c r="K82" s="7"/>
     </row>
     <row r="83" spans="11:11" x14ac:dyDescent="0.3">
-      <c r="K83" s="8"/>
+      <c r="K83" s="7"/>
     </row>
     <row r="84" spans="11:11" x14ac:dyDescent="0.3">
-      <c r="K84" s="8"/>
+      <c r="K84" s="7"/>
     </row>
     <row r="85" spans="11:11" x14ac:dyDescent="0.3">
-      <c r="K85" s="8"/>
+      <c r="K85" s="7"/>
     </row>
     <row r="86" spans="11:11" x14ac:dyDescent="0.3">
-      <c r="K86" s="8"/>
+      <c r="K86" s="7"/>
     </row>
     <row r="87" spans="11:11" x14ac:dyDescent="0.3">
-      <c r="K87" s="8"/>
+      <c r="K87" s="7"/>
     </row>
     <row r="88" spans="11:11" x14ac:dyDescent="0.3">
-      <c r="K88" s="8"/>
+      <c r="K88" s="7"/>
     </row>
     <row r="89" spans="11:11" x14ac:dyDescent="0.3">
-      <c r="K89" s="8"/>
+      <c r="K89" s="7"/>
     </row>
     <row r="90" spans="11:11" ht="11.4" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="K90" s="9"/>
+      <c r="K90" s="8"/>
     </row>
     <row r="91" spans="11:11" x14ac:dyDescent="0.3">
-      <c r="K91" s="7">
+      <c r="K91" s="6">
         <v>10</v>
       </c>
     </row>
     <row r="92" spans="11:11" x14ac:dyDescent="0.3">
-      <c r="K92" s="8"/>
+      <c r="K92" s="7"/>
     </row>
     <row r="93" spans="11:11" x14ac:dyDescent="0.3">
-      <c r="K93" s="8"/>
+      <c r="K93" s="7"/>
     </row>
     <row r="94" spans="11:11" x14ac:dyDescent="0.3">
-      <c r="K94" s="8"/>
+      <c r="K94" s="7"/>
     </row>
     <row r="95" spans="11:11" x14ac:dyDescent="0.3">
-      <c r="K95" s="8"/>
+      <c r="K95" s="7"/>
     </row>
     <row r="96" spans="11:11" x14ac:dyDescent="0.3">
-      <c r="K96" s="8"/>
+      <c r="K96" s="7"/>
     </row>
     <row r="97" spans="11:11" x14ac:dyDescent="0.3">
-      <c r="K97" s="8"/>
+      <c r="K97" s="7"/>
     </row>
     <row r="98" spans="11:11" x14ac:dyDescent="0.3">
-      <c r="K98" s="8"/>
+      <c r="K98" s="7"/>
     </row>
     <row r="99" spans="11:11" x14ac:dyDescent="0.3">
-      <c r="K99" s="8"/>
+      <c r="K99" s="7"/>
     </row>
     <row r="100" spans="11:11" x14ac:dyDescent="0.3">
-      <c r="K100" s="8"/>
+      <c r="K100" s="7"/>
     </row>
     <row r="101" spans="11:11" ht="13.2" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="K101" s="9"/>
+      <c r="K101" s="8"/>
     </row>
     <row r="102" spans="11:11" x14ac:dyDescent="0.3">
-      <c r="K102" s="7">
+      <c r="K102" s="6">
         <v>5</v>
       </c>
     </row>
     <row r="103" spans="11:11" x14ac:dyDescent="0.3">
-      <c r="K103" s="8"/>
+      <c r="K103" s="7"/>
     </row>
     <row r="104" spans="11:11" x14ac:dyDescent="0.3">
-      <c r="K104" s="8"/>
+      <c r="K104" s="7"/>
     </row>
     <row r="105" spans="11:11" x14ac:dyDescent="0.3">
-      <c r="K105" s="8"/>
+      <c r="K105" s="7"/>
     </row>
     <row r="106" spans="11:11" x14ac:dyDescent="0.3">
-      <c r="K106" s="8"/>
+      <c r="K106" s="7"/>
     </row>
     <row r="107" spans="11:11" x14ac:dyDescent="0.3">
-      <c r="K107" s="8"/>
+      <c r="K107" s="7"/>
     </row>
     <row r="108" spans="11:11" x14ac:dyDescent="0.3">
-      <c r="K108" s="8"/>
+      <c r="K108" s="7"/>
     </row>
     <row r="109" spans="11:11" x14ac:dyDescent="0.3">
-      <c r="K109" s="8"/>
+      <c r="K109" s="7"/>
     </row>
     <row r="110" spans="11:11" x14ac:dyDescent="0.3">
-      <c r="K110" s="8"/>
+      <c r="K110" s="7"/>
     </row>
     <row r="111" spans="11:11" x14ac:dyDescent="0.3">
-      <c r="K111" s="8"/>
+      <c r="K111" s="7"/>
     </row>
     <row r="112" spans="11:11" ht="12.6" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="K112" s="9"/>
+      <c r="K112" s="8"/>
     </row>
   </sheetData>
   <mergeCells count="10">
+    <mergeCell ref="K3:K13"/>
+    <mergeCell ref="K14:K24"/>
+    <mergeCell ref="K25:K35"/>
+    <mergeCell ref="K36:K46"/>
+    <mergeCell ref="K47:K57"/>
     <mergeCell ref="K58:K68"/>
     <mergeCell ref="K69:K79"/>
     <mergeCell ref="K80:K90"/>
     <mergeCell ref="K91:K101"/>
     <mergeCell ref="K102:K112"/>
-    <mergeCell ref="K3:K13"/>
-    <mergeCell ref="K14:K24"/>
-    <mergeCell ref="K25:K35"/>
-    <mergeCell ref="K36:K46"/>
-    <mergeCell ref="K47:K57"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -15544,10 +15606,10 @@
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BEF7B531-CFD8-46B1-BA47-FCE5C3D3CEA7}">
-  <dimension ref="A1:C26"/>
+  <dimension ref="A1:C21"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C23" sqref="C23:C26"/>
+      <selection activeCell="I34" sqref="I34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -15556,16 +15618,16 @@
     <col min="3" max="3" width="23.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" s="5" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B1" s="5" t="s">
+    <row r="1" spans="1:3" s="4" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="B1" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="C1" s="5" t="s">
+      <c r="C1" s="4" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="2" spans="1:3" s="5" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="5" t="s">
+    <row r="2" spans="1:3" s="4" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="4" t="s">
         <v>5</v>
       </c>
       <c r="B2" s="2">
@@ -15575,267 +15637,212 @@
         <v>22.211587544665647</v>
       </c>
     </row>
-    <row r="3" spans="1:3" s="5" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="5" t="s">
-        <v>5</v>
+    <row r="3" spans="1:3" s="4" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="4" t="s">
+        <v>6</v>
       </c>
       <c r="B3" s="2">
-        <v>23.977099236641209</v>
+        <v>35.04017268257585</v>
       </c>
       <c r="C3" s="2">
-        <v>24.236641221374043</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" s="5" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="5" t="s">
-        <v>5</v>
+        <v>44.052901170061503</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" s="4" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="4" t="s">
+        <v>6</v>
       </c>
       <c r="B4" s="2">
-        <v>25.981281905842309</v>
+        <v>23.917735939561098</v>
       </c>
       <c r="C4" s="2">
-        <v>26.382586500283594</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" s="5" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="5" t="s">
-        <v>5</v>
+        <v>45.497061997841463</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" s="4" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A5" s="4" t="s">
+        <v>6</v>
       </c>
       <c r="B5" s="2">
-        <v>24.190131748902086</v>
+        <v>42.316583525976398</v>
       </c>
       <c r="C5" s="2">
-        <v>30.799535003874972</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" s="5" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="5" t="s">
-        <v>6</v>
+        <v>44.640467210122885</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" s="4" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A6" s="4" t="s">
+        <v>3</v>
       </c>
       <c r="B6" s="2">
-        <v>35.04017268257585</v>
+        <v>29.351209001675844</v>
       </c>
       <c r="C6" s="2">
-        <v>42.895611120825322</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3" s="5" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="5" t="s">
-        <v>6</v>
+        <v>29.028010533875992</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" s="4" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A7" s="4" t="s">
+        <v>4</v>
       </c>
       <c r="B7" s="2">
-        <v>23.917735939561098</v>
+        <v>33.318430920103822</v>
       </c>
       <c r="C7" s="2">
-        <v>44.70130186154033</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3" s="5" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="5" t="s">
-        <v>6</v>
+        <v>33.880155754254403</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" s="4" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A8" s="4" t="s">
+        <v>4</v>
       </c>
       <c r="B8" s="2">
-        <v>42.316583525976398</v>
+        <v>35.434000287894058</v>
       </c>
       <c r="C8" s="2">
-        <v>44.382793890990605</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3" s="5" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="5" t="s">
-        <v>3</v>
+        <v>31.510004318410829</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" s="4" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A9" s="4" t="s">
+        <v>4</v>
       </c>
       <c r="B9" s="2">
-        <v>29.351209001675844</v>
+        <v>32.425500370644933</v>
       </c>
       <c r="C9" s="2">
-        <v>29.028010533875992</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3" s="5" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="5" t="s">
-        <v>4</v>
+        <v>34.494687422782313</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" s="4" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A10" s="4" t="s">
+        <v>2</v>
       </c>
       <c r="B10" s="2">
-        <v>26.267288033674074</v>
+        <v>40.264269337516595</v>
       </c>
       <c r="C10" s="2">
-        <v>26.052315093205042</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3" s="5" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="5" t="s">
-        <v>4</v>
+        <v>39.327862917823083</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" s="4" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A11" s="4" t="s">
+        <v>2</v>
       </c>
       <c r="B11" s="2">
-        <v>33.318430920103822</v>
+        <v>40.335215667427619</v>
       </c>
       <c r="C11" s="2">
-        <v>33.880155754254403</v>
-      </c>
-    </row>
-    <row r="12" spans="1:3" s="5" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="5" t="s">
-        <v>4</v>
+        <v>39.313949297128445</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" s="4" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A12" s="4" t="s">
+        <v>2</v>
       </c>
       <c r="B12" s="2">
-        <v>35.434000287894058</v>
+        <v>40.425327405983417</v>
       </c>
       <c r="C12" s="2">
-        <v>31.510004318410829</v>
-      </c>
-    </row>
-    <row r="13" spans="1:3" s="5" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="5" t="s">
-        <v>4</v>
+        <v>39.38483719812568</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" s="4" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A13" s="4" t="s">
+        <v>2</v>
       </c>
       <c r="B13" s="2">
-        <v>32.425500370644933</v>
+        <v>41.838235294117645</v>
       </c>
       <c r="C13" s="2">
-        <v>34.494687422782313</v>
-      </c>
-    </row>
-    <row r="14" spans="1:3" s="5" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="5" t="s">
+        <v>40.356798457087741</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" s="4" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A14" s="4" t="s">
         <v>2</v>
       </c>
       <c r="B14" s="2">
-        <v>40.264269337516595</v>
+        <v>41.345963348192171</v>
       </c>
       <c r="C14" s="2">
-        <v>39.327862917823083</v>
-      </c>
-    </row>
-    <row r="15" spans="1:3" s="5" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A15" s="5" t="s">
-        <v>2</v>
+        <v>40.24145616641902</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" s="4" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A15" s="4" t="s">
+        <v>1</v>
       </c>
       <c r="B15" s="2">
-        <v>40.335215667427619</v>
-      </c>
-      <c r="C15" s="2">
-        <v>39.313949297128445</v>
-      </c>
-    </row>
-    <row r="16" spans="1:3" s="5" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="5" t="s">
-        <v>2</v>
+        <v>30.010405827263259</v>
+      </c>
+      <c r="C15" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" s="4" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A16" s="4" t="s">
+        <v>1</v>
       </c>
       <c r="B16" s="2">
-        <v>40.425327405983417</v>
-      </c>
-      <c r="C16" s="2">
-        <v>39.38483719812568</v>
-      </c>
-    </row>
-    <row r="17" spans="1:3" s="5" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="5" t="s">
-        <v>2</v>
+        <v>29.373695198329859</v>
+      </c>
+      <c r="C16" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" s="4" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A17" s="4" t="s">
+        <v>1</v>
       </c>
       <c r="B17" s="2">
-        <v>41.838235294117645</v>
-      </c>
-      <c r="C17" s="2">
-        <v>40.356798457087741</v>
-      </c>
-    </row>
-    <row r="18" spans="1:3" s="5" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A18" s="5" t="s">
-        <v>2</v>
+        <v>29.813278008298759</v>
+      </c>
+      <c r="C17" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" s="4" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A18" s="4" t="s">
+        <v>0</v>
       </c>
       <c r="B18" s="2">
-        <v>42.666912578384363</v>
+        <v>0.87043225180553019</v>
       </c>
       <c r="C18" s="2">
-        <v>41.918111398008108</v>
-      </c>
-    </row>
-    <row r="19" spans="1:3" s="5" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A19" s="5" t="s">
-        <v>2</v>
+        <v>1.8540476447127294</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" s="4" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A19" s="4" t="s">
+        <v>0</v>
       </c>
       <c r="B19" s="2">
-        <v>41.945359190145133</v>
+        <v>1.0020471931903963</v>
       </c>
       <c r="C19" s="2">
-        <v>41.78558360775704</v>
-      </c>
-    </row>
-    <row r="20" spans="1:3" s="5" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A20" s="5" t="s">
-        <v>2</v>
+        <v>0.85120137916173499</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" s="4" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A20" s="4" t="s">
+        <v>0</v>
       </c>
       <c r="B20" s="2">
-        <v>42.300339579927055</v>
+        <v>0.60707594754287442</v>
       </c>
       <c r="C20" s="2">
-        <v>40.876619293170677</v>
-      </c>
-    </row>
-    <row r="21" spans="1:3" s="5" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A21" s="5" t="s">
-        <v>2</v>
+        <v>0.51880674448766728</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" s="4" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A21" s="4" t="s">
+        <v>0</v>
       </c>
       <c r="B21" s="2">
-        <v>41.345963348192171</v>
+        <v>1.0001081197967319</v>
       </c>
       <c r="C21" s="2">
-        <v>40.24145616641902</v>
-      </c>
-    </row>
-    <row r="22" spans="1:3" s="5" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A22" s="5" t="s">
-        <v>1</v>
-      </c>
-      <c r="B22" s="2">
-        <v>36.169754416199915</v>
-      </c>
-      <c r="C22" s="2">
-        <v>37.269665147612443</v>
-      </c>
-    </row>
-    <row r="23" spans="1:3" s="5" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A23" s="5" t="s">
-        <v>0</v>
-      </c>
-      <c r="B23" s="2">
-        <v>17.496715633584127</v>
-      </c>
-      <c r="C23" s="2">
-        <v>17.496715633584127</v>
-      </c>
-    </row>
-    <row r="24" spans="1:3" s="5" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A24" s="5" t="s">
-        <v>0</v>
-      </c>
-      <c r="B24" s="2">
-        <v>1.0020471931903963</v>
-      </c>
-      <c r="C24" s="2">
-        <v>0.85120137916173499</v>
-      </c>
-    </row>
-    <row r="25" spans="1:3" s="5" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A25" s="5" t="s">
-        <v>0</v>
-      </c>
-      <c r="B25" s="2">
-        <v>0.99892008639307017</v>
-      </c>
-      <c r="C25" s="2">
-        <v>0.60475161987039749</v>
-      </c>
-    </row>
-    <row r="26" spans="1:3" s="5" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A26" s="5" t="s">
-        <v>0</v>
-      </c>
-      <c r="B26" s="2">
-        <v>1.0001081197967319</v>
-      </c>
-      <c r="C26" s="2">
         <v>0.60547086171476716</v>
       </c>
     </row>
@@ -15847,10 +15854,10 @@
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8E5AE5ED-2135-4198-9D1B-017DF220674C}">
-  <dimension ref="A1:C36"/>
+  <dimension ref="A1:C21"/>
   <sheetViews>
-    <sheetView topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="C32" sqref="C32:C36"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C18" sqref="C18:C21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -15860,16 +15867,16 @@
     <col min="3" max="3" width="25.5546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" s="5" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B1" s="5" t="s">
+    <row r="1" spans="1:3" s="4" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="B1" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="C1" s="5" t="s">
+      <c r="C1" s="4" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="2" spans="1:3" s="5" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="5" t="s">
+    <row r="2" spans="1:3" s="4" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="4" t="s">
         <v>5</v>
       </c>
       <c r="B2" s="2">
@@ -15879,378 +15886,213 @@
         <v>32.348136804492086</v>
       </c>
     </row>
-    <row r="3" spans="1:3" s="5" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="5" t="s">
-        <v>5</v>
+    <row r="3" spans="1:3" s="4" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="4" t="s">
+        <v>6</v>
       </c>
       <c r="B3" s="2">
-        <v>29.804071246819337</v>
+        <v>30.417316224967024</v>
       </c>
       <c r="C3" s="2">
-        <v>38.456318914334176</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" s="5" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="5" t="s">
-        <v>5</v>
+        <v>32.653795419115006</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" s="4" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="4" t="s">
+        <v>6</v>
       </c>
       <c r="B4" s="2">
-        <v>25.847986386840617</v>
+        <v>32.455929967622019</v>
       </c>
       <c r="C4" s="2">
-        <v>25.571941765929274</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" s="5" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="5" t="s">
-        <v>5</v>
+        <v>26.15421513370908</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" s="4" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A5" s="4" t="s">
+        <v>6</v>
       </c>
       <c r="B5" s="2">
-        <v>19.196590028416441</v>
+        <v>39.240783550310255</v>
       </c>
       <c r="C5" s="2">
-        <v>17.954017049857914</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" s="5" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="5" t="s">
-        <v>6</v>
+        <v>44.70130186154033</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" s="4" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A6" s="4" t="s">
+        <v>3</v>
       </c>
       <c r="B6" s="2">
-        <v>30.417316224967024</v>
+        <v>29.530763706009104</v>
       </c>
       <c r="C6" s="2">
-        <v>32.653795419115006</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3" s="5" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="5" t="s">
-        <v>6</v>
+        <v>29.243476179075898</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" s="4" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A7" s="4" t="s">
+        <v>4</v>
       </c>
       <c r="B7" s="2">
-        <v>32.455929967622019</v>
+        <v>35.041822901644075</v>
       </c>
       <c r="C7" s="2">
-        <v>26.15421513370908</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3" s="5" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="5" t="s">
-        <v>6</v>
+        <v>37.2252668012691</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" s="4" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A8" s="4" t="s">
+        <v>4</v>
       </c>
       <c r="B8" s="2">
-        <v>39.240783550310255</v>
+        <v>39.340722614078018</v>
       </c>
       <c r="C8" s="2">
-        <v>44.70130186154033</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3" s="5" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="5" t="s">
-        <v>3</v>
+        <v>38.684735445927323</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" s="4" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A9" s="4" t="s">
+        <v>4</v>
       </c>
       <c r="B9" s="2">
-        <v>29.530763706009104</v>
+        <v>39.587842846552995</v>
       </c>
       <c r="C9" s="2">
-        <v>29.243476179075898</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3" s="5" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="5" t="s">
-        <v>4</v>
+        <v>41.169119983056241</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" s="4" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A10" s="4" t="s">
+        <v>2</v>
       </c>
       <c r="B10" s="2">
-        <v>27.05201443174985</v>
+        <v>40.409074453964053</v>
       </c>
       <c r="C10" s="2">
-        <v>27.555622369212259</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3" s="5" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="5" t="s">
-        <v>4</v>
+        <v>39.256667068903106</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" s="4" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A11" s="4" t="s">
+        <v>2</v>
       </c>
       <c r="B11" s="2">
-        <v>35.041822901644075</v>
+        <v>40.424125916136013</v>
       </c>
       <c r="C11" s="2">
-        <v>37.2252668012691</v>
-      </c>
-    </row>
-    <row r="12" spans="1:3" s="5" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="5" t="s">
-        <v>4</v>
+        <v>39.172173495133976</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" s="4" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A12" s="4" t="s">
+        <v>2</v>
       </c>
       <c r="B12" s="2">
-        <v>39.340722614078018</v>
+        <v>40.335215667427605</v>
       </c>
       <c r="C12" s="2">
-        <v>38.684735445927323</v>
-      </c>
-    </row>
-    <row r="13" spans="1:3" s="5" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="5" t="s">
-        <v>4</v>
+        <v>39.313949297128445</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" s="4" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A13" s="4" t="s">
+        <v>2</v>
       </c>
       <c r="B13" s="2">
-        <v>39.587842846552995</v>
+        <v>42.338476374156222</v>
       </c>
       <c r="C13" s="2">
-        <v>41.169119983056241</v>
-      </c>
-    </row>
-    <row r="14" spans="1:3" s="5" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="5" t="s">
-        <v>4</v>
+        <v>40.143442622950808</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" s="4" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A14" s="4" t="s">
+        <v>2</v>
       </c>
       <c r="B14" s="2">
-        <v>48.91754218401784</v>
+        <v>41.345963348192178</v>
       </c>
       <c r="C14" s="2">
-        <v>48.167780961477249</v>
-      </c>
-    </row>
-    <row r="15" spans="1:3" s="5" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A15" s="5" t="s">
-        <v>2</v>
+        <v>40.453194650817224</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" s="4" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A15" s="4" t="s">
+        <v>1</v>
       </c>
       <c r="B15" s="2">
-        <v>40.409074453964053</v>
+        <v>47.947970863683651</v>
       </c>
       <c r="C15" s="2">
-        <v>39.256667068903106</v>
-      </c>
-    </row>
-    <row r="16" spans="1:3" s="5" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="5" t="s">
-        <v>2</v>
+        <v>48.137356919875117</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" s="4" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A16" s="4" t="s">
+        <v>1</v>
       </c>
       <c r="B16" s="2">
-        <v>40.424125916136013</v>
+        <v>47.306889352818366</v>
       </c>
       <c r="C16" s="2">
-        <v>39.172173495133976</v>
-      </c>
-    </row>
-    <row r="17" spans="1:3" s="5" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="5" t="s">
-        <v>2</v>
+        <v>47.494780793319407</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" s="4" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A17" s="4" t="s">
+        <v>1</v>
       </c>
       <c r="B17" s="2">
-        <v>40.335215667427605</v>
+        <v>47.448132780082986</v>
       </c>
       <c r="C17" s="2">
-        <v>39.313949297128445</v>
-      </c>
-    </row>
-    <row r="18" spans="1:3" s="5" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A18" s="5" t="s">
-        <v>2</v>
+        <v>47.634854771784227</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" s="4" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A18" s="4" t="s">
+        <v>0</v>
       </c>
       <c r="B18" s="2">
-        <v>42.338476374156222</v>
+        <v>0.86234774172683304</v>
       </c>
       <c r="C18" s="2">
-        <v>40.143442622950808</v>
-      </c>
-    </row>
-    <row r="19" spans="1:3" s="5" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A19" s="5" t="s">
-        <v>2</v>
+        <v>2.2852215155761457</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" s="4" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A19" s="4" t="s">
+        <v>0</v>
       </c>
       <c r="B19" s="2">
-        <v>44.287470797983524</v>
+        <v>0.86197608016378768</v>
       </c>
       <c r="C19" s="2">
-        <v>41.989425796139187</v>
-      </c>
-    </row>
-    <row r="20" spans="1:3" s="5" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A20" s="5" t="s">
-        <v>2</v>
+        <v>0.85120137916173499</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" s="4" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A20" s="4" t="s">
+        <v>0</v>
       </c>
       <c r="B20" s="2">
-        <v>44.340773265032318</v>
+        <v>0.59446606139212832</v>
       </c>
       <c r="C20" s="2">
-        <v>41.78558360775704</v>
-      </c>
-    </row>
-    <row r="21" spans="1:3" s="5" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A21" s="5" t="s">
-        <v>2</v>
+        <v>0.59446606139212832</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" s="4" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A21" s="4" t="s">
+        <v>0</v>
       </c>
       <c r="B21" s="2">
-        <v>48.883415435139568</v>
+        <v>0.83252243485780286</v>
       </c>
       <c r="C21" s="2">
-        <v>48.181129215611982</v>
-      </c>
-    </row>
-    <row r="22" spans="1:3" s="5" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A22" s="5" t="s">
-        <v>2</v>
-      </c>
-      <c r="B22" s="2">
-        <v>43.473776883410892</v>
-      </c>
-      <c r="C22" s="2">
-        <v>41.008678153691356</v>
-      </c>
-    </row>
-    <row r="23" spans="1:3" s="5" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A23" s="5" t="s">
-        <v>2</v>
-      </c>
-      <c r="B23" s="2">
-        <v>41.345963348192178</v>
-      </c>
-      <c r="C23" s="2">
-        <v>40.453194650817224</v>
-      </c>
-    </row>
-    <row r="24" spans="1:3" s="5" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A24" s="5" t="s">
-        <v>1</v>
-      </c>
-      <c r="B24" s="2">
-        <v>37.269665147612443</v>
-      </c>
-      <c r="C24" s="2">
-        <v>37.269665147612443</v>
-      </c>
-    </row>
-    <row r="25" spans="1:3" s="5" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A25" s="5" t="s">
-        <v>1</v>
-      </c>
-      <c r="B25" s="2">
-        <v>45.96698555618083</v>
-      </c>
-      <c r="C25" s="2">
-        <v>47.833427124366921</v>
-      </c>
-    </row>
-    <row r="26" spans="1:3" s="5" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A26" s="5" t="s">
-        <v>1</v>
-      </c>
-      <c r="B26" s="2">
-        <v>47.233242848193775</v>
-      </c>
-      <c r="C26" s="2">
-        <v>47.42117352265609</v>
-      </c>
-    </row>
-    <row r="27" spans="1:3" s="5" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A27" s="5" t="s">
-        <v>1</v>
-      </c>
-      <c r="B27" s="2">
-        <v>47.947970863683651</v>
-      </c>
-      <c r="C27" s="2">
-        <v>48.137356919875117</v>
-      </c>
-    </row>
-    <row r="28" spans="1:3" s="5" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A28" s="5" t="s">
-        <v>1</v>
-      </c>
-      <c r="B28" s="2">
-        <v>47.821576763485474</v>
-      </c>
-      <c r="C28" s="2">
-        <v>47.634854771784227</v>
-      </c>
-    </row>
-    <row r="29" spans="1:3" s="5" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A29" s="5" t="s">
-        <v>1</v>
-      </c>
-      <c r="B29" s="2">
-        <v>47.306889352818366</v>
-      </c>
-      <c r="C29" s="2">
-        <v>47.494780793319407</v>
-      </c>
-    </row>
-    <row r="30" spans="1:3" s="5" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A30" s="5" t="s">
-        <v>1</v>
-      </c>
-      <c r="B30" s="2">
-        <v>47.448132780082986</v>
-      </c>
-      <c r="C30" s="2">
-        <v>47.634854771784227</v>
-      </c>
-    </row>
-    <row r="31" spans="1:3" s="5" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A31" s="5" t="s">
-        <v>1</v>
-      </c>
-      <c r="B31" s="2">
-        <v>44.82138895052141</v>
-      </c>
-      <c r="C31" s="2">
-        <v>45.018859551808291</v>
-      </c>
-    </row>
-    <row r="32" spans="1:3" s="5" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A32" s="5" t="s">
-        <v>0</v>
-      </c>
-      <c r="B32" s="2">
-        <v>17.496715633584127</v>
-      </c>
-      <c r="C32" s="2">
-        <v>17.496715633584127</v>
-      </c>
-    </row>
-    <row r="33" spans="1:3" s="5" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A33" s="5" t="s">
-        <v>0</v>
-      </c>
-      <c r="B33" s="2">
-        <v>0.86197608016378768</v>
-      </c>
-      <c r="C33" s="2">
-        <v>0.85120137916173499</v>
-      </c>
-    </row>
-    <row r="34" spans="1:3" s="5" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A34" s="5" t="s">
-        <v>0</v>
-      </c>
-      <c r="B34" s="2">
-        <v>0.59446606139212832</v>
-      </c>
-      <c r="C34" s="2">
-        <v>0.59446606139212832</v>
-      </c>
-    </row>
-    <row r="35" spans="1:3" s="5" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A35" s="5" t="s">
-        <v>0</v>
-      </c>
-      <c r="B35" s="2">
-        <v>0.83252243485780286</v>
-      </c>
-      <c r="C35" s="2">
         <v>0.60547086171476716</v>
-      </c>
-    </row>
-    <row r="36" spans="1:3" s="5" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A36" s="5" t="s">
-        <v>0</v>
-      </c>
-      <c r="B36" s="2">
-        <v>0.60501296456352882</v>
-      </c>
-      <c r="C36" s="2">
-        <v>0.60501296456352882</v>
       </c>
     </row>
   </sheetData>
@@ -16286,10 +16128,10 @@
       <c r="A2" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="B2" s="6">
+      <c r="B2" s="5">
         <v>4.3600000000000003</v>
       </c>
-      <c r="C2" s="6">
+      <c r="C2" s="5">
         <v>4.1092394078611525</v>
       </c>
     </row>
@@ -16297,10 +16139,10 @@
       <c r="A3" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="B3" s="6">
+      <c r="B3" s="5">
         <v>1.5457488907543058</v>
       </c>
-      <c r="C3" s="6">
+      <c r="C3" s="5">
         <v>2.269456769396808</v>
       </c>
     </row>
@@ -16308,10 +16150,10 @@
       <c r="A4" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="B4" s="6">
+      <c r="B4" s="5">
         <v>1.654874685214049</v>
       </c>
-      <c r="C4" s="6">
+      <c r="C4" s="5">
         <v>1.175200863412867</v>
       </c>
     </row>
@@ -16319,10 +16161,10 @@
       <c r="A5" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="B5" s="6">
+      <c r="B5" s="5">
         <v>1.6924200024333753</v>
       </c>
-      <c r="C5" s="6">
+      <c r="C5" s="5">
         <v>1.125441051222773</v>
       </c>
     </row>
@@ -16330,10 +16172,10 @@
       <c r="A6" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="B6" s="6">
+      <c r="B6" s="5">
         <v>0</v>
       </c>
-      <c r="C6" s="6">
+      <c r="C6" s="5">
         <v>0</v>
       </c>
     </row>
@@ -16341,21 +16183,21 @@
       <c r="A7" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="B7" s="6">
+      <c r="B7" s="5">
         <v>2.6233054513989282</v>
       </c>
-      <c r="C7" s="6">
+      <c r="C7" s="5">
         <v>2.7833862128641575</v>
       </c>
     </row>
-    <row r="8" spans="1:3" s="5" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="5" t="s">
+    <row r="8" spans="1:3" s="4" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A8" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="B8" s="6">
+      <c r="B8" s="5">
         <v>3.2071397725636883</v>
       </c>
-      <c r="C8" s="6">
+      <c r="C8" s="5">
         <v>3.2819922268605168</v>
       </c>
     </row>
@@ -16363,10 +16205,10 @@
       <c r="A9" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="B9" s="6">
+      <c r="B9" s="5">
         <v>2.0518902891030399</v>
       </c>
-      <c r="C9" s="6">
+      <c r="C9" s="5">
         <v>2.3424759080800568</v>
       </c>
     </row>
@@ -16374,10 +16216,10 @@
       <c r="A10" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="B10" s="6">
+      <c r="B10" s="5">
         <v>0</v>
       </c>
-      <c r="C10" s="6">
+      <c r="C10" s="5">
         <v>0</v>
       </c>
     </row>
@@ -16385,43 +16227,43 @@
       <c r="A11" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="B11" s="6">
-        <v>1.8957345971563881</v>
-      </c>
-      <c r="C11" s="6">
-        <v>1.0555794915984531</v>
+      <c r="B11" s="5">
+        <v>0.46826222684702251</v>
+      </c>
+      <c r="C11" s="5">
+        <v>0</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A12" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="B12" s="6">
+      <c r="B12" s="5">
         <v>0.69676409185805654</v>
       </c>
-      <c r="C12" s="6">
-        <v>1.8580375782881013</v>
+      <c r="C12" s="5">
+        <v>0</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A13" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="B13" s="6">
-        <v>2.4469872262195245</v>
-      </c>
-      <c r="C13" s="6">
-        <v>1.974706012868872</v>
+      <c r="B13" s="5">
+        <v>1.8464730290456441</v>
+      </c>
+      <c r="C13" s="5">
+        <v>0</v>
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>0</v>
       </c>
-      <c r="B14" s="6">
+      <c r="B14" s="5">
         <v>0.8641442995220957</v>
       </c>
-      <c r="C14" s="6">
+      <c r="C14" s="5">
         <v>0.85156839495525716</v>
       </c>
     </row>
@@ -16429,10 +16271,10 @@
       <c r="A15" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B15" s="6">
+      <c r="B15" s="5">
         <v>1.038681176597348</v>
       </c>
-      <c r="C15" s="6">
+      <c r="C15" s="5">
         <v>0.85120137916173499</v>
       </c>
     </row>
@@ -16440,10 +16282,10 @@
       <c r="A16" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="B16" s="6">
+      <c r="B16" s="5">
         <v>0.60707594754287442</v>
       </c>
-      <c r="C16" s="6">
+      <c r="C16" s="5">
         <v>0.59446606139212832</v>
       </c>
     </row>
@@ -16451,10 +16293,10 @@
       <c r="A17" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="B17" s="6">
+      <c r="B17" s="5">
         <v>0.60547086171476716</v>
       </c>
-      <c r="C17" s="6">
+      <c r="C17" s="5">
         <v>0.60547086171476716</v>
       </c>
     </row>
@@ -16518,10 +16360,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A998A68B-874A-4FBE-B4B9-2CC4B9FA753D}">
-  <dimension ref="A1:C23"/>
+  <dimension ref="A1:C17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C17" sqref="C17:C23"/>
+      <selection activeCell="C14" sqref="C14:C17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -16553,24 +16395,24 @@
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A3" s="3" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B3" s="2">
-        <v>8.5114503816793885</v>
+        <v>6.816165007794714</v>
       </c>
       <c r="C3" s="2">
-        <v>8.3969465648854893</v>
+        <v>9.2145341168005892</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A4" s="3" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B4" s="2">
-        <v>9.0519245672952842</v>
+        <v>4.9552970646626999</v>
       </c>
       <c r="C4" s="2">
-        <v>8.8952036510806902</v>
+        <v>6.1542151337090836</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.3">
@@ -16578,131 +16420,131 @@
         <v>6</v>
       </c>
       <c r="B5" s="2">
-        <v>9.2411260709914291</v>
+        <v>6.0043800949020589</v>
       </c>
       <c r="C5" s="2">
-        <v>9.3410852713178389</v>
+        <v>5.3919779372997416</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A6" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="B6" s="2">
-        <v>6.816165007794714</v>
-      </c>
-      <c r="C6" s="2">
-        <v>9.2145341168005892</v>
+        <v>3</v>
+      </c>
+      <c r="B6" s="5">
+        <v>0</v>
+      </c>
+      <c r="C6" s="5">
+        <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A7" s="3" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="B7" s="2">
-        <v>4.9552970646626999</v>
+        <v>5.6821459475050444</v>
       </c>
       <c r="C7" s="2">
-        <v>6.1542151337090836</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A8" s="3" t="s">
-        <v>6</v>
+        <v>4.4995673492933435</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" s="4" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A8" s="4" t="s">
+        <v>4</v>
       </c>
       <c r="B8" s="2">
-        <v>6.0043800949020589</v>
+        <v>6.412840074852431</v>
       </c>
       <c r="C8" s="2">
-        <v>5.3919779372997416</v>
+        <v>6.7631111750875741</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A9" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="B9" s="6">
-        <v>0</v>
-      </c>
-      <c r="C9" s="6">
-        <v>0</v>
+        <v>4</v>
+      </c>
+      <c r="B9" s="2">
+        <v>6.0533728687917048</v>
+      </c>
+      <c r="C9" s="2">
+        <v>6.2060785767234883</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A10" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="B10" s="2">
-        <v>5.6821459475050444</v>
-      </c>
-      <c r="C10" s="2">
-        <v>4.4995673492933435</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3" s="5" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="5" t="s">
-        <v>4</v>
+        <v>2</v>
+      </c>
+      <c r="B10" s="5">
+        <v>0</v>
+      </c>
+      <c r="C10" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A11" s="3" t="s">
+        <v>1</v>
       </c>
       <c r="B11" s="2">
-        <v>6.412840074852431</v>
-      </c>
-      <c r="C11" s="2">
-        <v>6.7631111750875741</v>
+        <v>2.3933402705514912</v>
+      </c>
+      <c r="C11" s="5">
+        <v>0</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A12" s="3" t="s">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="B12" s="2">
-        <v>6.0533728687917048</v>
-      </c>
-      <c r="C12" s="2">
-        <v>6.2060785767234883</v>
+        <v>3.1106471816283969</v>
+      </c>
+      <c r="C12" s="5">
+        <v>0</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A13" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="B13" s="6">
-        <v>0</v>
-      </c>
-      <c r="C13" s="6">
+        <v>1</v>
+      </c>
+      <c r="B13" s="2">
+        <v>3.4076763485477288</v>
+      </c>
+      <c r="C13" s="5">
         <v>0</v>
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A14" s="3" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B14" s="2">
-        <v>1.8861601799990313</v>
+        <v>0.85156839495525716</v>
       </c>
       <c r="C14" s="2">
-        <v>1.2063765618268036</v>
+        <v>0.85156839495525716</v>
       </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A15" s="3" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B15" s="2">
-        <v>8.164543746084771</v>
+        <v>0.85120137916173499</v>
       </c>
       <c r="C15" s="2">
-        <v>8.164543746084771</v>
+        <v>0.85120137916173499</v>
       </c>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A16" s="3" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B16" s="2">
-        <v>3.035278455735527</v>
+        <v>0.62472978815390057</v>
       </c>
       <c r="C16" s="2">
-        <v>8.1650765475926335</v>
+        <v>0.59446606139212832</v>
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.3">
@@ -16710,76 +16552,10 @@
         <v>0</v>
       </c>
       <c r="B17" s="2">
-        <v>2.018392451928833</v>
+        <v>1.0866039571845403</v>
       </c>
       <c r="C17" s="2">
-        <v>2.0183924519288161</v>
-      </c>
-    </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A18" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="B18" s="2">
-        <v>0.85156839495525716</v>
-      </c>
-      <c r="C18" s="2">
-        <v>0.85156839495525716</v>
-      </c>
-    </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A19" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="B19" s="2">
-        <v>0.85120137916173499</v>
-      </c>
-      <c r="C19" s="2">
-        <v>0.85120137916173499</v>
-      </c>
-    </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A20" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="B20" s="2">
-        <v>0.62472978815390057</v>
-      </c>
-      <c r="C20" s="2">
-        <v>0.59446606139212832</v>
-      </c>
-    </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A21" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="B21" s="2">
-        <v>0.85828312556820496</v>
-      </c>
-      <c r="C21" s="2">
-        <v>0.61482040772299995</v>
-      </c>
-    </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A22" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="B22" s="2">
-        <v>0.73569114470841412</v>
-      </c>
-      <c r="C22" s="2">
-        <v>0.60475161987039749</v>
-      </c>
-    </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A23" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="B23" s="2">
-        <v>0.60501296456352882</v>
-      </c>
-      <c r="C23" s="2">
-        <v>4.0406222990492751</v>
+        <v>0.37841928857173135</v>
       </c>
     </row>
   </sheetData>
@@ -16790,10 +16566,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{069E79AB-7837-43E7-9B91-18CF028B503B}">
-  <dimension ref="A1:C31"/>
+  <dimension ref="A1:C18"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="C24" sqref="C24:C30"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C14" sqref="C14:C17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -16825,24 +16601,24 @@
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A3" s="3" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B3" s="2">
-        <v>9.0152671755725358</v>
+        <v>6.6088393225939619</v>
       </c>
       <c r="C3" s="2">
-        <v>9.2061068702290143</v>
+        <v>5.0125914378222713</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A4" s="3" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B4" s="2">
-        <v>9.7545853784551699</v>
+        <v>7.8411680057560771</v>
       </c>
       <c r="C4" s="2">
-        <v>9.6911097169428473</v>
+        <v>8.9147379781748555</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.3">
@@ -16850,289 +16626,146 @@
         <v>6</v>
       </c>
       <c r="B5" s="2">
-        <v>10.697674418604644</v>
+        <v>9.7165105243946996</v>
       </c>
       <c r="C5" s="2">
-        <v>11.052631578947352</v>
+        <v>12.548160765705479</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A6" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="B6" s="2">
-        <v>6.6088393225939619</v>
-      </c>
-      <c r="C6" s="2">
-        <v>5.0125914378222713</v>
+        <v>3</v>
+      </c>
+      <c r="B6" s="5">
+        <v>0</v>
+      </c>
+      <c r="C6" s="5">
+        <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A7" s="3" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="B7" s="2">
-        <v>7.8411680057560771</v>
+        <v>11.426305162965111</v>
       </c>
       <c r="C7" s="2">
-        <v>8.9147379781748555</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3" s="5" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="5" t="s">
-        <v>6</v>
+        <v>11.20324968753005</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" s="4" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A8" s="4" t="s">
+        <v>4</v>
       </c>
       <c r="B8" s="2">
-        <v>9.7165105243946996</v>
+        <v>8.0207283719591125</v>
       </c>
       <c r="C8" s="2">
-        <v>12.548160765705479</v>
+        <v>8.1905858644019069</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A9" s="3" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="B9" s="2">
-        <v>12.762925598991167</v>
+        <v>8.7561156412157128</v>
       </c>
       <c r="C9" s="2">
-        <v>12.534678436317762</v>
+        <v>7.8280207561156434</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A10" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="B10" s="6">
+        <v>2</v>
+      </c>
+      <c r="B10" s="5">
         <v>0</v>
       </c>
-      <c r="C10" s="6">
+      <c r="C10" s="5">
         <v>0</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A11" s="3" t="s">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="B11" s="2">
-        <v>11.426305162965111</v>
+        <v>13.756503642039542</v>
       </c>
       <c r="C11" s="2">
-        <v>11.20324968753005</v>
-      </c>
-    </row>
-    <row r="12" spans="1:3" s="5" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="5" t="s">
-        <v>4</v>
+        <v>13.522372528616017</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A12" s="3" t="s">
+        <v>1</v>
       </c>
       <c r="B12" s="2">
-        <v>8.0207283719591125</v>
+        <v>6.8649965205288668</v>
       </c>
       <c r="C12" s="2">
-        <v>8.1905858644019069</v>
+        <v>11.438413361169115</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A13" s="3" t="s">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="B13" s="2">
-        <v>8.7561156412157128</v>
+        <v>4.3360995850622475</v>
       </c>
       <c r="C13" s="2">
-        <v>7.8280207561156434</v>
+        <v>12.266597510373462</v>
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A14" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="B14" s="6">
         <v>0</v>
       </c>
-      <c r="C14" s="6">
-        <v>0</v>
+      <c r="B14" s="2">
+        <v>2.5169774711652404</v>
+      </c>
+      <c r="C14" s="2">
+        <v>0.85156839495525716</v>
       </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A15" s="3" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B15" s="2">
-        <v>0.68012556164214955</v>
+        <v>0.85120137916173499</v>
       </c>
       <c r="C15" s="2">
-        <v>1.0555794915984531</v>
+        <v>0.85120137916173499</v>
       </c>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A16" s="3" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B16" s="2">
-        <v>6.5680501699459199</v>
+        <v>2.2114137483787206</v>
       </c>
       <c r="C16" s="2">
-        <v>10.6419646704007</v>
+        <v>0.59446606139212832</v>
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A17" s="3" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B17" s="2">
-        <v>11.67510785968862</v>
+        <v>0.73701661440875532</v>
       </c>
       <c r="C17" s="2">
-        <v>12.789345338585639</v>
+        <v>0.60547086171476716</v>
       </c>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A18" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="B18" s="2">
-        <v>8.7979397229762597</v>
-      </c>
-      <c r="C18" s="2">
-        <v>14.09062434746293</v>
-      </c>
-    </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A19" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="B19" s="2">
-        <v>13.756503642039542</v>
-      </c>
-      <c r="C19" s="2">
-        <v>13.522372528616017</v>
-      </c>
-    </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A20" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="B20" s="2">
-        <v>10.138312586445373</v>
-      </c>
-      <c r="C20" s="2">
-        <v>13.651452282157686</v>
-      </c>
-    </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A21" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="B21" s="2">
-        <v>6.8649965205288668</v>
-      </c>
-      <c r="C21" s="2">
-        <v>11.438413361169115</v>
-      </c>
-    </row>
-    <row r="22" spans="1:3" s="4" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A22" s="4" t="s">
-        <v>1</v>
-      </c>
-      <c r="B22" s="2">
-        <v>4.3360995850622475</v>
-      </c>
-      <c r="C22" s="2">
-        <v>12.266597510373462</v>
-      </c>
-    </row>
-    <row r="23" spans="1:3" s="4" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A23" s="4" t="s">
-        <v>1</v>
-      </c>
-      <c r="B23" s="2">
-        <v>5.0188595518082986</v>
-      </c>
-      <c r="C23" s="2">
-        <v>8.5117594852451735</v>
-      </c>
-    </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A24" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="B24" s="2">
-        <v>9.2153350053744276</v>
-      </c>
-      <c r="C24" s="2">
-        <v>9.6381225367252128</v>
-      </c>
-    </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A25" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="B25" s="2">
-        <v>2.5169774711652404</v>
-      </c>
-      <c r="C25" s="2">
-        <v>0.85156839495525716</v>
-      </c>
-    </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A26" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="B26" s="2">
-        <v>0.85120137916173499</v>
-      </c>
-      <c r="C26" s="2">
-        <v>0.85120137916173499</v>
-      </c>
-    </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A27" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="B27" s="2">
-        <v>2.2114137483787206</v>
-      </c>
-      <c r="C27" s="2">
-        <v>0.59446606139212832</v>
-      </c>
-    </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A28" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="B28" s="2">
-        <v>0.89526480422823673</v>
-      </c>
-      <c r="C28" s="2">
-        <v>0.61482040772299995</v>
-      </c>
-    </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A29" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="B29" s="2">
-        <v>0.73701661440875532</v>
-      </c>
-      <c r="C29" s="2">
-        <v>0.60547086171476716</v>
-      </c>
-    </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A30" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="B30" s="2">
-        <v>0.65903197925668233</v>
-      </c>
-      <c r="C30" s="2">
-        <v>0.60501296456352882</v>
-      </c>
-    </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="B31" s="3"/>
+      <c r="B18" s="3"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -17142,10 +16775,10 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B5869839-E4A6-456B-87DD-745418874FAC}">
-  <dimension ref="A1:C27"/>
+  <dimension ref="A1:C17"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="C23" sqref="C23:C27"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A34" sqref="A34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -17177,24 +16810,24 @@
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A3" s="3" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B3" s="2">
-        <v>8.7659033078880242</v>
+        <v>9.6020420399842337</v>
       </c>
       <c r="C3" s="2">
-        <v>9.0229007633587788</v>
+        <v>9.791341887516479</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A4" s="3" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B4" s="2">
-        <v>9.7545853784551877</v>
+        <v>10.67407496235894</v>
       </c>
       <c r="C4" s="2">
-        <v>9.6486695944200633</v>
+        <v>14.634848303153863</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.3">
@@ -17202,252 +16835,142 @@
         <v>6</v>
       </c>
       <c r="B5" s="2">
-        <v>12.839657282741731</v>
+        <v>10.913736464290057</v>
       </c>
       <c r="C5" s="2">
-        <v>13.549571603427182</v>
+        <v>12.21154236119558</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A6" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="B6" s="2">
-        <v>9.6020420399842337</v>
-      </c>
-      <c r="C6" s="2">
-        <v>9.791341887516479</v>
+        <v>3</v>
+      </c>
+      <c r="B6" s="5">
+        <v>13.9</v>
+      </c>
+      <c r="C6" s="5">
+        <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A7" s="3" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="B7" s="2">
-        <v>10.67407496235894</v>
+        <v>13.01124891837323</v>
       </c>
       <c r="C7" s="2">
-        <v>14.634848303153863</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3" s="5" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="5" t="s">
-        <v>6</v>
+        <v>12.862087436647579</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" s="4" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A8" s="4" t="s">
+        <v>4</v>
       </c>
       <c r="B8" s="2">
-        <v>10.913736464290057</v>
+        <v>13.827551461062312</v>
       </c>
       <c r="C8" s="2">
-        <v>12.21154236119558</v>
+        <v>14.433088623386588</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A9" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="B9" s="6">
-        <v>13.896595208070615</v>
-      </c>
-      <c r="C9" s="6">
-        <v>0</v>
+        <v>4</v>
+      </c>
+      <c r="B9" s="2">
+        <v>13.137138621200894</v>
+      </c>
+      <c r="C9" s="2">
+        <v>12.48543894948639</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A10" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="B10" s="2">
-        <v>13.01124891837323</v>
-      </c>
-      <c r="C10" s="2">
-        <v>12.862087436647579</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3" s="5" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="5" t="s">
-        <v>4</v>
+        <v>2</v>
+      </c>
+      <c r="B10" s="5">
+        <v>0</v>
+      </c>
+      <c r="C10" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A11" s="3" t="s">
+        <v>1</v>
       </c>
       <c r="B11" s="2">
-        <v>13.827551461062312</v>
+        <v>9.1710024280263465</v>
       </c>
       <c r="C11" s="2">
-        <v>14.433088623386588</v>
+        <v>13.548387096774189</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A12" s="3" t="s">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="B12" s="2">
-        <v>13.137138621200894</v>
+        <v>12.646137787056377</v>
       </c>
       <c r="C12" s="2">
-        <v>12.48543894948639</v>
+        <v>11.783477482851165</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A13" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="B13" s="6">
-        <v>0</v>
-      </c>
-      <c r="C13" s="6">
-        <v>0</v>
+        <v>1</v>
+      </c>
+      <c r="B13" s="2">
+        <v>13.282157676348563</v>
+      </c>
+      <c r="C13" s="2">
+        <v>12.420470262793923</v>
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A14" s="3" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B14" s="2">
-        <v>8.2981473502800593</v>
+        <v>0.85156839495525716</v>
       </c>
       <c r="C14" s="2">
-        <v>10.6419646704007</v>
+        <v>0.85156839495525716</v>
       </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A15" s="3" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B15" s="2">
-        <v>7.2259494060441964</v>
+        <v>0.85120137916173499</v>
       </c>
       <c r="C15" s="2">
-        <v>18.624925698434712</v>
+        <v>0.85120137916173499</v>
       </c>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A16" s="3" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B16" s="2">
-        <v>11.170512099043329</v>
+        <v>0.59446606139212832</v>
       </c>
       <c r="C16" s="2">
-        <v>13.744406034783079</v>
+        <v>0.529787004000427</v>
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A17" s="3" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B17" s="2">
-        <v>13.995614950929214</v>
+        <v>0.6243918261433522</v>
       </c>
       <c r="C17" s="2">
-        <v>13.656295677594485</v>
-      </c>
-    </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A18" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="B18" s="2">
-        <v>9.1710024280263465</v>
-      </c>
-      <c r="C18" s="2">
-        <v>13.548387096774189</v>
-      </c>
-    </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A19" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="B19" s="2">
-        <v>8.6929460580912963</v>
-      </c>
-      <c r="C19" s="2">
-        <v>13.340248962655615</v>
-      </c>
-    </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A20" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="B20" s="2">
-        <v>12.646137787056377</v>
-      </c>
-      <c r="C20" s="2">
-        <v>11.783477482851165</v>
-      </c>
-    </row>
-    <row r="21" spans="1:3" s="4" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A21" s="4" t="s">
-        <v>1</v>
-      </c>
-      <c r="B21" s="2">
-        <v>13.282157676348563</v>
-      </c>
-      <c r="C21" s="2">
-        <v>12.420470262793923</v>
-      </c>
-    </row>
-    <row r="22" spans="1:3" s="4" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A22" s="4" t="s">
-        <v>1</v>
-      </c>
-      <c r="B22" s="2">
-        <v>3.7423267509799589</v>
-      </c>
-      <c r="C22" s="2">
-        <v>7.8417699451646676</v>
-      </c>
-    </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A23" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="B23" s="2">
-        <v>17.167084676937769</v>
-      </c>
-      <c r="C23" s="2">
-        <v>17.331900155260957</v>
-      </c>
-    </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A24" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="B24" s="2">
-        <v>0.85156839495525716</v>
-      </c>
-      <c r="C24" s="2">
-        <v>0.85156839495525716</v>
-      </c>
-    </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A25" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="B25" s="2">
-        <v>0.85120137916173499</v>
-      </c>
-      <c r="C25" s="2">
-        <v>0.85120137916173499</v>
-      </c>
-    </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A26" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="B26" s="2">
-        <v>0.6243918261433522</v>
-      </c>
-      <c r="C26" s="2">
         <v>0.60547086171476716</v>
-      </c>
-    </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A27" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="B27" s="2">
-        <v>1.9792566983578304</v>
-      </c>
-      <c r="C27" s="2">
-        <v>0.60501296456352882</v>
       </c>
     </row>
   </sheetData>
@@ -17458,10 +16981,10 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4C8E2865-3F7D-49BA-A57B-DD69CDC7CB61}">
-  <dimension ref="A1:C28"/>
+  <dimension ref="A1:C17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C23" sqref="C23:C28"/>
+      <selection activeCell="C14" sqref="C14:C17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -17493,287 +17016,166 @@
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A3" s="3" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B3" s="2">
-        <v>8.694656488549624</v>
+        <v>12.450533637126762</v>
       </c>
       <c r="C3" s="2">
-        <v>8.2697201017811537</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" s="5" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="5" t="s">
-        <v>5</v>
+        <v>12.840268617340204</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A4" s="3" t="s">
+        <v>6</v>
       </c>
       <c r="B4" s="2">
-        <v>23.281338627339775</v>
+        <v>9.0613382899628316</v>
       </c>
       <c r="C4" s="2">
-        <v>22.11193042162979</v>
+        <v>8.4692409161770001</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A5" s="3" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B5" s="2">
-        <v>9.3257556187031749</v>
+        <v>12.797582836517011</v>
       </c>
       <c r="C5" s="2">
-        <v>9.2159648669594496</v>
+        <v>9.1454759297562553</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A6" s="3" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="B6" s="2">
-        <v>12.450533637126762</v>
+        <v>23.054824036389757</v>
       </c>
       <c r="C6" s="2">
-        <v>12.840268617340204</v>
+        <v>23.21043811347857</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A7" s="3" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="B7" s="2">
-        <v>9.0613382899628316</v>
+        <v>16.021055667724248</v>
       </c>
       <c r="C7" s="2">
-        <v>8.4692409161770001</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A8" s="3" t="s">
-        <v>6</v>
+        <v>15.931160465339881</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" s="4" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A8" s="4" t="s">
+        <v>4</v>
       </c>
       <c r="B8" s="2">
-        <v>12.797582836517011</v>
+        <v>13.470562832877498</v>
       </c>
       <c r="C8" s="2">
-        <v>9.1454759297562553</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A9" s="3" t="s">
-        <v>3</v>
+        <v>14.761767669497628</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" s="4" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A9" s="4" t="s">
+        <v>4</v>
       </c>
       <c r="B9" s="2">
-        <v>23.054824036389757</v>
+        <v>16.606375092661221</v>
       </c>
       <c r="C9" s="2">
-        <v>23.21043811347857</v>
+        <v>16.071163825055589</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A10" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="B10" s="2">
-        <v>22.557125676488269</v>
-      </c>
-      <c r="C10" s="2">
-        <v>23.024654239326523</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3" s="5" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="5" t="s">
-        <v>4</v>
+        <v>2</v>
+      </c>
+      <c r="B10" s="5">
+        <v>0</v>
+      </c>
+      <c r="C10" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A11" s="3" t="s">
+        <v>1</v>
       </c>
       <c r="B11" s="2">
-        <v>16.021055667724248</v>
+        <v>9.1710024280263465</v>
       </c>
       <c r="C11" s="2">
-        <v>15.931160465339881</v>
-      </c>
-    </row>
-    <row r="12" spans="1:3" s="5" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="5" t="s">
-        <v>4</v>
+        <v>13.756503642039542</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A12" s="3" t="s">
+        <v>1</v>
       </c>
       <c r="B12" s="2">
-        <v>13.470562832877498</v>
+        <v>12.181628392484345</v>
       </c>
       <c r="C12" s="2">
-        <v>14.761767669497628</v>
+        <v>11.484864300626317</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A13" s="3" t="s">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="B13" s="2">
-        <v>16.606375092661221</v>
+        <v>4.7977178423236513</v>
       </c>
       <c r="C13" s="2">
-        <v>16.071163825055589</v>
+        <v>11.989626556016605</v>
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A14" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="B14" s="6">
         <v>0</v>
       </c>
-      <c r="C14" s="6">
-        <v>0</v>
+      <c r="B14" s="2">
+        <v>0.87672020408896478</v>
+      </c>
+      <c r="C14" s="2">
+        <v>0.85156839495525716</v>
       </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A15" s="3" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B15" s="2">
-        <v>6.4573459715640009</v>
+        <v>0.85120137916173499</v>
       </c>
       <c r="C15" s="2">
-        <v>10.6419646704007</v>
+        <v>0.85120137916173499</v>
       </c>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A16" s="3" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B16" s="2">
-        <v>18.624925698434712</v>
+        <v>0.74398328289378801</v>
       </c>
       <c r="C16" s="2">
-        <v>13.744406034783079</v>
+        <v>0.59446606139212832</v>
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A17" s="3" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B17" s="2">
-        <v>10.928531232414194</v>
+        <v>0.86856236710274348</v>
       </c>
       <c r="C17" s="2">
-        <v>13.995614950929214</v>
-      </c>
-    </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A18" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="B18" s="2">
-        <v>10.367508874504079</v>
-      </c>
-      <c r="C18" s="2">
-        <v>13.756503642039542</v>
-      </c>
-    </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A19" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="B19" s="2">
-        <v>9.1710024280263465</v>
-      </c>
-      <c r="C19" s="2">
-        <v>13.96265560165976</v>
-      </c>
-    </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A20" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="B20" s="2">
-        <v>12.181628392484345</v>
-      </c>
-      <c r="C20" s="2">
-        <v>11.484864300626317</v>
-      </c>
-    </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A21" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="B21" s="2">
-        <v>4.7977178423236513</v>
-      </c>
-      <c r="C21" s="2">
-        <v>11.989626556016605</v>
-      </c>
-    </row>
-    <row r="22" spans="1:3" s="4" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A22" s="4" t="s">
-        <v>1</v>
-      </c>
-      <c r="B22" s="2">
-        <v>14.560683381406699</v>
-      </c>
-      <c r="C22" s="2">
-        <v>10.184157976481037</v>
-      </c>
-    </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A23" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="B23" s="2">
-        <v>17.331900155260957</v>
-      </c>
-      <c r="C23" s="2">
-        <v>17.496715633584127</v>
-      </c>
-    </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A24" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="B24" s="2">
-        <v>0.87672020408896478</v>
-      </c>
-      <c r="C24" s="2">
-        <v>0.85156839495525716</v>
-      </c>
-    </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A25" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="B25" s="2">
-        <v>0.85120137916173499</v>
-      </c>
-      <c r="C25" s="2">
-        <v>0.85120137916173499</v>
-      </c>
-    </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A26" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="B26" s="2">
-        <v>0.74398328289378801</v>
-      </c>
-      <c r="C26" s="2">
-        <v>0.59446606139212832</v>
-      </c>
-    </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A27" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="B27" s="2">
-        <v>0.63498920086390898</v>
-      </c>
-      <c r="C27" s="2">
-        <v>0.60475161987039749</v>
-      </c>
-    </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A28" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="B28" s="2">
-        <v>0.86856236710274348</v>
-      </c>
-      <c r="C28" s="2">
         <v>0.60547086171476716</v>
       </c>
     </row>
@@ -17785,10 +17187,10 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{39875847-7D45-4E94-A967-57FE56D91A5D}">
-  <dimension ref="A1:C27"/>
+  <dimension ref="A1:C17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C21" sqref="C21:C27"/>
+      <selection activeCell="C14" sqref="C14:C17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -17820,277 +17222,167 @@
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A3" s="3" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B3" s="2">
-        <v>8.8422391857506213</v>
+        <v>13.856577527281457</v>
       </c>
       <c r="C3" s="2">
-        <v>9.0279898218829562</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" s="5" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="5" t="s">
-        <v>5</v>
+        <v>21.003717472118961</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A4" s="3" t="s">
+        <v>6</v>
       </c>
       <c r="B4" s="2">
-        <v>26.216676120249577</v>
+        <v>9.9372426749810234</v>
       </c>
       <c r="C4" s="2">
-        <v>25.827188504443182</v>
+        <v>8.2663788623735837</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A5" s="3" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B5" s="2">
-        <v>9.3800051666236293</v>
+        <v>18.153059982966283</v>
       </c>
       <c r="C5" s="2">
-        <v>8.886592611728247</v>
+        <v>16.579470332968341</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A6" s="3" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="B6" s="2">
-        <v>13.856577527281457</v>
+        <v>27.340196313143405</v>
       </c>
       <c r="C6" s="2">
-        <v>21.003717472118961</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A7" s="3" t="s">
-        <v>6</v>
+        <v>26.837443141010304</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" s="4" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A7" s="4" t="s">
+        <v>4</v>
       </c>
       <c r="B7" s="2">
-        <v>9.9372426749810234</v>
+        <v>17.662244014998556</v>
       </c>
       <c r="C7" s="2">
-        <v>8.2663788623735837</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A8" s="3" t="s">
-        <v>6</v>
+        <v>20.954715892702623</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" s="4" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A8" s="4" t="s">
+        <v>4</v>
       </c>
       <c r="B8" s="2">
-        <v>18.153059982966283</v>
+        <v>17.79041312796889</v>
       </c>
       <c r="C8" s="2">
-        <v>16.579470332968341</v>
+        <v>18.909841178446314</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A9" s="3" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B9" s="2">
-        <v>27.340196313143405</v>
+        <v>18.474425500370653</v>
       </c>
       <c r="C9" s="2">
-        <v>26.837443141010304</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3" s="5" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="5" t="s">
-        <v>4</v>
-      </c>
-      <c r="B10" s="2">
-        <v>25.898977751052321</v>
-      </c>
-      <c r="C10" s="2">
-        <v>25.593806374022837</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3" s="5" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="5" t="s">
-        <v>4</v>
+        <v>19.599703484062267</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A10" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="B10" s="5">
+        <v>0</v>
+      </c>
+      <c r="C10" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A11" s="3" t="s">
+        <v>1</v>
       </c>
       <c r="B11" s="2">
-        <v>17.662244014998556</v>
+        <v>9.0031217481789678</v>
       </c>
       <c r="C11" s="2">
-        <v>20.954715892702623</v>
+        <v>14.819979188345478</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A12" s="3" t="s">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="B12" s="2">
-        <v>17.79041312796889</v>
+        <v>25.933194154488525</v>
       </c>
       <c r="C12" s="2">
-        <v>18.909841178446314</v>
+        <v>19.684237995824638</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A13" s="3" t="s">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="B13" s="2">
-        <v>18.474425500370653</v>
+        <v>27.559647302904573</v>
       </c>
       <c r="C13" s="2">
-        <v>19.599703484062267</v>
+        <v>21.489626556016606</v>
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A14" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="B14" s="6">
         <v>0</v>
       </c>
-      <c r="C14" s="6">
-        <v>0</v>
+      <c r="B14" s="2">
+        <v>0.85156839495525716</v>
+      </c>
+      <c r="C14" s="2">
+        <v>3.0218102116344867</v>
       </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A15" s="3" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B15" s="2">
-        <v>27.411099498887907</v>
+        <v>3.0420572495779954</v>
       </c>
       <c r="C15" s="2">
-        <v>24.763177640217609</v>
+        <v>0.87275078116582505</v>
       </c>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A16" s="3" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B16" s="2">
-        <v>25.723301083501564</v>
+        <v>0.7890185905749999</v>
       </c>
       <c r="C16" s="2">
-        <v>17.926498225099188</v>
+        <v>0.59446606139212832</v>
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A17" s="3" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B17" s="2">
-        <v>9.0031217481789678</v>
+        <v>0.60547086171476716</v>
       </c>
       <c r="C17" s="2">
-        <v>14.819979188345478</v>
-      </c>
-    </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A18" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="B18" s="2">
-        <v>27.237700059276833</v>
-      </c>
-      <c r="C18" s="2">
-        <v>21.234439834024911</v>
-      </c>
-    </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A19" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="B19" s="2">
-        <v>25.933194154488525</v>
-      </c>
-      <c r="C19" s="2">
-        <v>19.684237995824638</v>
-      </c>
-    </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A20" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="B20" s="2">
-        <v>27.559647302904573</v>
-      </c>
-      <c r="C20" s="2">
-        <v>21.489626556016606</v>
-      </c>
-    </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A21" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="B21" s="2">
-        <v>17.167084676937769</v>
-      </c>
-      <c r="C21" s="2">
-        <v>17.496715633584127</v>
-      </c>
-    </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A22" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="B22" s="2">
-        <v>0.85156839495525716</v>
-      </c>
-      <c r="C22" s="2">
-        <v>3.0218102116344867</v>
-      </c>
-    </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A23" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="B23" s="2">
-        <v>0.7890185905749999</v>
-      </c>
-      <c r="C23" s="2">
-        <v>0.59446606139212832</v>
-      </c>
-    </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A24" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="B24" s="2">
-        <v>0.8116708014237769</v>
-      </c>
-      <c r="C24" s="2">
-        <v>0.61482040772299995</v>
-      </c>
-    </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A25" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="B25" s="2">
-        <v>4.3007559395248247</v>
-      </c>
-      <c r="C25" s="2">
-        <v>0.60475161987039749</v>
-      </c>
-    </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A26" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="B26" s="2">
         <v>0.60547086171476716</v>
-      </c>
-      <c r="C26" s="2">
-        <v>0.60547086171476716</v>
-      </c>
-    </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A27" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="B27" s="2">
-        <v>0.77787381158167546</v>
-      </c>
-      <c r="C27" s="2">
-        <v>0.60501296456352882</v>
       </c>
     </row>
   </sheetData>
@@ -18101,10 +17393,10 @@
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{715F5221-F63D-4A06-B575-844C47CF8DF2}">
-  <dimension ref="A1:C24"/>
+  <dimension ref="A1:C17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C19" sqref="C19:C24"/>
+      <selection activeCell="C14" sqref="C14:C17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -18114,16 +17406,16 @@
     <col min="3" max="3" width="26.44140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" s="5" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B1" s="5" t="s">
+    <row r="1" spans="1:3" s="4" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="B1" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="C1" s="5" t="s">
+      <c r="C1" s="4" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="2" spans="1:3" s="5" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="5" t="s">
+    <row r="2" spans="1:3" s="4" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="4" t="s">
         <v>5</v>
       </c>
       <c r="B2" s="2">
@@ -18133,246 +17425,169 @@
         <v>10.68997787987068</v>
       </c>
     </row>
-    <row r="3" spans="1:3" s="5" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="5" t="s">
-        <v>5</v>
+    <row r="3" spans="1:3" s="4" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="4" t="s">
+        <v>6</v>
       </c>
       <c r="B3" s="2">
-        <v>8.6386768447837063</v>
+        <v>23.523204221129632</v>
       </c>
       <c r="C3" s="2">
-        <v>8.3933115230824971</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" s="5" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="5" t="s">
-        <v>5</v>
+        <v>18.971099652236486</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" s="4" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="4" t="s">
+        <v>6</v>
       </c>
       <c r="B4" s="2">
-        <v>25.516165626772548</v>
+        <v>18.971099652236472</v>
       </c>
       <c r="C4" s="2">
-        <v>25.609756097560972</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" s="5" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="5" t="s">
-        <v>5</v>
+        <v>22.730543230603185</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" s="4" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A5" s="4" t="s">
+        <v>6</v>
       </c>
       <c r="B5" s="2">
-        <v>9.578920175665198</v>
+        <v>14.858863608711511</v>
       </c>
       <c r="C5" s="2">
-        <v>9.2396452251786823</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" s="5" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="5" t="s">
-        <v>6</v>
+        <v>14.922739992699844</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" s="4" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A6" s="4" t="s">
+        <v>3</v>
       </c>
       <c r="B6" s="2">
-        <v>23.523204221129632</v>
+        <v>29.147713670098163</v>
       </c>
       <c r="C6" s="2">
-        <v>18.971099652236486</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3" s="5" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="5" t="s">
-        <v>6</v>
+        <v>28.860426143164958</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" s="4" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A7" s="4" t="s">
+        <v>4</v>
       </c>
       <c r="B7" s="2">
-        <v>18.971099652236472</v>
+        <v>20.761465243726576</v>
       </c>
       <c r="C7" s="2">
-        <v>22.730543230603185</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3" s="5" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="5" t="s">
-        <v>6</v>
+        <v>19.671185462936265</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" s="4" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A8" s="4" t="s">
+        <v>4</v>
       </c>
       <c r="B8" s="2">
-        <v>14.858863608711511</v>
+        <v>19.739455880236065</v>
       </c>
       <c r="C8" s="2">
-        <v>14.922739992699844</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3" s="5" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="5" t="s">
-        <v>3</v>
+        <v>21.356940645842329</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" s="4" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A9" s="4" t="s">
+        <v>4</v>
       </c>
       <c r="B9" s="2">
-        <v>29.147713670098163</v>
+        <v>22.019273535952564</v>
       </c>
       <c r="C9" s="2">
-        <v>28.860426143164958</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3" s="5" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="5" t="s">
-        <v>4</v>
-      </c>
-      <c r="B10" s="2">
-        <v>26.988875526157553</v>
-      </c>
-      <c r="C10" s="2">
-        <v>27.347038484666264</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3" s="5" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="5" t="s">
-        <v>4</v>
+        <v>21.986656782802083</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" s="4" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A10" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="B10" s="5">
+        <v>0</v>
+      </c>
+      <c r="C10" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" s="4" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A11" s="4" t="s">
+        <v>1</v>
       </c>
       <c r="B11" s="2">
-        <v>20.761465243726576</v>
-      </c>
-      <c r="C11" s="2">
-        <v>19.671185462936265</v>
-      </c>
-    </row>
-    <row r="12" spans="1:3" s="5" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="5" t="s">
-        <v>4</v>
+        <v>30.010405827263259</v>
+      </c>
+      <c r="C11" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" s="4" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A12" s="4" t="s">
+        <v>1</v>
       </c>
       <c r="B12" s="2">
-        <v>19.739455880236065</v>
-      </c>
-      <c r="C12" s="2">
-        <v>21.356940645842329</v>
-      </c>
-    </row>
-    <row r="13" spans="1:3" s="5" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="5" t="s">
-        <v>4</v>
+        <v>29.373695198329859</v>
+      </c>
+      <c r="C12" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" s="4" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A13" s="4" t="s">
+        <v>1</v>
       </c>
       <c r="B13" s="2">
-        <v>22.019273535952564</v>
-      </c>
-      <c r="C13" s="2">
-        <v>21.986656782802083</v>
-      </c>
-    </row>
-    <row r="14" spans="1:3" s="5" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="5" t="s">
-        <v>2</v>
-      </c>
-      <c r="B14" s="6">
+        <v>19.875518672199181</v>
+      </c>
+      <c r="C13" s="5">
         <v>0</v>
       </c>
-      <c r="C14" s="6">
+    </row>
+    <row r="14" spans="1:3" s="4" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A14" s="4" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:3" s="5" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A15" s="5" t="s">
-        <v>1</v>
+      <c r="B14" s="2">
+        <v>0.87043225180553019</v>
+      </c>
+      <c r="C14" s="2">
+        <v>0.83000970141209018</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" s="4" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A15" s="4" t="s">
+        <v>0</v>
       </c>
       <c r="B15" s="2">
-        <v>12.550624730719518</v>
+        <v>0.94952052580541801</v>
       </c>
       <c r="C15" s="2">
-        <v>34.037052994398962</v>
-      </c>
-    </row>
-    <row r="16" spans="1:3" s="5" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="5" t="s">
-        <v>1</v>
+        <v>0.85120137916173499</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" s="4" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A16" s="4" t="s">
+        <v>0</v>
       </c>
       <c r="B16" s="2">
-        <v>14.483851793144447</v>
+        <v>0.77388672719411367</v>
       </c>
       <c r="C16" s="2">
-        <v>34.773132553992461</v>
-      </c>
-    </row>
-    <row r="17" spans="1:3" s="5" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="5" t="s">
-        <v>1</v>
+        <v>0.59446606139214375</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" s="4" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A17" s="4" t="s">
+        <v>0</v>
       </c>
       <c r="B17" s="2">
-        <v>19.875518672199181</v>
+        <v>0.60547086171476716</v>
       </c>
       <c r="C17" s="2">
-        <v>31.680497925311208</v>
-      </c>
-    </row>
-    <row r="18" spans="1:3" s="5" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A18" s="5" t="s">
-        <v>1</v>
-      </c>
-      <c r="B18" s="2">
-        <v>25.826492123363661</v>
-      </c>
-      <c r="C18" s="2">
-        <v>27.801198136232529</v>
-      </c>
-    </row>
-    <row r="19" spans="1:3" s="5" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A19" s="5" t="s">
-        <v>0</v>
-      </c>
-      <c r="B19" s="2">
-        <v>17.167084676937769</v>
-      </c>
-      <c r="C19" s="2">
-        <v>17.496715633584127</v>
-      </c>
-    </row>
-    <row r="20" spans="1:3" s="5" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A20" s="5" t="s">
-        <v>0</v>
-      </c>
-      <c r="B20" s="2">
-        <v>0.94952052580541801</v>
-      </c>
-      <c r="C20" s="2">
-        <v>0.85120137916173499</v>
-      </c>
-    </row>
-    <row r="21" spans="1:3" s="5" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A21" s="5" t="s">
-        <v>0</v>
-      </c>
-      <c r="B21" s="2">
-        <v>0.77388672719411367</v>
-      </c>
-      <c r="C21" s="2">
-        <v>0.59446606139214375</v>
-      </c>
-    </row>
-    <row r="22" spans="1:3" s="5" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A22" s="5" t="s">
-        <v>0</v>
-      </c>
-      <c r="B22" s="2">
-        <v>0.60475161987039749</v>
-      </c>
-      <c r="C22" s="2">
-        <v>0.60475161987039749</v>
-      </c>
-    </row>
-    <row r="23" spans="1:3" s="5" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A23" s="5" t="s">
-        <v>0</v>
-      </c>
-      <c r="B23" s="2">
         <v>0.60547086171476716</v>
-      </c>
-      <c r="C23" s="2">
-        <v>0.60547086171476716</v>
-      </c>
-    </row>
-    <row r="24" spans="1:3" s="5" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A24" s="5" t="s">
-        <v>0</v>
-      </c>
-      <c r="B24" s="2">
-        <v>0.60501296456352882</v>
-      </c>
-      <c r="C24" s="2">
-        <v>0.60501296456352882</v>
       </c>
     </row>
   </sheetData>
@@ -18383,10 +17598,10 @@
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D1305E75-3EFB-45B1-8D9B-FF12946223A4}">
-  <dimension ref="A1:C27"/>
+  <dimension ref="A1:C21"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C20" sqref="C20:C27"/>
+      <selection activeCell="C18" sqref="C18:C21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -18396,16 +17611,16 @@
     <col min="3" max="3" width="23.21875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" s="5" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B1" s="5" t="s">
+    <row r="1" spans="1:3" s="4" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="B1" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="C1" s="5" t="s">
+      <c r="C1" s="4" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="2" spans="1:3" s="5" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="5" t="s">
+    <row r="2" spans="1:3" s="4" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="4" t="s">
         <v>5</v>
       </c>
       <c r="B2" s="2">
@@ -18415,279 +17630,213 @@
         <v>14.605666156202155</v>
       </c>
     </row>
-    <row r="3" spans="1:3" s="5" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="5" t="s">
-        <v>5</v>
+    <row r="3" spans="1:3" s="4" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="4" t="s">
+        <v>6</v>
       </c>
       <c r="B3" s="2">
-        <v>17.982188295165376</v>
+        <v>27.395371147619624</v>
       </c>
       <c r="C3" s="2">
-        <v>13.604749787955889</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" s="5" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="5" t="s">
-        <v>5</v>
+        <v>27.170524043650325</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" s="4" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="4" t="s">
+        <v>6</v>
       </c>
       <c r="B4" s="2">
-        <v>25.779920589903575</v>
+        <v>15.129711795978743</v>
       </c>
       <c r="C4" s="2">
-        <v>25.645207033465677</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" s="5" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="5" t="s">
-        <v>5</v>
+        <v>15.174481352680171</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" s="4" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A5" s="4" t="s">
+        <v>6</v>
       </c>
       <c r="B5" s="2">
-        <v>18.155515370705249</v>
+        <v>28.434116072514893</v>
       </c>
       <c r="C5" s="2">
-        <v>10.20408163265305</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" s="5" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="5" t="s">
-        <v>6</v>
+        <v>26.990307012207481</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" s="4" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A6" s="4" t="s">
+        <v>3</v>
       </c>
       <c r="B6" s="2">
-        <v>27.395371147619624</v>
+        <v>28.130237012209726</v>
       </c>
       <c r="C6" s="2">
-        <v>27.170524043650325</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3" s="5" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="5" t="s">
-        <v>6</v>
+        <v>28.285851089298546</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" s="4" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A7" s="4" t="s">
+        <v>4</v>
       </c>
       <c r="B7" s="2">
-        <v>15.129711795978743</v>
+        <v>21.997404095760022</v>
       </c>
       <c r="C7" s="2">
-        <v>15.174481352680171</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3" s="5" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="5" t="s">
-        <v>6</v>
+        <v>19.697625228343433</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" s="4" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A8" s="4" t="s">
+        <v>4</v>
       </c>
       <c r="B8" s="2">
-        <v>28.434116072514893</v>
+        <v>22.222542104505546</v>
       </c>
       <c r="C8" s="2">
-        <v>26.990307012207481</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3" s="5" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="5" t="s">
-        <v>3</v>
+        <v>24.591910177054839</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" s="4" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A9" s="4" t="s">
+        <v>4</v>
       </c>
       <c r="B9" s="2">
-        <v>28.130237012209726</v>
+        <v>29.123795404002962</v>
       </c>
       <c r="C9" s="2">
-        <v>28.285851089298546</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3" s="5" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="5" t="s">
-        <v>4</v>
+        <v>28.531187122736419</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" s="4" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A10" s="4" t="s">
+        <v>2</v>
       </c>
       <c r="B10" s="2">
-        <v>25.605832832230913</v>
+        <v>39.274767708459038</v>
       </c>
       <c r="C10" s="2">
-        <v>24.891761876127472</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3" s="5" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="5" t="s">
-        <v>4</v>
+        <v>39.256667068903106</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" s="4" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A11" s="4" t="s">
+        <v>2</v>
       </c>
       <c r="B11" s="2">
-        <v>21.997404095760022</v>
+        <v>39.371620809804163</v>
       </c>
       <c r="C11" s="2">
-        <v>19.697625228343433</v>
-      </c>
-    </row>
-    <row r="12" spans="1:3" s="5" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="5" t="s">
-        <v>4</v>
+        <v>39.172173495133976</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" s="4" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A12" s="4" t="s">
+        <v>2</v>
       </c>
       <c r="B12" s="2">
-        <v>22.222542104505546</v>
+        <v>39.121710921542721</v>
       </c>
       <c r="C12" s="2">
-        <v>24.591910177054839</v>
-      </c>
-    </row>
-    <row r="13" spans="1:3" s="5" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="5" t="s">
-        <v>4</v>
+        <v>39.208218190556302</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" s="4" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A13" s="4" t="s">
+        <v>2</v>
       </c>
       <c r="B13" s="2">
-        <v>29.123795404002962</v>
+        <v>39.731195756991319</v>
       </c>
       <c r="C13" s="2">
-        <v>28.531187122736419</v>
-      </c>
-    </row>
-    <row r="14" spans="1:3" s="5" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="5" t="s">
+        <v>39.693828351012542</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" s="4" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A14" s="4" t="s">
         <v>2</v>
       </c>
       <c r="B14" s="2">
-        <v>39.274767708459038</v>
+        <v>39.747399702823195</v>
       </c>
       <c r="C14" s="2">
-        <v>39.256667068903106</v>
-      </c>
-    </row>
-    <row r="15" spans="1:3" s="5" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A15" s="5" t="s">
-        <v>2</v>
+        <v>39.747399702823188</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" s="4" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A15" s="4" t="s">
+        <v>1</v>
       </c>
       <c r="B15" s="2">
-        <v>39.371620809804163</v>
-      </c>
-      <c r="C15" s="2">
-        <v>39.172173495133976</v>
-      </c>
-    </row>
-    <row r="16" spans="1:3" s="5" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="5" t="s">
-        <v>2</v>
+        <v>30.010405827263259</v>
+      </c>
+      <c r="C15" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" s="4" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A16" s="4" t="s">
+        <v>1</v>
       </c>
       <c r="B16" s="2">
-        <v>39.121710921542721</v>
-      </c>
-      <c r="C16" s="2">
-        <v>39.208218190556302</v>
-      </c>
-    </row>
-    <row r="17" spans="1:3" s="5" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="5" t="s">
-        <v>2</v>
+        <v>29.373695198329859</v>
+      </c>
+      <c r="C16" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" s="4" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A17" s="4" t="s">
+        <v>1</v>
       </c>
       <c r="B17" s="2">
-        <v>39.731195756991319</v>
-      </c>
-      <c r="C17" s="2">
-        <v>39.693828351012542</v>
-      </c>
-    </row>
-    <row r="18" spans="1:3" s="5" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A18" s="5" t="s">
-        <v>2</v>
+        <v>29.813278008298759</v>
+      </c>
+      <c r="C17" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" s="4" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A18" s="4" t="s">
+        <v>0</v>
       </c>
       <c r="B18" s="2">
-        <v>39.747399702823195</v>
+        <v>0.96398158271608825</v>
       </c>
       <c r="C18" s="2">
-        <v>39.747399702823188</v>
-      </c>
-    </row>
-    <row r="19" spans="1:3" s="5" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A19" s="5" t="s">
-        <v>1</v>
+        <v>0.85156839495525716</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" s="4" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A19" s="4" t="s">
+        <v>0</v>
       </c>
       <c r="B19" s="2">
-        <v>36.437487616405775</v>
+        <v>0.86628596056459661</v>
       </c>
       <c r="C19" s="2">
-        <v>37.269665147612443</v>
-      </c>
-    </row>
-    <row r="20" spans="1:3" s="5" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A20" s="5" t="s">
+        <v>0.85120137916173499</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" s="4" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A20" s="4" t="s">
         <v>0</v>
       </c>
       <c r="B20" s="2">
-        <v>17.496715633584127</v>
+        <v>0.594466061392113</v>
       </c>
       <c r="C20" s="2">
-        <v>17.496715633584127</v>
-      </c>
-    </row>
-    <row r="21" spans="1:3" s="5" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A21" s="5" t="s">
+        <v>0.59446606139212832</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" s="4" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A21" s="4" t="s">
         <v>0</v>
       </c>
       <c r="B21" s="2">
-        <v>0.96398158271608825</v>
+        <v>0.74737809492916252</v>
       </c>
       <c r="C21" s="2">
-        <v>0.85156839495525716</v>
-      </c>
-    </row>
-    <row r="22" spans="1:3" s="5" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A22" s="5" t="s">
-        <v>0</v>
-      </c>
-      <c r="B22" s="2">
-        <v>0.86628596056459661</v>
-      </c>
-      <c r="C22" s="2">
-        <v>0.85120137916173499</v>
-      </c>
-    </row>
-    <row r="23" spans="1:3" s="5" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A23" s="5" t="s">
-        <v>0</v>
-      </c>
-      <c r="B23" s="2">
-        <v>0.594466061392113</v>
-      </c>
-      <c r="C23" s="2">
-        <v>0.59446606139212832</v>
-      </c>
-    </row>
-    <row r="24" spans="1:3" s="5" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A24" s="5" t="s">
-        <v>0</v>
-      </c>
-      <c r="B24" s="2">
-        <v>0.81167080142379222</v>
-      </c>
-      <c r="C24" s="2">
-        <v>0.61482040772299995</v>
-      </c>
-    </row>
-    <row r="25" spans="1:3" s="5" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A25" s="5" t="s">
-        <v>0</v>
-      </c>
-      <c r="B25" s="2">
-        <v>0.64254859611230986</v>
-      </c>
-      <c r="C25" s="2">
-        <v>0.60475161987039749</v>
-      </c>
-    </row>
-    <row r="26" spans="1:3" s="5" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A26" s="5" t="s">
-        <v>0</v>
-      </c>
-      <c r="B26" s="2">
-        <v>0.74737809492916252</v>
-      </c>
-      <c r="C26" s="2">
         <v>0.60547086171476716</v>
-      </c>
-    </row>
-    <row r="27" spans="1:3" s="5" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A27" s="5" t="s">
-        <v>0</v>
-      </c>
-      <c r="B27" s="2">
-        <v>0.60501296456352882</v>
-      </c>
-      <c r="C27" s="2">
-        <v>0.60501296456352882</v>
       </c>
     </row>
   </sheetData>
